--- a/PES/Office salaries/Feb Salary Sheet New (2024).xlsx
+++ b/PES/Office salaries/Feb Salary Sheet New (2024).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office salaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D36B3-2941-4F99-8503-A44A4D5BF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E3911-D81B-43F6-95C3-271C3D83341A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13815" yWindow="5055" windowWidth="15330" windowHeight="10890" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salary Sheets" sheetId="1" r:id="rId1"/>
@@ -3712,9 +3712,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="I60" s="200">
         <f>'Salary Record'!I223</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J60" s="175">
         <f>'Salary Record'!K224</f>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="K60" s="66">
         <f>'Salary Record'!K225</f>
-        <v>28965.517241379308</v>
+        <v>32586.206896551721</v>
       </c>
       <c r="L60" s="176">
         <f>'Salary Record'!G223</f>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="Q60" s="180">
         <f>'Salary Record'!K227</f>
-        <v>25965.517241379308</v>
+        <v>29586.206896551721</v>
       </c>
       <c r="R60" s="316"/>
       <c r="T60" s="330"/>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="D68" s="142">
         <f>SUM(Q46:Q91)</f>
-        <v>5181367.6724137943</v>
+        <v>5192229.7413793113</v>
       </c>
       <c r="E68" s="200">
         <f>'Salary Record'!K611</f>
@@ -7256,7 +7256,7 @@
       <c r="R68" s="316"/>
       <c r="S68" s="316">
         <f>Q58+Q68+Q62+Q59+Q60</f>
-        <v>209655.1724137931</v>
+        <v>213275.86206896551</v>
       </c>
       <c r="T68" s="330"/>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="K69" s="229">
         <f>SUM(K56:K68)</f>
-        <v>693146.55172413797</v>
+        <v>696767.24137931038</v>
       </c>
       <c r="L69" s="227"/>
       <c r="M69" s="227"/>
@@ -7290,7 +7290,7 @@
       <c r="P69" s="227"/>
       <c r="Q69" s="201">
         <f>SUM(Q56:Q68)</f>
-        <v>678905.17241379316</v>
+        <v>682525.86206896557</v>
       </c>
       <c r="R69" s="202"/>
       <c r="S69" s="225">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="D73" s="144">
         <f>SUM(Q27:Q84)</f>
-        <v>3954878.0172413792</v>
+        <v>3962119.3965517245</v>
       </c>
       <c r="E73" s="200">
         <f>'Salary Record'!K723</f>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="Q86" s="205">
         <f>SUM(Q4+Q5++Q69+Q53+Q45+Q34+Q27+Q20+Q11+Q84)+20000</f>
-        <v>2334608.1896551726</v>
+        <v>2338228.8793103453</v>
       </c>
       <c r="R86" s="79"/>
       <c r="S86" s="8"/>
@@ -8868,7 +8868,7 @@
       <c r="D108" s="83"/>
       <c r="E108" s="83">
         <f>Q69</f>
-        <v>678905.17241379316</v>
+        <v>682525.86206896557</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108"/>
@@ -8895,7 +8895,7 @@
       <c r="F109"/>
       <c r="G109" s="8">
         <f>E112-E98-E99-E100-E101-E102-E111</f>
-        <v>2353692.2413793104</v>
+        <v>2357312.931034483</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="E112" s="81">
         <f>SUM(E98:E111)</f>
-        <v>2538692.2413793104</v>
+        <v>2542312.931034483</v>
       </c>
       <c r="F112"/>
       <c r="G112"/>
@@ -9336,8 +9336,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC862"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A783" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A812" sqref="A812:L812"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A206" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="P228" sqref="P228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -19610,8 +19610,8 @@
         <v>9</v>
       </c>
       <c r="R220" s="356">
-        <f>IF(Q220="","",R219-Q220)+9</f>
-        <v>8</v>
+        <f>IF(Q220="","",R219-Q220)+6</f>
+        <v>5</v>
       </c>
       <c r="S220" s="27"/>
       <c r="T220" s="36" t="s">
@@ -19743,15 +19743,15 @@
       </c>
       <c r="H223" s="285"/>
       <c r="I223" s="333">
-        <f>IF(C227&gt;=C226,$K$2,C225+C227)-8</f>
-        <v>20</v>
+        <f>IF(C227&gt;=C226,$K$2,C225+C227)-2</f>
+        <v>23</v>
       </c>
       <c r="J223" s="290" t="s">
         <v>59</v>
       </c>
       <c r="K223" s="291">
         <f>K219/$K$2*I223</f>
-        <v>24137.931034482757</v>
+        <v>27758.62068965517</v>
       </c>
       <c r="L223" s="292"/>
       <c r="N223" s="35"/>
@@ -19864,7 +19864,7 @@
       <c r="J225" s="392"/>
       <c r="K225" s="294">
         <f>K223+K224</f>
-        <v>28965.517241379308</v>
+        <v>32586.206896551721</v>
       </c>
       <c r="L225" s="295"/>
       <c r="N225" s="35"/>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="C227" s="293">
         <f>IF($J$1="January",R219,IF($J$1="February",R220,IF($J$1="March",R221,IF($J$1="April",R222,IF($J$1="May",R223,IF($J$1="June",R224,IF($J$1="July",R225,IF($J$1="August",R226,IF($J$1="August",R226,IF($J$1="September",R227,IF($J$1="October",R228,IF($J$1="November",R229,IF($J$1="December",R230)))))))))))))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D227" s="270"/>
       <c r="E227" s="270"/>
@@ -19980,7 +19980,7 @@
       <c r="J227" s="398"/>
       <c r="K227" s="229">
         <f>K225-K226</f>
-        <v>25965.517241379308</v>
+        <v>29586.206896551721</v>
       </c>
       <c r="L227" s="297"/>
       <c r="N227" s="35"/>
@@ -20020,8 +20020,13 @@
       <c r="G228" s="270"/>
       <c r="H228" s="270"/>
       <c r="I228" s="270"/>
-      <c r="J228" s="270"/>
-      <c r="K228" s="270"/>
+      <c r="J228" s="270">
+        <v>26000</v>
+      </c>
+      <c r="K228" s="304">
+        <f>K227-J228</f>
+        <v>3586.206896551721</v>
+      </c>
       <c r="L228" s="284"/>
       <c r="N228" s="35"/>
       <c r="O228" s="36" t="s">

--- a/PES/Office salaries/Feb Salary Sheet New (2024).xlsx
+++ b/PES/Office salaries/Feb Salary Sheet New (2024).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office salaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E3911-D81B-43F6-95C3-271C3D83341A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D13370-B4C6-4D39-8FCC-04D06D30A741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="236">
   <si>
     <t>Name</t>
   </si>
@@ -1055,6 +1055,9 @@
   </si>
   <si>
     <t xml:space="preserve"> EY, ENGRO, TRIFIT, Bank Al Habib</t>
+  </si>
+  <si>
+    <t>In march salary 2 days will be given to RAZA</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2021,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2959,39 +2962,6 @@
     <xf numFmtId="0" fontId="55" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="28" fillId="17" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3031,6 +3001,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3049,6 +3037,27 @@
     <xf numFmtId="165" fontId="22" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3058,19 +3067,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3082,38 +3085,32 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3124,6 +3121,9 @@
     <xf numFmtId="0" fontId="60" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3131,6 +3131,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3151,25 +3160,19 @@
     <xf numFmtId="0" fontId="60" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3228,6 +3231,9 @@
     </xf>
     <xf numFmtId="165" fontId="54" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3746,27 +3752,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="214" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="373" t="s">
+      <c r="A1" s="362" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="371" t="str">
+      <c r="B1" s="363"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
+      <c r="L1" s="363"/>
+      <c r="M1" s="363"/>
+      <c r="N1" s="360" t="str">
         <f>'Salary Record'!J1</f>
         <v>February</v>
       </c>
-      <c r="O1" s="371"/>
-      <c r="P1" s="371">
+      <c r="O1" s="360"/>
+      <c r="P1" s="360">
         <f>'Salary Record'!K1</f>
         <v>2024</v>
       </c>
@@ -3775,22 +3781,22 @@
       <c r="T1" s="215"/>
     </row>
     <row r="2" spans="1:20" s="214" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="375"/>
-      <c r="B2" s="376"/>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376"/>
-      <c r="E2" s="376"/>
-      <c r="F2" s="376"/>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="376"/>
-      <c r="J2" s="376"/>
-      <c r="K2" s="376"/>
-      <c r="L2" s="376"/>
-      <c r="M2" s="376"/>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
+      <c r="A2" s="364"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
+      <c r="N2" s="361"/>
+      <c r="O2" s="361"/>
+      <c r="P2" s="361"/>
       <c r="Q2" s="217"/>
       <c r="R2" s="213"/>
       <c r="T2" s="215"/>
@@ -3902,25 +3908,25 @@
       <c r="T5" s="119"/>
     </row>
     <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="358" t="s">
+      <c r="A6" s="371" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="359"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="359"/>
-      <c r="M6" s="359"/>
-      <c r="N6" s="359"/>
-      <c r="O6" s="359"/>
-      <c r="P6" s="359"/>
-      <c r="Q6" s="360"/>
+      <c r="B6" s="372"/>
+      <c r="C6" s="372"/>
+      <c r="D6" s="372"/>
+      <c r="E6" s="372"/>
+      <c r="F6" s="372"/>
+      <c r="G6" s="372"/>
+      <c r="H6" s="372"/>
+      <c r="I6" s="372"/>
+      <c r="J6" s="372"/>
+      <c r="K6" s="372"/>
+      <c r="L6" s="372"/>
+      <c r="M6" s="372"/>
+      <c r="N6" s="372"/>
+      <c r="O6" s="372"/>
+      <c r="P6" s="372"/>
+      <c r="Q6" s="373"/>
       <c r="R6" s="78"/>
     </row>
     <row r="7" spans="1:20" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -3930,10 +3936,10 @@
       <c r="B7" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="382" t="s">
+      <c r="C7" s="377" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="385">
+      <c r="D7" s="380">
         <f>SUM(Q7:Q10)</f>
         <v>0</v>
       </c>
@@ -3965,8 +3971,8 @@
       <c r="B8" s="311" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="383"/>
-      <c r="D8" s="386"/>
+      <c r="C8" s="378"/>
+      <c r="D8" s="381"/>
       <c r="E8" s="66">
         <v>25000</v>
       </c>
@@ -3995,8 +4001,8 @@
       <c r="B9" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="383"/>
-      <c r="D9" s="386"/>
+      <c r="C9" s="378"/>
+      <c r="D9" s="381"/>
       <c r="E9" s="66">
         <v>20000</v>
       </c>
@@ -4024,8 +4030,8 @@
       <c r="B10" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="384"/>
-      <c r="D10" s="387"/>
+      <c r="C10" s="379"/>
+      <c r="D10" s="382"/>
       <c r="E10" s="66">
         <v>15000</v>
       </c>
@@ -4047,10 +4053,10 @@
       <c r="T10" s="120"/>
     </row>
     <row r="11" spans="1:20" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="361" t="s">
+      <c r="A11" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="362"/>
+      <c r="B11" s="384"/>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
       <c r="E11" s="229">
@@ -4097,25 +4103,25 @@
       <c r="T12" s="226"/>
     </row>
     <row r="13" spans="1:20" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="366" t="s">
+      <c r="A13" s="374" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="367"/>
-      <c r="C13" s="367"/>
-      <c r="D13" s="367"/>
-      <c r="E13" s="367"/>
-      <c r="F13" s="367"/>
-      <c r="G13" s="367"/>
-      <c r="H13" s="367"/>
-      <c r="I13" s="367"/>
-      <c r="J13" s="367"/>
-      <c r="K13" s="367"/>
-      <c r="L13" s="367"/>
-      <c r="M13" s="367"/>
-      <c r="N13" s="367"/>
-      <c r="O13" s="367"/>
-      <c r="P13" s="367"/>
-      <c r="Q13" s="368"/>
+      <c r="B13" s="375"/>
+      <c r="C13" s="375"/>
+      <c r="D13" s="375"/>
+      <c r="E13" s="375"/>
+      <c r="F13" s="375"/>
+      <c r="G13" s="375"/>
+      <c r="H13" s="375"/>
+      <c r="I13" s="375"/>
+      <c r="J13" s="375"/>
+      <c r="K13" s="375"/>
+      <c r="L13" s="375"/>
+      <c r="M13" s="375"/>
+      <c r="N13" s="375"/>
+      <c r="O13" s="375"/>
+      <c r="P13" s="375"/>
+      <c r="Q13" s="376"/>
       <c r="R13" s="157"/>
       <c r="T13" s="159"/>
     </row>
@@ -4515,10 +4521,10 @@
       <c r="T19" s="119"/>
     </row>
     <row r="20" spans="1:22" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="361" t="s">
+      <c r="A20" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="362"/>
+      <c r="B20" s="384"/>
       <c r="C20" s="227"/>
       <c r="D20" s="227"/>
       <c r="E20" s="229">
@@ -4572,25 +4578,25 @@
       <c r="T21" s="226"/>
     </row>
     <row r="22" spans="1:22" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="358" t="s">
+      <c r="A22" s="371" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="359"/>
-      <c r="C22" s="359"/>
-      <c r="D22" s="359"/>
-      <c r="E22" s="359"/>
-      <c r="F22" s="359"/>
-      <c r="G22" s="359"/>
-      <c r="H22" s="359"/>
-      <c r="I22" s="359"/>
-      <c r="J22" s="359"/>
-      <c r="K22" s="359"/>
-      <c r="L22" s="359"/>
-      <c r="M22" s="359"/>
-      <c r="N22" s="359"/>
-      <c r="O22" s="359"/>
-      <c r="P22" s="359"/>
-      <c r="Q22" s="360"/>
+      <c r="B22" s="372"/>
+      <c r="C22" s="372"/>
+      <c r="D22" s="372"/>
+      <c r="E22" s="372"/>
+      <c r="F22" s="372"/>
+      <c r="G22" s="372"/>
+      <c r="H22" s="372"/>
+      <c r="I22" s="372"/>
+      <c r="J22" s="372"/>
+      <c r="K22" s="372"/>
+      <c r="L22" s="372"/>
+      <c r="M22" s="372"/>
+      <c r="N22" s="372"/>
+      <c r="O22" s="372"/>
+      <c r="P22" s="372"/>
+      <c r="Q22" s="373"/>
       <c r="R22" s="154"/>
       <c r="S22" s="160"/>
       <c r="T22" s="156"/>
@@ -4863,10 +4869,10 @@
       <c r="V26" s="316"/>
     </row>
     <row r="27" spans="1:22" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="361" t="s">
+      <c r="A27" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="362"/>
+      <c r="B27" s="384"/>
       <c r="C27" s="227"/>
       <c r="D27" s="227"/>
       <c r="E27" s="229">
@@ -4924,25 +4930,25 @@
       <c r="T28" s="226"/>
     </row>
     <row r="29" spans="1:22" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="366" t="s">
+      <c r="A29" s="374" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="367"/>
-      <c r="C29" s="367"/>
-      <c r="D29" s="367"/>
-      <c r="E29" s="367"/>
-      <c r="F29" s="367"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="367"/>
-      <c r="I29" s="367"/>
-      <c r="J29" s="367"/>
-      <c r="K29" s="367"/>
-      <c r="L29" s="367"/>
-      <c r="M29" s="367"/>
-      <c r="N29" s="367"/>
-      <c r="O29" s="367"/>
-      <c r="P29" s="367"/>
-      <c r="Q29" s="368"/>
+      <c r="B29" s="375"/>
+      <c r="C29" s="375"/>
+      <c r="D29" s="375"/>
+      <c r="E29" s="375"/>
+      <c r="F29" s="375"/>
+      <c r="G29" s="375"/>
+      <c r="H29" s="375"/>
+      <c r="I29" s="375"/>
+      <c r="J29" s="375"/>
+      <c r="K29" s="375"/>
+      <c r="L29" s="375"/>
+      <c r="M29" s="375"/>
+      <c r="N29" s="375"/>
+      <c r="O29" s="375"/>
+      <c r="P29" s="375"/>
+      <c r="Q29" s="376"/>
       <c r="R29" s="245"/>
       <c r="T29" s="159"/>
     </row>
@@ -5212,10 +5218,10 @@
       <c r="S33" s="117"/>
     </row>
     <row r="34" spans="1:24" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="361" t="s">
+      <c r="A34" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="362"/>
+      <c r="B34" s="384"/>
       <c r="C34" s="227"/>
       <c r="D34" s="227"/>
       <c r="E34" s="229">
@@ -5269,25 +5275,25 @@
       <c r="T35" s="226"/>
     </row>
     <row r="36" spans="1:24" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="363" t="s">
+      <c r="A36" s="385" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="364"/>
-      <c r="C36" s="364"/>
-      <c r="D36" s="364"/>
-      <c r="E36" s="364"/>
-      <c r="F36" s="364"/>
-      <c r="G36" s="364"/>
-      <c r="H36" s="364"/>
-      <c r="I36" s="364"/>
-      <c r="J36" s="364"/>
-      <c r="K36" s="364"/>
-      <c r="L36" s="364"/>
-      <c r="M36" s="364"/>
-      <c r="N36" s="364"/>
-      <c r="O36" s="364"/>
-      <c r="P36" s="364"/>
-      <c r="Q36" s="365"/>
+      <c r="B36" s="386"/>
+      <c r="C36" s="386"/>
+      <c r="D36" s="386"/>
+      <c r="E36" s="386"/>
+      <c r="F36" s="386"/>
+      <c r="G36" s="386"/>
+      <c r="H36" s="386"/>
+      <c r="I36" s="386"/>
+      <c r="J36" s="386"/>
+      <c r="K36" s="386"/>
+      <c r="L36" s="386"/>
+      <c r="M36" s="386"/>
+      <c r="N36" s="386"/>
+      <c r="O36" s="386"/>
+      <c r="P36" s="386"/>
+      <c r="Q36" s="387"/>
       <c r="R36" s="161"/>
       <c r="S36" s="162">
         <f>Q37+Q41+Q42+Q43+Q82</f>
@@ -5848,10 +5854,10 @@
       <c r="X44" s="119"/>
     </row>
     <row r="45" spans="1:24" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="361" t="s">
+      <c r="A45" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="362"/>
+      <c r="B45" s="384"/>
       <c r="C45" s="227"/>
       <c r="D45" s="227"/>
       <c r="E45" s="229">
@@ -5883,25 +5889,25 @@
       <c r="T45" s="204"/>
     </row>
     <row r="46" spans="1:24" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="358" t="s">
+      <c r="A46" s="371" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="359"/>
-      <c r="C46" s="359"/>
-      <c r="D46" s="359"/>
-      <c r="E46" s="359"/>
-      <c r="F46" s="359"/>
-      <c r="G46" s="359"/>
-      <c r="H46" s="359"/>
-      <c r="I46" s="359"/>
-      <c r="J46" s="359"/>
-      <c r="K46" s="359"/>
-      <c r="L46" s="359"/>
-      <c r="M46" s="359"/>
-      <c r="N46" s="359"/>
-      <c r="O46" s="359"/>
-      <c r="P46" s="359"/>
-      <c r="Q46" s="360"/>
+      <c r="B46" s="372"/>
+      <c r="C46" s="372"/>
+      <c r="D46" s="372"/>
+      <c r="E46" s="372"/>
+      <c r="F46" s="372"/>
+      <c r="G46" s="372"/>
+      <c r="H46" s="372"/>
+      <c r="I46" s="372"/>
+      <c r="J46" s="372"/>
+      <c r="K46" s="372"/>
+      <c r="L46" s="372"/>
+      <c r="M46" s="372"/>
+      <c r="N46" s="372"/>
+      <c r="O46" s="372"/>
+      <c r="P46" s="372"/>
+      <c r="Q46" s="373"/>
       <c r="R46" s="165"/>
       <c r="S46" s="160"/>
       <c r="T46" s="156"/>
@@ -6319,10 +6325,10 @@
       <c r="T52" s="125"/>
     </row>
     <row r="53" spans="1:23" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="361" t="s">
+      <c r="A53" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="362"/>
+      <c r="B53" s="384"/>
       <c r="C53" s="227"/>
       <c r="D53" s="227"/>
       <c r="E53" s="229">
@@ -6375,25 +6381,25 @@
       <c r="T54" s="226"/>
     </row>
     <row r="55" spans="1:23" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="358" t="s">
+      <c r="A55" s="371" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="359"/>
-      <c r="C55" s="359"/>
-      <c r="D55" s="359"/>
-      <c r="E55" s="359"/>
-      <c r="F55" s="359"/>
-      <c r="G55" s="359"/>
-      <c r="H55" s="359"/>
-      <c r="I55" s="359"/>
-      <c r="J55" s="359"/>
-      <c r="K55" s="359"/>
-      <c r="L55" s="359"/>
-      <c r="M55" s="359"/>
-      <c r="N55" s="359"/>
-      <c r="O55" s="359"/>
-      <c r="P55" s="359"/>
-      <c r="Q55" s="360"/>
+      <c r="B55" s="372"/>
+      <c r="C55" s="372"/>
+      <c r="D55" s="372"/>
+      <c r="E55" s="372"/>
+      <c r="F55" s="372"/>
+      <c r="G55" s="372"/>
+      <c r="H55" s="372"/>
+      <c r="I55" s="372"/>
+      <c r="J55" s="372"/>
+      <c r="K55" s="372"/>
+      <c r="L55" s="372"/>
+      <c r="M55" s="372"/>
+      <c r="N55" s="372"/>
+      <c r="O55" s="372"/>
+      <c r="P55" s="372"/>
+      <c r="Q55" s="373"/>
       <c r="R55" s="165"/>
       <c r="S55" s="160"/>
       <c r="T55" s="156"/>
@@ -7261,10 +7267,10 @@
       <c r="T68" s="330"/>
     </row>
     <row r="69" spans="1:24" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="361" t="s">
+      <c r="A69" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="362"/>
+      <c r="B69" s="384"/>
       <c r="C69" s="227"/>
       <c r="D69" s="227"/>
       <c r="E69" s="229">
@@ -7321,25 +7327,25 @@
       <c r="T70" s="226"/>
     </row>
     <row r="71" spans="1:24" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="366" t="s">
+      <c r="A71" s="374" t="s">
         <v>234</v>
       </c>
-      <c r="B71" s="367"/>
-      <c r="C71" s="367"/>
-      <c r="D71" s="367"/>
-      <c r="E71" s="367"/>
-      <c r="F71" s="367"/>
-      <c r="G71" s="367"/>
-      <c r="H71" s="367"/>
-      <c r="I71" s="367"/>
-      <c r="J71" s="367"/>
-      <c r="K71" s="367"/>
-      <c r="L71" s="367"/>
-      <c r="M71" s="367"/>
-      <c r="N71" s="367"/>
-      <c r="O71" s="367"/>
-      <c r="P71" s="367"/>
-      <c r="Q71" s="368"/>
+      <c r="B71" s="375"/>
+      <c r="C71" s="375"/>
+      <c r="D71" s="375"/>
+      <c r="E71" s="375"/>
+      <c r="F71" s="375"/>
+      <c r="G71" s="375"/>
+      <c r="H71" s="375"/>
+      <c r="I71" s="375"/>
+      <c r="J71" s="375"/>
+      <c r="K71" s="375"/>
+      <c r="L71" s="375"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="375"/>
+      <c r="O71" s="375"/>
+      <c r="P71" s="375"/>
+      <c r="Q71" s="376"/>
       <c r="R71" s="157"/>
       <c r="S71" s="218"/>
       <c r="T71" s="159"/>
@@ -8152,10 +8158,10 @@
       <c r="T83" s="119"/>
     </row>
     <row r="84" spans="1:21" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="361" t="s">
+      <c r="A84" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="362"/>
+      <c r="B84" s="384"/>
       <c r="C84" s="227"/>
       <c r="D84" s="227"/>
       <c r="E84" s="231">
@@ -8208,10 +8214,10 @@
       <c r="T85" s="261"/>
     </row>
     <row r="86" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="377" t="s">
+      <c r="A86" s="366" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="378"/>
+      <c r="B86" s="367"/>
       <c r="C86" s="221"/>
       <c r="D86" s="221"/>
       <c r="E86" s="232">
@@ -8259,48 +8265,48 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="379" t="s">
+      <c r="A87" s="368" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="380"/>
-      <c r="C87" s="380"/>
-      <c r="D87" s="380"/>
-      <c r="E87" s="380"/>
-      <c r="F87" s="380"/>
-      <c r="G87" s="380"/>
-      <c r="H87" s="380"/>
-      <c r="I87" s="380"/>
-      <c r="J87" s="380"/>
-      <c r="K87" s="380"/>
-      <c r="L87" s="380"/>
-      <c r="M87" s="380"/>
-      <c r="N87" s="380"/>
-      <c r="O87" s="380"/>
-      <c r="P87" s="381"/>
+      <c r="B87" s="369"/>
+      <c r="C87" s="369"/>
+      <c r="D87" s="369"/>
+      <c r="E87" s="369"/>
+      <c r="F87" s="369"/>
+      <c r="G87" s="369"/>
+      <c r="H87" s="369"/>
+      <c r="I87" s="369"/>
+      <c r="J87" s="369"/>
+      <c r="K87" s="369"/>
+      <c r="L87" s="369"/>
+      <c r="M87" s="369"/>
+      <c r="N87" s="369"/>
+      <c r="O87" s="369"/>
+      <c r="P87" s="370"/>
       <c r="Q87" s="93"/>
       <c r="R87" s="79"/>
       <c r="S87" s="8"/>
       <c r="U87" s="8"/>
     </row>
     <row r="88" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="379" t="s">
+      <c r="A88" s="368" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="380"/>
-      <c r="C88" s="380"/>
-      <c r="D88" s="380"/>
-      <c r="E88" s="380"/>
-      <c r="F88" s="380"/>
-      <c r="G88" s="380"/>
-      <c r="H88" s="380"/>
-      <c r="I88" s="380"/>
-      <c r="J88" s="380"/>
-      <c r="K88" s="380"/>
-      <c r="L88" s="380"/>
-      <c r="M88" s="380"/>
-      <c r="N88" s="380"/>
-      <c r="O88" s="380"/>
-      <c r="P88" s="381"/>
+      <c r="B88" s="369"/>
+      <c r="C88" s="369"/>
+      <c r="D88" s="369"/>
+      <c r="E88" s="369"/>
+      <c r="F88" s="369"/>
+      <c r="G88" s="369"/>
+      <c r="H88" s="369"/>
+      <c r="I88" s="369"/>
+      <c r="J88" s="369"/>
+      <c r="K88" s="369"/>
+      <c r="L88" s="369"/>
+      <c r="M88" s="369"/>
+      <c r="N88" s="369"/>
+      <c r="O88" s="369"/>
+      <c r="P88" s="370"/>
       <c r="Q88" s="93"/>
       <c r="R88" s="79"/>
       <c r="S88" s="8"/>
@@ -8593,19 +8599,19 @@
       <c r="S95" s="8"/>
     </row>
     <row r="96" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B96" s="369" t="s">
+      <c r="B96" s="358" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="370"/>
-      <c r="D96" s="370"/>
-      <c r="E96" s="370"/>
-      <c r="F96" s="370"/>
-      <c r="G96" s="370"/>
-      <c r="H96" s="370"/>
-      <c r="I96" s="370"/>
-      <c r="J96" s="370"/>
-      <c r="K96" s="370"/>
-      <c r="L96" s="370"/>
+      <c r="C96" s="359"/>
+      <c r="D96" s="359"/>
+      <c r="E96" s="359"/>
+      <c r="F96" s="359"/>
+      <c r="G96" s="359"/>
+      <c r="H96" s="359"/>
+      <c r="I96" s="359"/>
+      <c r="J96" s="359"/>
+      <c r="K96" s="359"/>
+      <c r="L96" s="359"/>
       <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
@@ -9289,6 +9295,15 @@
   </sheetData>
   <autoFilter ref="A3:X112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="25">
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A36:Q36"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A46:Q46"/>
     <mergeCell ref="B96:L96"/>
     <mergeCell ref="N1:O2"/>
     <mergeCell ref="A1:M2"/>
@@ -9305,15 +9320,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A46:Q46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9336,8 +9342,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC862"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A206" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="P228" sqref="P228"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A691" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="K714" sqref="K714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9376,15 +9382,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C1" s="425" t="s">
+      <c r="C1" s="411" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
-      <c r="F1" s="425"/>
-      <c r="G1" s="425"/>
-      <c r="H1" s="425"/>
-      <c r="I1" s="425"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
       <c r="J1" s="269" t="s">
         <v>231</v>
       </c>
@@ -9493,58 +9499,58 @@
       <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="393" t="s">
+      <c r="A7" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="394"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="394"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="394"/>
-      <c r="G7" s="394"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="394"/>
-      <c r="K7" s="394"/>
-      <c r="L7" s="395"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
+      <c r="F7" s="402"/>
+      <c r="G7" s="402"/>
+      <c r="H7" s="402"/>
+      <c r="I7" s="402"/>
+      <c r="J7" s="402"/>
+      <c r="K7" s="402"/>
+      <c r="L7" s="403"/>
       <c r="M7" s="24"/>
       <c r="N7" s="28"/>
-      <c r="O7" s="388" t="s">
+      <c r="O7" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="389"/>
-      <c r="Q7" s="389"/>
-      <c r="R7" s="390"/>
+      <c r="P7" s="391"/>
+      <c r="Q7" s="391"/>
+      <c r="R7" s="392"/>
       <c r="S7" s="29"/>
-      <c r="T7" s="388" t="s">
+      <c r="T7" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="389"/>
-      <c r="V7" s="389"/>
-      <c r="W7" s="389"/>
-      <c r="X7" s="389"/>
-      <c r="Y7" s="390"/>
+      <c r="U7" s="391"/>
+      <c r="V7" s="391"/>
+      <c r="W7" s="391"/>
+      <c r="X7" s="391"/>
+      <c r="Y7" s="392"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="24"/>
     </row>
     <row r="8" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="272"/>
       <c r="B8" s="270"/>
-      <c r="C8" s="399" t="s">
+      <c r="C8" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="399"/>
-      <c r="E8" s="399"/>
-      <c r="F8" s="399"/>
+      <c r="D8" s="393"/>
+      <c r="E8" s="393"/>
+      <c r="F8" s="393"/>
       <c r="G8" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H8" s="402">
+      <c r="H8" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I8" s="402"/>
+      <c r="I8" s="400"/>
       <c r="J8" s="270"/>
       <c r="K8" s="274"/>
       <c r="L8" s="275"/>
@@ -9776,10 +9782,10 @@
     </row>
     <row r="13" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="272"/>
-      <c r="B13" s="400" t="s">
+      <c r="B13" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="401"/>
+      <c r="C13" s="395"/>
       <c r="D13" s="270"/>
       <c r="E13" s="270"/>
       <c r="F13" s="287" t="s">
@@ -9904,10 +9910,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="285"/>
-      <c r="I15" s="391" t="s">
+      <c r="I15" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="392"/>
+      <c r="J15" s="389"/>
       <c r="K15" s="294">
         <f>K13+K14</f>
         <v>75000</v>
@@ -9962,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="285"/>
-      <c r="I16" s="391" t="s">
+      <c r="I16" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="392"/>
+      <c r="J16" s="389"/>
       <c r="K16" s="288">
         <f>G16</f>
         <v>0</v>
@@ -10214,58 +10220,58 @@
       <c r="Z21" s="57"/>
     </row>
     <row r="22" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="393" t="s">
+      <c r="A22" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="394"/>
-      <c r="C22" s="394"/>
-      <c r="D22" s="394"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="394"/>
-      <c r="G22" s="394"/>
-      <c r="H22" s="394"/>
-      <c r="I22" s="394"/>
-      <c r="J22" s="394"/>
-      <c r="K22" s="394"/>
-      <c r="L22" s="395"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="402"/>
+      <c r="D22" s="402"/>
+      <c r="E22" s="402"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="402"/>
+      <c r="H22" s="402"/>
+      <c r="I22" s="402"/>
+      <c r="J22" s="402"/>
+      <c r="K22" s="402"/>
+      <c r="L22" s="403"/>
       <c r="M22" s="24"/>
       <c r="N22" s="39"/>
-      <c r="O22" s="403" t="s">
+      <c r="O22" s="426" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="404"/>
-      <c r="Q22" s="404"/>
-      <c r="R22" s="405"/>
+      <c r="P22" s="427"/>
+      <c r="Q22" s="427"/>
+      <c r="R22" s="428"/>
       <c r="S22" s="27"/>
-      <c r="T22" s="403" t="s">
+      <c r="T22" s="426" t="s">
         <v>41</v>
       </c>
-      <c r="U22" s="404"/>
-      <c r="V22" s="404"/>
-      <c r="W22" s="404"/>
-      <c r="X22" s="404"/>
-      <c r="Y22" s="405"/>
+      <c r="U22" s="427"/>
+      <c r="V22" s="427"/>
+      <c r="W22" s="427"/>
+      <c r="X22" s="427"/>
+      <c r="Y22" s="428"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="24"/>
     </row>
     <row r="23" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="272"/>
       <c r="B23" s="270"/>
-      <c r="C23" s="399" t="s">
+      <c r="C23" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="399"/>
-      <c r="E23" s="399"/>
-      <c r="F23" s="399"/>
+      <c r="D23" s="393"/>
+      <c r="E23" s="393"/>
+      <c r="F23" s="393"/>
       <c r="G23" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H23" s="402">
+      <c r="H23" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I23" s="402"/>
+      <c r="I23" s="400"/>
       <c r="J23" s="270"/>
       <c r="K23" s="274"/>
       <c r="L23" s="275"/>
@@ -10484,10 +10490,10 @@
     </row>
     <row r="28" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="272"/>
-      <c r="B28" s="400" t="s">
+      <c r="B28" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="401"/>
+      <c r="C28" s="395"/>
       <c r="D28" s="270"/>
       <c r="E28" s="270"/>
       <c r="F28" s="287" t="s">
@@ -10610,10 +10616,10 @@
         <v>1000</v>
       </c>
       <c r="H30" s="285"/>
-      <c r="I30" s="391" t="s">
+      <c r="I30" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="392"/>
+      <c r="J30" s="389"/>
       <c r="K30" s="294">
         <f>K28+K29</f>
         <v>6000</v>
@@ -10665,10 +10671,10 @@
         <v>1000</v>
       </c>
       <c r="H31" s="285"/>
-      <c r="I31" s="391" t="s">
+      <c r="I31" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="392"/>
+      <c r="J31" s="389"/>
       <c r="K31" s="288">
         <v>1000</v>
       </c>
@@ -10907,58 +10913,58 @@
       <c r="Z36" s="57"/>
     </row>
     <row r="37" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="393" t="s">
+      <c r="A37" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="394"/>
-      <c r="C37" s="394"/>
-      <c r="D37" s="394"/>
-      <c r="E37" s="394"/>
-      <c r="F37" s="394"/>
-      <c r="G37" s="394"/>
-      <c r="H37" s="394"/>
-      <c r="I37" s="394"/>
-      <c r="J37" s="394"/>
-      <c r="K37" s="394"/>
-      <c r="L37" s="395"/>
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="402"/>
+      <c r="E37" s="402"/>
+      <c r="F37" s="402"/>
+      <c r="G37" s="402"/>
+      <c r="H37" s="402"/>
+      <c r="I37" s="402"/>
+      <c r="J37" s="402"/>
+      <c r="K37" s="402"/>
+      <c r="L37" s="403"/>
       <c r="M37" s="24"/>
       <c r="N37" s="28"/>
-      <c r="O37" s="388" t="s">
+      <c r="O37" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P37" s="389"/>
-      <c r="Q37" s="389"/>
-      <c r="R37" s="390"/>
+      <c r="P37" s="391"/>
+      <c r="Q37" s="391"/>
+      <c r="R37" s="392"/>
       <c r="S37" s="29"/>
-      <c r="T37" s="388" t="s">
+      <c r="T37" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U37" s="389"/>
-      <c r="V37" s="389"/>
-      <c r="W37" s="389"/>
-      <c r="X37" s="389"/>
-      <c r="Y37" s="390"/>
+      <c r="U37" s="391"/>
+      <c r="V37" s="391"/>
+      <c r="W37" s="391"/>
+      <c r="X37" s="391"/>
+      <c r="Y37" s="392"/>
       <c r="Z37" s="30"/>
       <c r="AA37" s="24"/>
     </row>
     <row r="38" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="272"/>
       <c r="B38" s="270"/>
-      <c r="C38" s="399" t="s">
+      <c r="C38" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="399"/>
-      <c r="E38" s="399"/>
-      <c r="F38" s="399"/>
+      <c r="D38" s="393"/>
+      <c r="E38" s="393"/>
+      <c r="F38" s="393"/>
       <c r="G38" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H38" s="402">
+      <c r="H38" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I38" s="402"/>
+      <c r="I38" s="400"/>
       <c r="J38" s="270"/>
       <c r="K38" s="274"/>
       <c r="L38" s="275"/>
@@ -11182,10 +11188,10 @@
     </row>
     <row r="43" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="272"/>
-      <c r="B43" s="400" t="s">
+      <c r="B43" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="401"/>
+      <c r="C43" s="395"/>
       <c r="D43" s="270"/>
       <c r="E43" s="270"/>
       <c r="F43" s="287" t="s">
@@ -11309,10 +11315,10 @@
         <v>8000</v>
       </c>
       <c r="H45" s="285"/>
-      <c r="I45" s="391" t="s">
+      <c r="I45" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="392"/>
+      <c r="J45" s="389"/>
       <c r="K45" s="294">
         <f>K43+K44</f>
         <v>23000</v>
@@ -11367,10 +11373,10 @@
         <v>1000</v>
       </c>
       <c r="H46" s="285"/>
-      <c r="I46" s="391" t="s">
+      <c r="I46" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J46" s="392"/>
+      <c r="J46" s="389"/>
       <c r="K46" s="288">
         <f>G46</f>
         <v>1000</v>
@@ -11604,58 +11610,58 @@
       <c r="Z51" s="57"/>
     </row>
     <row r="52" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="393" t="s">
+      <c r="A52" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="394"/>
-      <c r="C52" s="394"/>
-      <c r="D52" s="394"/>
-      <c r="E52" s="394"/>
-      <c r="F52" s="394"/>
-      <c r="G52" s="394"/>
-      <c r="H52" s="394"/>
-      <c r="I52" s="394"/>
-      <c r="J52" s="394"/>
-      <c r="K52" s="394"/>
-      <c r="L52" s="395"/>
+      <c r="B52" s="402"/>
+      <c r="C52" s="402"/>
+      <c r="D52" s="402"/>
+      <c r="E52" s="402"/>
+      <c r="F52" s="402"/>
+      <c r="G52" s="402"/>
+      <c r="H52" s="402"/>
+      <c r="I52" s="402"/>
+      <c r="J52" s="402"/>
+      <c r="K52" s="402"/>
+      <c r="L52" s="403"/>
       <c r="M52" s="24"/>
       <c r="N52" s="28"/>
-      <c r="O52" s="388" t="s">
+      <c r="O52" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P52" s="389"/>
-      <c r="Q52" s="389"/>
-      <c r="R52" s="390"/>
+      <c r="P52" s="391"/>
+      <c r="Q52" s="391"/>
+      <c r="R52" s="392"/>
       <c r="S52" s="29"/>
-      <c r="T52" s="388" t="s">
+      <c r="T52" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U52" s="389"/>
-      <c r="V52" s="389"/>
-      <c r="W52" s="389"/>
-      <c r="X52" s="389"/>
-      <c r="Y52" s="390"/>
+      <c r="U52" s="391"/>
+      <c r="V52" s="391"/>
+      <c r="W52" s="391"/>
+      <c r="X52" s="391"/>
+      <c r="Y52" s="392"/>
       <c r="Z52" s="30"/>
       <c r="AA52" s="24"/>
     </row>
     <row r="53" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="272"/>
       <c r="B53" s="270"/>
-      <c r="C53" s="399" t="s">
+      <c r="C53" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="399"/>
-      <c r="E53" s="399"/>
-      <c r="F53" s="399"/>
+      <c r="D53" s="393"/>
+      <c r="E53" s="393"/>
+      <c r="F53" s="393"/>
       <c r="G53" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H53" s="402">
+      <c r="H53" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I53" s="402"/>
+      <c r="I53" s="400"/>
       <c r="J53" s="270"/>
       <c r="K53" s="274"/>
       <c r="L53" s="275"/>
@@ -11891,10 +11897,10 @@
     </row>
     <row r="58" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="272"/>
-      <c r="B58" s="400" t="s">
+      <c r="B58" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="401"/>
+      <c r="C58" s="395"/>
       <c r="D58" s="270"/>
       <c r="E58" s="270"/>
       <c r="F58" s="287" t="s">
@@ -12019,10 +12025,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="285"/>
-      <c r="I60" s="391" t="s">
+      <c r="I60" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J60" s="392"/>
+      <c r="J60" s="389"/>
       <c r="K60" s="294">
         <f>K58+K59</f>
         <v>47000</v>
@@ -12077,10 +12083,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="285"/>
-      <c r="I61" s="391" t="s">
+      <c r="I61" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J61" s="392"/>
+      <c r="J61" s="389"/>
       <c r="K61" s="288">
         <f>G61</f>
         <v>0</v>
@@ -12327,57 +12333,57 @@
       <c r="Z66" s="57"/>
     </row>
     <row r="67" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="393" t="s">
+      <c r="A67" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="394"/>
-      <c r="C67" s="394"/>
-      <c r="D67" s="394"/>
-      <c r="E67" s="394"/>
-      <c r="F67" s="394"/>
-      <c r="G67" s="394"/>
-      <c r="H67" s="394"/>
-      <c r="I67" s="394"/>
-      <c r="J67" s="394"/>
-      <c r="K67" s="394"/>
-      <c r="L67" s="395"/>
+      <c r="B67" s="402"/>
+      <c r="C67" s="402"/>
+      <c r="D67" s="402"/>
+      <c r="E67" s="402"/>
+      <c r="F67" s="402"/>
+      <c r="G67" s="402"/>
+      <c r="H67" s="402"/>
+      <c r="I67" s="402"/>
+      <c r="J67" s="402"/>
+      <c r="K67" s="402"/>
+      <c r="L67" s="403"/>
       <c r="M67" s="24"/>
       <c r="N67" s="28"/>
-      <c r="O67" s="388" t="s">
+      <c r="O67" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P67" s="389"/>
-      <c r="Q67" s="389"/>
-      <c r="R67" s="390"/>
+      <c r="P67" s="391"/>
+      <c r="Q67" s="391"/>
+      <c r="R67" s="392"/>
       <c r="S67" s="29"/>
-      <c r="T67" s="388" t="s">
+      <c r="T67" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U67" s="389"/>
-      <c r="V67" s="389"/>
-      <c r="W67" s="389"/>
-      <c r="X67" s="389"/>
-      <c r="Y67" s="390"/>
+      <c r="U67" s="391"/>
+      <c r="V67" s="391"/>
+      <c r="W67" s="391"/>
+      <c r="X67" s="391"/>
+      <c r="Y67" s="392"/>
       <c r="Z67" s="30"/>
     </row>
     <row r="68" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="272"/>
       <c r="B68" s="270"/>
-      <c r="C68" s="399" t="s">
+      <c r="C68" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="399"/>
-      <c r="E68" s="399"/>
-      <c r="F68" s="399"/>
+      <c r="D68" s="393"/>
+      <c r="E68" s="393"/>
+      <c r="F68" s="393"/>
       <c r="G68" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H68" s="402">
+      <c r="H68" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I68" s="402"/>
+      <c r="I68" s="400"/>
       <c r="J68" s="270"/>
       <c r="K68" s="274"/>
       <c r="L68" s="275"/>
@@ -12610,10 +12616,10 @@
     </row>
     <row r="73" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="272"/>
-      <c r="B73" s="400" t="s">
+      <c r="B73" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="401"/>
+      <c r="C73" s="395"/>
       <c r="D73" s="270"/>
       <c r="E73" s="270"/>
       <c r="F73" s="287" t="s">
@@ -12733,10 +12739,10 @@
         <v>40000</v>
       </c>
       <c r="H75" s="285"/>
-      <c r="I75" s="391" t="s">
+      <c r="I75" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J75" s="392"/>
+      <c r="J75" s="389"/>
       <c r="K75" s="294">
         <f>K73+K74</f>
         <v>80000</v>
@@ -12790,10 +12796,10 @@
         <v>3000</v>
       </c>
       <c r="H76" s="285"/>
-      <c r="I76" s="391" t="s">
+      <c r="I76" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J76" s="392"/>
+      <c r="J76" s="389"/>
       <c r="K76" s="288">
         <f>G76</f>
         <v>3000</v>
@@ -13039,58 +13045,58 @@
       <c r="Z81" s="57"/>
     </row>
     <row r="82" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="393" t="s">
+      <c r="A82" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="394"/>
-      <c r="C82" s="394"/>
-      <c r="D82" s="394"/>
-      <c r="E82" s="394"/>
-      <c r="F82" s="394"/>
-      <c r="G82" s="394"/>
-      <c r="H82" s="394"/>
-      <c r="I82" s="394"/>
-      <c r="J82" s="394"/>
-      <c r="K82" s="394"/>
-      <c r="L82" s="395"/>
+      <c r="B82" s="402"/>
+      <c r="C82" s="402"/>
+      <c r="D82" s="402"/>
+      <c r="E82" s="402"/>
+      <c r="F82" s="402"/>
+      <c r="G82" s="402"/>
+      <c r="H82" s="402"/>
+      <c r="I82" s="402"/>
+      <c r="J82" s="402"/>
+      <c r="K82" s="402"/>
+      <c r="L82" s="403"/>
       <c r="M82" s="24"/>
       <c r="N82" s="28"/>
-      <c r="O82" s="388" t="s">
+      <c r="O82" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P82" s="389"/>
-      <c r="Q82" s="389"/>
-      <c r="R82" s="390"/>
+      <c r="P82" s="391"/>
+      <c r="Q82" s="391"/>
+      <c r="R82" s="392"/>
       <c r="S82" s="29"/>
-      <c r="T82" s="388" t="s">
+      <c r="T82" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U82" s="389"/>
-      <c r="V82" s="389"/>
-      <c r="W82" s="389"/>
-      <c r="X82" s="389"/>
-      <c r="Y82" s="390"/>
+      <c r="U82" s="391"/>
+      <c r="V82" s="391"/>
+      <c r="W82" s="391"/>
+      <c r="X82" s="391"/>
+      <c r="Y82" s="392"/>
       <c r="Z82" s="30"/>
       <c r="AA82" s="24"/>
     </row>
     <row r="83" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="272"/>
       <c r="B83" s="270"/>
-      <c r="C83" s="399" t="s">
+      <c r="C83" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D83" s="399"/>
-      <c r="E83" s="399"/>
-      <c r="F83" s="399"/>
+      <c r="D83" s="393"/>
+      <c r="E83" s="393"/>
+      <c r="F83" s="393"/>
       <c r="G83" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H83" s="402">
+      <c r="H83" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I83" s="402"/>
+      <c r="I83" s="400"/>
       <c r="J83" s="270"/>
       <c r="K83" s="274"/>
       <c r="L83" s="275"/>
@@ -13322,10 +13328,10 @@
     </row>
     <row r="88" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="272"/>
-      <c r="B88" s="400" t="s">
+      <c r="B88" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="401"/>
+      <c r="C88" s="395"/>
       <c r="D88" s="270"/>
       <c r="E88" s="270"/>
       <c r="F88" s="287" t="s">
@@ -13452,10 +13458,10 @@
         <v>0</v>
       </c>
       <c r="H90" s="285"/>
-      <c r="I90" s="391" t="s">
+      <c r="I90" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J90" s="392"/>
+      <c r="J90" s="389"/>
       <c r="K90" s="294">
         <f>K88+K89</f>
         <v>82974.137931034478</v>
@@ -13510,10 +13516,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="285"/>
-      <c r="I91" s="391" t="s">
+      <c r="I91" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J91" s="392"/>
+      <c r="J91" s="389"/>
       <c r="K91" s="288">
         <f>G91</f>
         <v>0</v>
@@ -13764,57 +13770,57 @@
       <c r="Z96" s="57"/>
     </row>
     <row r="97" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="393" t="s">
+      <c r="A97" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="394"/>
-      <c r="C97" s="394"/>
-      <c r="D97" s="394"/>
-      <c r="E97" s="394"/>
-      <c r="F97" s="394"/>
-      <c r="G97" s="394"/>
-      <c r="H97" s="394"/>
-      <c r="I97" s="394"/>
-      <c r="J97" s="394"/>
-      <c r="K97" s="394"/>
-      <c r="L97" s="395"/>
+      <c r="B97" s="402"/>
+      <c r="C97" s="402"/>
+      <c r="D97" s="402"/>
+      <c r="E97" s="402"/>
+      <c r="F97" s="402"/>
+      <c r="G97" s="402"/>
+      <c r="H97" s="402"/>
+      <c r="I97" s="402"/>
+      <c r="J97" s="402"/>
+      <c r="K97" s="402"/>
+      <c r="L97" s="403"/>
       <c r="M97" s="24"/>
       <c r="N97" s="28"/>
-      <c r="O97" s="388" t="s">
+      <c r="O97" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P97" s="389"/>
-      <c r="Q97" s="389"/>
-      <c r="R97" s="390"/>
+      <c r="P97" s="391"/>
+      <c r="Q97" s="391"/>
+      <c r="R97" s="392"/>
       <c r="S97" s="29"/>
-      <c r="T97" s="388" t="s">
+      <c r="T97" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U97" s="389"/>
-      <c r="V97" s="389"/>
-      <c r="W97" s="389"/>
-      <c r="X97" s="389"/>
-      <c r="Y97" s="390"/>
+      <c r="U97" s="391"/>
+      <c r="V97" s="391"/>
+      <c r="W97" s="391"/>
+      <c r="X97" s="391"/>
+      <c r="Y97" s="392"/>
       <c r="Z97" s="30"/>
     </row>
     <row r="98" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="272"/>
       <c r="B98" s="270"/>
-      <c r="C98" s="399" t="s">
+      <c r="C98" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D98" s="399"/>
-      <c r="E98" s="399"/>
-      <c r="F98" s="399"/>
+      <c r="D98" s="393"/>
+      <c r="E98" s="393"/>
+      <c r="F98" s="393"/>
       <c r="G98" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H98" s="402">
+      <c r="H98" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I98" s="402"/>
+      <c r="I98" s="400"/>
       <c r="J98" s="270"/>
       <c r="K98" s="274"/>
       <c r="L98" s="275"/>
@@ -14042,10 +14048,10 @@
     </row>
     <row r="103" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="272"/>
-      <c r="B103" s="400" t="s">
+      <c r="B103" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="401"/>
+      <c r="C103" s="395"/>
       <c r="D103" s="270"/>
       <c r="E103" s="270"/>
       <c r="F103" s="287" t="s">
@@ -14162,10 +14168,10 @@
         <v>35000</v>
       </c>
       <c r="H105" s="285"/>
-      <c r="I105" s="391" t="s">
+      <c r="I105" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J105" s="392"/>
+      <c r="J105" s="389"/>
       <c r="K105" s="294">
         <f>K103+K104</f>
         <v>41000</v>
@@ -14217,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="H106" s="285"/>
-      <c r="I106" s="391" t="s">
+      <c r="I106" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J106" s="392"/>
+      <c r="J106" s="389"/>
       <c r="K106" s="288">
         <f>G106</f>
         <v>0</v>
@@ -14458,58 +14464,58 @@
       <c r="Z111" s="57"/>
     </row>
     <row r="112" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="393" t="s">
+      <c r="A112" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B112" s="394"/>
-      <c r="C112" s="394"/>
-      <c r="D112" s="394"/>
-      <c r="E112" s="394"/>
-      <c r="F112" s="394"/>
-      <c r="G112" s="394"/>
-      <c r="H112" s="394"/>
-      <c r="I112" s="394"/>
-      <c r="J112" s="394"/>
-      <c r="K112" s="394"/>
-      <c r="L112" s="395"/>
+      <c r="B112" s="402"/>
+      <c r="C112" s="402"/>
+      <c r="D112" s="402"/>
+      <c r="E112" s="402"/>
+      <c r="F112" s="402"/>
+      <c r="G112" s="402"/>
+      <c r="H112" s="402"/>
+      <c r="I112" s="402"/>
+      <c r="J112" s="402"/>
+      <c r="K112" s="402"/>
+      <c r="L112" s="403"/>
       <c r="M112" s="24"/>
       <c r="N112" s="28"/>
-      <c r="O112" s="388" t="s">
+      <c r="O112" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P112" s="389"/>
-      <c r="Q112" s="389"/>
-      <c r="R112" s="390"/>
+      <c r="P112" s="391"/>
+      <c r="Q112" s="391"/>
+      <c r="R112" s="392"/>
       <c r="S112" s="29"/>
-      <c r="T112" s="388" t="s">
+      <c r="T112" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U112" s="389"/>
-      <c r="V112" s="389"/>
-      <c r="W112" s="389"/>
-      <c r="X112" s="389"/>
-      <c r="Y112" s="390"/>
+      <c r="U112" s="391"/>
+      <c r="V112" s="391"/>
+      <c r="W112" s="391"/>
+      <c r="X112" s="391"/>
+      <c r="Y112" s="392"/>
       <c r="Z112" s="30"/>
       <c r="AA112" s="24"/>
     </row>
     <row r="113" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="272"/>
       <c r="B113" s="270"/>
-      <c r="C113" s="399" t="s">
+      <c r="C113" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D113" s="399"/>
-      <c r="E113" s="399"/>
-      <c r="F113" s="399"/>
+      <c r="D113" s="393"/>
+      <c r="E113" s="393"/>
+      <c r="F113" s="393"/>
       <c r="G113" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H113" s="402">
+      <c r="H113" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I113" s="402"/>
+      <c r="I113" s="400"/>
       <c r="J113" s="270"/>
       <c r="K113" s="274"/>
       <c r="L113" s="275"/>
@@ -14747,10 +14753,10 @@
     </row>
     <row r="118" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="272"/>
-      <c r="B118" s="400" t="s">
+      <c r="B118" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="401"/>
+      <c r="C118" s="395"/>
       <c r="D118" s="270"/>
       <c r="E118" s="270"/>
       <c r="F118" s="287" t="s">
@@ -14871,10 +14877,10 @@
         <v>58500</v>
       </c>
       <c r="H120" s="285"/>
-      <c r="I120" s="391" t="s">
+      <c r="I120" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J120" s="392"/>
+      <c r="J120" s="389"/>
       <c r="K120" s="294">
         <f>K118+K119</f>
         <v>48745.689655172413</v>
@@ -14926,10 +14932,10 @@
         <v>2500</v>
       </c>
       <c r="H121" s="285"/>
-      <c r="I121" s="391" t="s">
+      <c r="I121" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J121" s="392"/>
+      <c r="J121" s="389"/>
       <c r="K121" s="288">
         <f>G121</f>
         <v>2500</v>
@@ -15165,58 +15171,58 @@
       <c r="Z126" s="57"/>
     </row>
     <row r="127" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="393" t="s">
+      <c r="A127" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="394"/>
-      <c r="C127" s="394"/>
-      <c r="D127" s="394"/>
-      <c r="E127" s="394"/>
-      <c r="F127" s="394"/>
-      <c r="G127" s="394"/>
-      <c r="H127" s="394"/>
-      <c r="I127" s="394"/>
-      <c r="J127" s="394"/>
-      <c r="K127" s="394"/>
-      <c r="L127" s="395"/>
+      <c r="B127" s="402"/>
+      <c r="C127" s="402"/>
+      <c r="D127" s="402"/>
+      <c r="E127" s="402"/>
+      <c r="F127" s="402"/>
+      <c r="G127" s="402"/>
+      <c r="H127" s="402"/>
+      <c r="I127" s="402"/>
+      <c r="J127" s="402"/>
+      <c r="K127" s="402"/>
+      <c r="L127" s="403"/>
       <c r="M127" s="24"/>
       <c r="N127" s="28"/>
-      <c r="O127" s="388" t="s">
+      <c r="O127" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P127" s="389"/>
-      <c r="Q127" s="389"/>
-      <c r="R127" s="390"/>
+      <c r="P127" s="391"/>
+      <c r="Q127" s="391"/>
+      <c r="R127" s="392"/>
       <c r="S127" s="29"/>
-      <c r="T127" s="388" t="s">
+      <c r="T127" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U127" s="389"/>
-      <c r="V127" s="389"/>
-      <c r="W127" s="389"/>
-      <c r="X127" s="389"/>
-      <c r="Y127" s="390"/>
+      <c r="U127" s="391"/>
+      <c r="V127" s="391"/>
+      <c r="W127" s="391"/>
+      <c r="X127" s="391"/>
+      <c r="Y127" s="392"/>
       <c r="Z127" s="30"/>
       <c r="AA127" s="24"/>
     </row>
     <row r="128" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="272"/>
       <c r="B128" s="270"/>
-      <c r="C128" s="399" t="s">
+      <c r="C128" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D128" s="399"/>
-      <c r="E128" s="399"/>
-      <c r="F128" s="399"/>
+      <c r="D128" s="393"/>
+      <c r="E128" s="393"/>
+      <c r="F128" s="393"/>
       <c r="G128" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H128" s="402">
+      <c r="H128" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I128" s="402"/>
+      <c r="I128" s="400"/>
       <c r="J128" s="270"/>
       <c r="K128" s="274"/>
       <c r="L128" s="275"/>
@@ -15455,10 +15461,10 @@
     </row>
     <row r="133" spans="1:28" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="272"/>
-      <c r="B133" s="400" t="s">
+      <c r="B133" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C133" s="401"/>
+      <c r="C133" s="395"/>
       <c r="D133" s="270"/>
       <c r="E133" s="270"/>
       <c r="F133" s="287" t="s">
@@ -15585,10 +15591,10 @@
         <v>0</v>
       </c>
       <c r="H135" s="285"/>
-      <c r="I135" s="391" t="s">
+      <c r="I135" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J135" s="392"/>
+      <c r="J135" s="389"/>
       <c r="K135" s="294">
         <f>K133+K134</f>
         <v>36056.034482758623</v>
@@ -15643,10 +15649,10 @@
         <v>0</v>
       </c>
       <c r="H136" s="285"/>
-      <c r="I136" s="391" t="s">
+      <c r="I136" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J136" s="392"/>
+      <c r="J136" s="389"/>
       <c r="K136" s="288">
         <f>G136</f>
         <v>0</v>
@@ -15896,58 +15902,58 @@
       <c r="Z141" s="57"/>
     </row>
     <row r="142" spans="1:28" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="393" t="s">
+      <c r="A142" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B142" s="394"/>
-      <c r="C142" s="394"/>
-      <c r="D142" s="394"/>
-      <c r="E142" s="394"/>
-      <c r="F142" s="394"/>
-      <c r="G142" s="394"/>
-      <c r="H142" s="394"/>
-      <c r="I142" s="394"/>
-      <c r="J142" s="394"/>
-      <c r="K142" s="394"/>
-      <c r="L142" s="395"/>
+      <c r="B142" s="402"/>
+      <c r="C142" s="402"/>
+      <c r="D142" s="402"/>
+      <c r="E142" s="402"/>
+      <c r="F142" s="402"/>
+      <c r="G142" s="402"/>
+      <c r="H142" s="402"/>
+      <c r="I142" s="402"/>
+      <c r="J142" s="402"/>
+      <c r="K142" s="402"/>
+      <c r="L142" s="403"/>
       <c r="M142" s="24"/>
       <c r="N142" s="28"/>
-      <c r="O142" s="388" t="s">
+      <c r="O142" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P142" s="389"/>
-      <c r="Q142" s="389"/>
-      <c r="R142" s="390"/>
+      <c r="P142" s="391"/>
+      <c r="Q142" s="391"/>
+      <c r="R142" s="392"/>
       <c r="S142" s="29"/>
-      <c r="T142" s="388" t="s">
+      <c r="T142" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U142" s="389"/>
-      <c r="V142" s="389"/>
-      <c r="W142" s="389"/>
-      <c r="X142" s="389"/>
-      <c r="Y142" s="390"/>
+      <c r="U142" s="391"/>
+      <c r="V142" s="391"/>
+      <c r="W142" s="391"/>
+      <c r="X142" s="391"/>
+      <c r="Y142" s="392"/>
       <c r="Z142" s="30"/>
       <c r="AA142" s="24"/>
     </row>
     <row r="143" spans="1:28" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="272"/>
       <c r="B143" s="270"/>
-      <c r="C143" s="399" t="s">
+      <c r="C143" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D143" s="399"/>
-      <c r="E143" s="399"/>
-      <c r="F143" s="399"/>
+      <c r="D143" s="393"/>
+      <c r="E143" s="393"/>
+      <c r="F143" s="393"/>
       <c r="G143" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H143" s="402">
+      <c r="H143" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I143" s="402"/>
+      <c r="I143" s="400"/>
       <c r="J143" s="270"/>
       <c r="K143" s="274"/>
       <c r="L143" s="275"/>
@@ -16184,10 +16190,10 @@
     </row>
     <row r="148" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="272"/>
-      <c r="B148" s="400" t="s">
+      <c r="B148" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C148" s="401"/>
+      <c r="C148" s="395"/>
       <c r="D148" s="270"/>
       <c r="E148" s="270"/>
       <c r="F148" s="287" t="s">
@@ -16308,10 +16314,10 @@
         <v>38867</v>
       </c>
       <c r="H150" s="285"/>
-      <c r="I150" s="391" t="s">
+      <c r="I150" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J150" s="392"/>
+      <c r="J150" s="389"/>
       <c r="K150" s="294">
         <f>K148+K149</f>
         <v>42090.517241379312</v>
@@ -16363,10 +16369,10 @@
         <v>3000</v>
       </c>
       <c r="H151" s="285"/>
-      <c r="I151" s="391" t="s">
+      <c r="I151" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J151" s="392"/>
+      <c r="J151" s="389"/>
       <c r="K151" s="288">
         <f>G151</f>
         <v>3000</v>
@@ -16602,58 +16608,58 @@
       <c r="Z156" s="57"/>
     </row>
     <row r="157" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="393" t="s">
+      <c r="A157" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B157" s="394"/>
-      <c r="C157" s="394"/>
-      <c r="D157" s="394"/>
-      <c r="E157" s="394"/>
-      <c r="F157" s="394"/>
-      <c r="G157" s="394"/>
-      <c r="H157" s="394"/>
-      <c r="I157" s="394"/>
-      <c r="J157" s="394"/>
-      <c r="K157" s="394"/>
-      <c r="L157" s="395"/>
+      <c r="B157" s="402"/>
+      <c r="C157" s="402"/>
+      <c r="D157" s="402"/>
+      <c r="E157" s="402"/>
+      <c r="F157" s="402"/>
+      <c r="G157" s="402"/>
+      <c r="H157" s="402"/>
+      <c r="I157" s="402"/>
+      <c r="J157" s="402"/>
+      <c r="K157" s="402"/>
+      <c r="L157" s="403"/>
       <c r="M157" s="24"/>
       <c r="N157" s="28"/>
-      <c r="O157" s="388" t="s">
+      <c r="O157" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P157" s="389"/>
-      <c r="Q157" s="389"/>
-      <c r="R157" s="390"/>
+      <c r="P157" s="391"/>
+      <c r="Q157" s="391"/>
+      <c r="R157" s="392"/>
       <c r="S157" s="29"/>
-      <c r="T157" s="388" t="s">
+      <c r="T157" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U157" s="389"/>
-      <c r="V157" s="389"/>
-      <c r="W157" s="389"/>
-      <c r="X157" s="389"/>
-      <c r="Y157" s="390"/>
+      <c r="U157" s="391"/>
+      <c r="V157" s="391"/>
+      <c r="W157" s="391"/>
+      <c r="X157" s="391"/>
+      <c r="Y157" s="392"/>
       <c r="Z157" s="30"/>
       <c r="AA157" s="24"/>
     </row>
     <row r="158" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="272"/>
       <c r="B158" s="270"/>
-      <c r="C158" s="399" t="s">
+      <c r="C158" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D158" s="399"/>
-      <c r="E158" s="399"/>
-      <c r="F158" s="399"/>
+      <c r="D158" s="393"/>
+      <c r="E158" s="393"/>
+      <c r="F158" s="393"/>
       <c r="G158" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H158" s="402">
+      <c r="H158" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I158" s="402"/>
+      <c r="I158" s="400"/>
       <c r="J158" s="270"/>
       <c r="K158" s="274"/>
       <c r="L158" s="275"/>
@@ -16888,10 +16894,10 @@
     </row>
     <row r="163" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="272"/>
-      <c r="B163" s="400" t="s">
+      <c r="B163" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C163" s="401"/>
+      <c r="C163" s="395"/>
       <c r="D163" s="270"/>
       <c r="E163" s="270"/>
       <c r="F163" s="287" t="s">
@@ -17012,10 +17018,10 @@
         <v>43200</v>
       </c>
       <c r="H165" s="285"/>
-      <c r="I165" s="391" t="s">
+      <c r="I165" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J165" s="392"/>
+      <c r="J165" s="389"/>
       <c r="K165" s="294">
         <f>K163+K164</f>
         <v>81206.896551724145</v>
@@ -17067,10 +17073,10 @@
         <v>5000</v>
       </c>
       <c r="H166" s="285"/>
-      <c r="I166" s="391" t="s">
+      <c r="I166" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J166" s="392"/>
+      <c r="J166" s="389"/>
       <c r="K166" s="288">
         <f>G166</f>
         <v>5000</v>
@@ -17306,58 +17312,58 @@
       <c r="Z171" s="57"/>
     </row>
     <row r="172" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="393" t="s">
+      <c r="A172" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B172" s="394"/>
-      <c r="C172" s="394"/>
-      <c r="D172" s="394"/>
-      <c r="E172" s="394"/>
-      <c r="F172" s="394"/>
-      <c r="G172" s="394"/>
-      <c r="H172" s="394"/>
-      <c r="I172" s="394"/>
-      <c r="J172" s="394"/>
-      <c r="K172" s="394"/>
-      <c r="L172" s="395"/>
+      <c r="B172" s="402"/>
+      <c r="C172" s="402"/>
+      <c r="D172" s="402"/>
+      <c r="E172" s="402"/>
+      <c r="F172" s="402"/>
+      <c r="G172" s="402"/>
+      <c r="H172" s="402"/>
+      <c r="I172" s="402"/>
+      <c r="J172" s="402"/>
+      <c r="K172" s="402"/>
+      <c r="L172" s="403"/>
       <c r="M172" s="24"/>
       <c r="N172" s="28"/>
-      <c r="O172" s="388" t="s">
+      <c r="O172" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P172" s="389"/>
-      <c r="Q172" s="389"/>
-      <c r="R172" s="390"/>
+      <c r="P172" s="391"/>
+      <c r="Q172" s="391"/>
+      <c r="R172" s="392"/>
       <c r="S172" s="29"/>
-      <c r="T172" s="388" t="s">
+      <c r="T172" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U172" s="389"/>
-      <c r="V172" s="389"/>
-      <c r="W172" s="389"/>
-      <c r="X172" s="389"/>
-      <c r="Y172" s="390"/>
+      <c r="U172" s="391"/>
+      <c r="V172" s="391"/>
+      <c r="W172" s="391"/>
+      <c r="X172" s="391"/>
+      <c r="Y172" s="392"/>
       <c r="Z172" s="30"/>
       <c r="AA172" s="24"/>
     </row>
     <row r="173" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="272"/>
       <c r="B173" s="270"/>
-      <c r="C173" s="399" t="s">
+      <c r="C173" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D173" s="399"/>
-      <c r="E173" s="399"/>
-      <c r="F173" s="399"/>
+      <c r="D173" s="393"/>
+      <c r="E173" s="393"/>
+      <c r="F173" s="393"/>
       <c r="G173" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H173" s="402">
+      <c r="H173" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I173" s="402"/>
+      <c r="I173" s="400"/>
       <c r="J173" s="270"/>
       <c r="K173" s="274"/>
       <c r="L173" s="275"/>
@@ -17594,10 +17600,10 @@
     </row>
     <row r="178" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="272"/>
-      <c r="B178" s="400" t="s">
+      <c r="B178" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C178" s="401"/>
+      <c r="C178" s="395"/>
       <c r="D178" s="270"/>
       <c r="E178" s="270"/>
       <c r="F178" s="287" t="s">
@@ -17718,10 +17724,10 @@
         <v>88000</v>
       </c>
       <c r="H180" s="285"/>
-      <c r="I180" s="391" t="s">
+      <c r="I180" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J180" s="392"/>
+      <c r="J180" s="389"/>
       <c r="K180" s="294">
         <f>K178+K179</f>
         <v>50431.034482758623</v>
@@ -17773,10 +17779,10 @@
         <v>0</v>
       </c>
       <c r="H181" s="285"/>
-      <c r="I181" s="391" t="s">
+      <c r="I181" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J181" s="392"/>
+      <c r="J181" s="389"/>
       <c r="K181" s="288">
         <f>G181</f>
         <v>0</v>
@@ -18012,58 +18018,58 @@
       <c r="Z186" s="57"/>
     </row>
     <row r="187" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="393" t="s">
+      <c r="A187" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B187" s="394"/>
-      <c r="C187" s="394"/>
-      <c r="D187" s="394"/>
-      <c r="E187" s="394"/>
-      <c r="F187" s="394"/>
-      <c r="G187" s="394"/>
-      <c r="H187" s="394"/>
-      <c r="I187" s="394"/>
-      <c r="J187" s="394"/>
-      <c r="K187" s="394"/>
-      <c r="L187" s="395"/>
+      <c r="B187" s="402"/>
+      <c r="C187" s="402"/>
+      <c r="D187" s="402"/>
+      <c r="E187" s="402"/>
+      <c r="F187" s="402"/>
+      <c r="G187" s="402"/>
+      <c r="H187" s="402"/>
+      <c r="I187" s="402"/>
+      <c r="J187" s="402"/>
+      <c r="K187" s="402"/>
+      <c r="L187" s="403"/>
       <c r="M187" s="24"/>
       <c r="N187" s="28"/>
-      <c r="O187" s="388" t="s">
+      <c r="O187" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P187" s="389"/>
-      <c r="Q187" s="389"/>
-      <c r="R187" s="390"/>
+      <c r="P187" s="391"/>
+      <c r="Q187" s="391"/>
+      <c r="R187" s="392"/>
       <c r="S187" s="29"/>
-      <c r="T187" s="388" t="s">
+      <c r="T187" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U187" s="389"/>
-      <c r="V187" s="389"/>
-      <c r="W187" s="389"/>
-      <c r="X187" s="389"/>
-      <c r="Y187" s="390"/>
+      <c r="U187" s="391"/>
+      <c r="V187" s="391"/>
+      <c r="W187" s="391"/>
+      <c r="X187" s="391"/>
+      <c r="Y187" s="392"/>
       <c r="Z187" s="30"/>
       <c r="AA187" s="24"/>
     </row>
     <row r="188" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="272"/>
       <c r="B188" s="270"/>
-      <c r="C188" s="399" t="s">
+      <c r="C188" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D188" s="399"/>
-      <c r="E188" s="399"/>
-      <c r="F188" s="399"/>
+      <c r="D188" s="393"/>
+      <c r="E188" s="393"/>
+      <c r="F188" s="393"/>
       <c r="G188" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H188" s="402">
+      <c r="H188" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I188" s="402"/>
+      <c r="I188" s="400"/>
       <c r="J188" s="270"/>
       <c r="K188" s="274"/>
       <c r="L188" s="275"/>
@@ -18302,10 +18308,10 @@
     </row>
     <row r="193" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="272"/>
-      <c r="B193" s="400" t="s">
+      <c r="B193" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C193" s="401"/>
+      <c r="C193" s="395"/>
       <c r="D193" s="270"/>
       <c r="E193" s="270"/>
       <c r="F193" s="287" t="s">
@@ -18432,10 +18438,10 @@
         <v>79000</v>
       </c>
       <c r="H195" s="285"/>
-      <c r="I195" s="391" t="s">
+      <c r="I195" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J195" s="392"/>
+      <c r="J195" s="389"/>
       <c r="K195" s="294">
         <f>K193+K194</f>
         <v>48728.448275862072</v>
@@ -18490,10 +18496,10 @@
         <v>5000</v>
       </c>
       <c r="H196" s="285"/>
-      <c r="I196" s="391" t="s">
+      <c r="I196" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J196" s="392"/>
+      <c r="J196" s="389"/>
       <c r="K196" s="288">
         <f>G196</f>
         <v>5000</v>
@@ -18740,57 +18746,57 @@
       <c r="Z201" s="57"/>
     </row>
     <row r="202" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="393" t="s">
+      <c r="A202" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B202" s="394"/>
-      <c r="C202" s="394"/>
-      <c r="D202" s="394"/>
-      <c r="E202" s="394"/>
-      <c r="F202" s="394"/>
-      <c r="G202" s="394"/>
-      <c r="H202" s="394"/>
-      <c r="I202" s="394"/>
-      <c r="J202" s="394"/>
-      <c r="K202" s="394"/>
-      <c r="L202" s="395"/>
+      <c r="B202" s="402"/>
+      <c r="C202" s="402"/>
+      <c r="D202" s="402"/>
+      <c r="E202" s="402"/>
+      <c r="F202" s="402"/>
+      <c r="G202" s="402"/>
+      <c r="H202" s="402"/>
+      <c r="I202" s="402"/>
+      <c r="J202" s="402"/>
+      <c r="K202" s="402"/>
+      <c r="L202" s="403"/>
       <c r="M202" s="24"/>
       <c r="N202" s="28"/>
-      <c r="O202" s="388" t="s">
+      <c r="O202" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P202" s="389"/>
-      <c r="Q202" s="389"/>
-      <c r="R202" s="390"/>
+      <c r="P202" s="391"/>
+      <c r="Q202" s="391"/>
+      <c r="R202" s="392"/>
       <c r="S202" s="29"/>
-      <c r="T202" s="388" t="s">
+      <c r="T202" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U202" s="389"/>
-      <c r="V202" s="389"/>
-      <c r="W202" s="389"/>
-      <c r="X202" s="389"/>
-      <c r="Y202" s="390"/>
+      <c r="U202" s="391"/>
+      <c r="V202" s="391"/>
+      <c r="W202" s="391"/>
+      <c r="X202" s="391"/>
+      <c r="Y202" s="392"/>
       <c r="Z202" s="30"/>
     </row>
     <row r="203" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="272"/>
       <c r="B203" s="270"/>
-      <c r="C203" s="399" t="s">
+      <c r="C203" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D203" s="399"/>
-      <c r="E203" s="399"/>
-      <c r="F203" s="399"/>
+      <c r="D203" s="393"/>
+      <c r="E203" s="393"/>
+      <c r="F203" s="393"/>
       <c r="G203" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H203" s="402">
+      <c r="H203" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I203" s="402"/>
+      <c r="I203" s="400"/>
       <c r="J203" s="270"/>
       <c r="K203" s="274"/>
       <c r="L203" s="275"/>
@@ -19029,10 +19035,10 @@
     </row>
     <row r="208" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="272"/>
-      <c r="B208" s="400" t="s">
+      <c r="B208" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C208" s="401"/>
+      <c r="C208" s="395"/>
       <c r="D208" s="270"/>
       <c r="E208" s="270"/>
       <c r="F208" s="287" t="s">
@@ -19151,10 +19157,10 @@
         <v>19225</v>
       </c>
       <c r="H210" s="285"/>
-      <c r="I210" s="391" t="s">
+      <c r="I210" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J210" s="392"/>
+      <c r="J210" s="389"/>
       <c r="K210" s="294">
         <f>K208+K209</f>
         <v>28689.655172413793</v>
@@ -19205,10 +19211,10 @@
         <v>8000</v>
       </c>
       <c r="H211" s="285"/>
-      <c r="I211" s="391" t="s">
+      <c r="I211" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J211" s="392"/>
+      <c r="J211" s="389"/>
       <c r="K211" s="288">
         <f>G211</f>
         <v>8000</v>
@@ -19439,57 +19445,57 @@
       <c r="Z216" s="57"/>
     </row>
     <row r="217" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="393" t="s">
+      <c r="A217" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B217" s="394"/>
-      <c r="C217" s="394"/>
-      <c r="D217" s="394"/>
-      <c r="E217" s="394"/>
-      <c r="F217" s="394"/>
-      <c r="G217" s="394"/>
-      <c r="H217" s="394"/>
-      <c r="I217" s="394"/>
-      <c r="J217" s="394"/>
-      <c r="K217" s="394"/>
-      <c r="L217" s="395"/>
+      <c r="B217" s="402"/>
+      <c r="C217" s="402"/>
+      <c r="D217" s="402"/>
+      <c r="E217" s="402"/>
+      <c r="F217" s="402"/>
+      <c r="G217" s="402"/>
+      <c r="H217" s="402"/>
+      <c r="I217" s="402"/>
+      <c r="J217" s="402"/>
+      <c r="K217" s="402"/>
+      <c r="L217" s="403"/>
       <c r="M217" s="24"/>
       <c r="N217" s="28"/>
-      <c r="O217" s="388" t="s">
+      <c r="O217" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P217" s="389"/>
-      <c r="Q217" s="389"/>
-      <c r="R217" s="390"/>
+      <c r="P217" s="391"/>
+      <c r="Q217" s="391"/>
+      <c r="R217" s="392"/>
       <c r="S217" s="29"/>
-      <c r="T217" s="388" t="s">
+      <c r="T217" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U217" s="389"/>
-      <c r="V217" s="389"/>
-      <c r="W217" s="389"/>
-      <c r="X217" s="389"/>
-      <c r="Y217" s="390"/>
+      <c r="U217" s="391"/>
+      <c r="V217" s="391"/>
+      <c r="W217" s="391"/>
+      <c r="X217" s="391"/>
+      <c r="Y217" s="392"/>
       <c r="Z217" s="30"/>
     </row>
     <row r="218" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="272"/>
       <c r="B218" s="270"/>
-      <c r="C218" s="399" t="s">
+      <c r="C218" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D218" s="399"/>
-      <c r="E218" s="399"/>
-      <c r="F218" s="399"/>
+      <c r="D218" s="393"/>
+      <c r="E218" s="393"/>
+      <c r="F218" s="393"/>
       <c r="G218" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H218" s="402">
+      <c r="H218" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I218" s="402"/>
+      <c r="I218" s="400"/>
       <c r="J218" s="270"/>
       <c r="K218" s="274"/>
       <c r="L218" s="275"/>
@@ -19728,10 +19734,10 @@
     </row>
     <row r="223" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="272"/>
-      <c r="B223" s="400" t="s">
+      <c r="B223" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C223" s="401"/>
+      <c r="C223" s="395"/>
       <c r="D223" s="270"/>
       <c r="E223" s="270"/>
       <c r="F223" s="287" t="s">
@@ -19858,10 +19864,10 @@
         <v>7000</v>
       </c>
       <c r="H225" s="285"/>
-      <c r="I225" s="391" t="s">
+      <c r="I225" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J225" s="392"/>
+      <c r="J225" s="389"/>
       <c r="K225" s="294">
         <f>K223+K224</f>
         <v>32586.206896551721</v>
@@ -19916,10 +19922,10 @@
         <v>3000</v>
       </c>
       <c r="H226" s="285"/>
-      <c r="I226" s="391" t="s">
+      <c r="I226" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J226" s="392"/>
+      <c r="J226" s="389"/>
       <c r="K226" s="288">
         <f>G226</f>
         <v>3000</v>
@@ -20163,57 +20169,57 @@
       <c r="Z231" s="57"/>
     </row>
     <row r="232" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="393" t="s">
+      <c r="A232" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B232" s="394"/>
-      <c r="C232" s="394"/>
-      <c r="D232" s="394"/>
-      <c r="E232" s="394"/>
-      <c r="F232" s="394"/>
-      <c r="G232" s="394"/>
-      <c r="H232" s="394"/>
-      <c r="I232" s="394"/>
-      <c r="J232" s="394"/>
-      <c r="K232" s="394"/>
-      <c r="L232" s="395"/>
+      <c r="B232" s="402"/>
+      <c r="C232" s="402"/>
+      <c r="D232" s="402"/>
+      <c r="E232" s="402"/>
+      <c r="F232" s="402"/>
+      <c r="G232" s="402"/>
+      <c r="H232" s="402"/>
+      <c r="I232" s="402"/>
+      <c r="J232" s="402"/>
+      <c r="K232" s="402"/>
+      <c r="L232" s="403"/>
       <c r="M232" s="24"/>
       <c r="N232" s="28"/>
-      <c r="O232" s="388" t="s">
+      <c r="O232" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P232" s="389"/>
-      <c r="Q232" s="389"/>
-      <c r="R232" s="390"/>
+      <c r="P232" s="391"/>
+      <c r="Q232" s="391"/>
+      <c r="R232" s="392"/>
       <c r="S232" s="29"/>
-      <c r="T232" s="388" t="s">
+      <c r="T232" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U232" s="389"/>
-      <c r="V232" s="389"/>
-      <c r="W232" s="389"/>
-      <c r="X232" s="389"/>
-      <c r="Y232" s="390"/>
+      <c r="U232" s="391"/>
+      <c r="V232" s="391"/>
+      <c r="W232" s="391"/>
+      <c r="X232" s="391"/>
+      <c r="Y232" s="392"/>
       <c r="Z232" s="27"/>
     </row>
     <row r="233" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="272"/>
       <c r="B233" s="270"/>
-      <c r="C233" s="399" t="s">
+      <c r="C233" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D233" s="399"/>
-      <c r="E233" s="399"/>
-      <c r="F233" s="399"/>
+      <c r="D233" s="393"/>
+      <c r="E233" s="393"/>
+      <c r="F233" s="393"/>
       <c r="G233" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H233" s="402">
+      <c r="H233" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I233" s="402"/>
+      <c r="I233" s="400"/>
       <c r="J233" s="270"/>
       <c r="K233" s="274"/>
       <c r="L233" s="275"/>
@@ -20422,10 +20428,10 @@
     </row>
     <row r="238" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="272"/>
-      <c r="B238" s="400" t="s">
+      <c r="B238" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C238" s="401"/>
+      <c r="C238" s="395"/>
       <c r="D238" s="270"/>
       <c r="E238" s="270"/>
       <c r="F238" s="287" t="s">
@@ -20540,10 +20546,10 @@
         <v/>
       </c>
       <c r="H240" s="285"/>
-      <c r="I240" s="391" t="s">
+      <c r="I240" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J240" s="392"/>
+      <c r="J240" s="389"/>
       <c r="K240" s="294">
         <f>K238+K239</f>
         <v>40827.586206896558</v>
@@ -20592,10 +20598,10 @@
         <v>0</v>
       </c>
       <c r="H241" s="285"/>
-      <c r="I241" s="391" t="s">
+      <c r="I241" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J241" s="392"/>
+      <c r="J241" s="389"/>
       <c r="K241" s="288">
         <f>G241</f>
         <v>0</v>
@@ -20822,57 +20828,57 @@
       <c r="Z246" s="57"/>
     </row>
     <row r="247" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="393" t="s">
+      <c r="A247" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B247" s="394"/>
-      <c r="C247" s="394"/>
-      <c r="D247" s="394"/>
-      <c r="E247" s="394"/>
-      <c r="F247" s="394"/>
-      <c r="G247" s="394"/>
-      <c r="H247" s="394"/>
-      <c r="I247" s="394"/>
-      <c r="J247" s="394"/>
-      <c r="K247" s="394"/>
-      <c r="L247" s="395"/>
+      <c r="B247" s="402"/>
+      <c r="C247" s="402"/>
+      <c r="D247" s="402"/>
+      <c r="E247" s="402"/>
+      <c r="F247" s="402"/>
+      <c r="G247" s="402"/>
+      <c r="H247" s="402"/>
+      <c r="I247" s="402"/>
+      <c r="J247" s="402"/>
+      <c r="K247" s="402"/>
+      <c r="L247" s="403"/>
       <c r="M247" s="24"/>
       <c r="N247" s="28"/>
-      <c r="O247" s="388" t="s">
+      <c r="O247" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P247" s="389"/>
-      <c r="Q247" s="389"/>
-      <c r="R247" s="390"/>
+      <c r="P247" s="391"/>
+      <c r="Q247" s="391"/>
+      <c r="R247" s="392"/>
       <c r="S247" s="29"/>
-      <c r="T247" s="388" t="s">
+      <c r="T247" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U247" s="389"/>
-      <c r="V247" s="389"/>
-      <c r="W247" s="389"/>
-      <c r="X247" s="389"/>
-      <c r="Y247" s="390"/>
+      <c r="U247" s="391"/>
+      <c r="V247" s="391"/>
+      <c r="W247" s="391"/>
+      <c r="X247" s="391"/>
+      <c r="Y247" s="392"/>
       <c r="Z247" s="27"/>
     </row>
     <row r="248" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="272"/>
       <c r="B248" s="270"/>
-      <c r="C248" s="399" t="s">
+      <c r="C248" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D248" s="399"/>
-      <c r="E248" s="399"/>
-      <c r="F248" s="399"/>
+      <c r="D248" s="393"/>
+      <c r="E248" s="393"/>
+      <c r="F248" s="393"/>
       <c r="G248" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H248" s="402">
+      <c r="H248" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I248" s="402"/>
+      <c r="I248" s="400"/>
       <c r="J248" s="270"/>
       <c r="K248" s="274"/>
       <c r="L248" s="275"/>
@@ -21069,10 +21075,10 @@
     </row>
     <row r="253" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="272"/>
-      <c r="B253" s="400" t="s">
+      <c r="B253" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C253" s="401"/>
+      <c r="C253" s="395"/>
       <c r="D253" s="270"/>
       <c r="E253" s="270"/>
       <c r="F253" s="287" t="s">
@@ -21188,10 +21194,10 @@
         <v>0</v>
       </c>
       <c r="H255" s="285"/>
-      <c r="I255" s="391" t="s">
+      <c r="I255" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J255" s="392"/>
+      <c r="J255" s="389"/>
       <c r="K255" s="294">
         <f>K253+K254</f>
         <v>59547.413793103449</v>
@@ -21236,10 +21242,10 @@
         <v>0</v>
       </c>
       <c r="H256" s="285"/>
-      <c r="I256" s="391" t="s">
+      <c r="I256" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J256" s="392"/>
+      <c r="J256" s="389"/>
       <c r="K256" s="288">
         <f>G256</f>
         <v>0</v>
@@ -21459,57 +21465,57 @@
       <c r="Z261" s="57"/>
     </row>
     <row r="262" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="393" t="s">
+      <c r="A262" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B262" s="394"/>
-      <c r="C262" s="394"/>
-      <c r="D262" s="394"/>
-      <c r="E262" s="394"/>
-      <c r="F262" s="394"/>
-      <c r="G262" s="394"/>
-      <c r="H262" s="394"/>
-      <c r="I262" s="394"/>
-      <c r="J262" s="394"/>
-      <c r="K262" s="394"/>
-      <c r="L262" s="395"/>
+      <c r="B262" s="402"/>
+      <c r="C262" s="402"/>
+      <c r="D262" s="402"/>
+      <c r="E262" s="402"/>
+      <c r="F262" s="402"/>
+      <c r="G262" s="402"/>
+      <c r="H262" s="402"/>
+      <c r="I262" s="402"/>
+      <c r="J262" s="402"/>
+      <c r="K262" s="402"/>
+      <c r="L262" s="403"/>
       <c r="M262" s="24"/>
       <c r="N262" s="28"/>
-      <c r="O262" s="388" t="s">
+      <c r="O262" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P262" s="389"/>
-      <c r="Q262" s="389"/>
-      <c r="R262" s="390"/>
+      <c r="P262" s="391"/>
+      <c r="Q262" s="391"/>
+      <c r="R262" s="392"/>
       <c r="S262" s="29"/>
-      <c r="T262" s="388" t="s">
+      <c r="T262" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U262" s="389"/>
-      <c r="V262" s="389"/>
-      <c r="W262" s="389"/>
-      <c r="X262" s="389"/>
-      <c r="Y262" s="390"/>
+      <c r="U262" s="391"/>
+      <c r="V262" s="391"/>
+      <c r="W262" s="391"/>
+      <c r="X262" s="391"/>
+      <c r="Y262" s="392"/>
       <c r="Z262" s="30"/>
     </row>
     <row r="263" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="272"/>
       <c r="B263" s="270"/>
-      <c r="C263" s="399" t="s">
+      <c r="C263" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D263" s="399"/>
-      <c r="E263" s="399"/>
-      <c r="F263" s="399"/>
+      <c r="D263" s="393"/>
+      <c r="E263" s="393"/>
+      <c r="F263" s="393"/>
       <c r="G263" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H263" s="402">
+      <c r="H263" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I263" s="402"/>
+      <c r="I263" s="400"/>
       <c r="J263" s="270"/>
       <c r="K263" s="274"/>
       <c r="L263" s="275"/>
@@ -21738,10 +21744,10 @@
     </row>
     <row r="268" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="272"/>
-      <c r="B268" s="400" t="s">
+      <c r="B268" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C268" s="401"/>
+      <c r="C268" s="395"/>
       <c r="D268" s="270"/>
       <c r="E268" s="270"/>
       <c r="F268" s="287" t="s">
@@ -21865,10 +21871,10 @@
         <v>0</v>
       </c>
       <c r="H270" s="285"/>
-      <c r="I270" s="391" t="s">
+      <c r="I270" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J270" s="392"/>
+      <c r="J270" s="389"/>
       <c r="K270" s="294">
         <f>K268+K269</f>
         <v>39525.862068965514</v>
@@ -21922,10 +21928,10 @@
         <v>0</v>
       </c>
       <c r="H271" s="285"/>
-      <c r="I271" s="391" t="s">
+      <c r="I271" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J271" s="392"/>
+      <c r="J271" s="389"/>
       <c r="K271" s="288">
         <f>G271</f>
         <v>0</v>
@@ -22171,58 +22177,58 @@
       <c r="Z276" s="57"/>
     </row>
     <row r="277" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="393" t="s">
+      <c r="A277" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B277" s="394"/>
-      <c r="C277" s="394"/>
-      <c r="D277" s="394"/>
-      <c r="E277" s="394"/>
-      <c r="F277" s="394"/>
-      <c r="G277" s="394"/>
-      <c r="H277" s="394"/>
-      <c r="I277" s="394"/>
-      <c r="J277" s="394"/>
-      <c r="K277" s="394"/>
-      <c r="L277" s="395"/>
+      <c r="B277" s="402"/>
+      <c r="C277" s="402"/>
+      <c r="D277" s="402"/>
+      <c r="E277" s="402"/>
+      <c r="F277" s="402"/>
+      <c r="G277" s="402"/>
+      <c r="H277" s="402"/>
+      <c r="I277" s="402"/>
+      <c r="J277" s="402"/>
+      <c r="K277" s="402"/>
+      <c r="L277" s="403"/>
       <c r="M277" s="24"/>
       <c r="N277" s="28"/>
-      <c r="O277" s="388" t="s">
+      <c r="O277" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P277" s="389"/>
-      <c r="Q277" s="389"/>
-      <c r="R277" s="390"/>
+      <c r="P277" s="391"/>
+      <c r="Q277" s="391"/>
+      <c r="R277" s="392"/>
       <c r="S277" s="29"/>
-      <c r="T277" s="388" t="s">
+      <c r="T277" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U277" s="389"/>
-      <c r="V277" s="389"/>
-      <c r="W277" s="389"/>
-      <c r="X277" s="389"/>
-      <c r="Y277" s="390"/>
+      <c r="U277" s="391"/>
+      <c r="V277" s="391"/>
+      <c r="W277" s="391"/>
+      <c r="X277" s="391"/>
+      <c r="Y277" s="392"/>
       <c r="Z277" s="30"/>
       <c r="AA277" s="24"/>
     </row>
     <row r="278" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="272"/>
       <c r="B278" s="270"/>
-      <c r="C278" s="399" t="s">
+      <c r="C278" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D278" s="399"/>
-      <c r="E278" s="399"/>
-      <c r="F278" s="399"/>
+      <c r="D278" s="393"/>
+      <c r="E278" s="393"/>
+      <c r="F278" s="393"/>
       <c r="G278" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H278" s="402">
+      <c r="H278" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I278" s="402"/>
+      <c r="I278" s="400"/>
       <c r="J278" s="270"/>
       <c r="K278" s="274"/>
       <c r="L278" s="275"/>
@@ -22460,10 +22466,10 @@
     </row>
     <row r="283" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="272"/>
-      <c r="B283" s="400" t="s">
+      <c r="B283" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C283" s="401"/>
+      <c r="C283" s="395"/>
       <c r="D283" s="270"/>
       <c r="E283" s="270"/>
       <c r="F283" s="287" t="s">
@@ -22584,10 +22590,10 @@
         <v>60870</v>
       </c>
       <c r="H285" s="285"/>
-      <c r="I285" s="391" t="s">
+      <c r="I285" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J285" s="392"/>
+      <c r="J285" s="389"/>
       <c r="K285" s="294">
         <f>K283+K284</f>
         <v>58405.172413793101</v>
@@ -22639,10 +22645,10 @@
         <v>5000</v>
       </c>
       <c r="H286" s="285"/>
-      <c r="I286" s="391" t="s">
+      <c r="I286" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J286" s="392"/>
+      <c r="J286" s="389"/>
       <c r="K286" s="288">
         <f>G286</f>
         <v>5000</v>
@@ -22878,58 +22884,58 @@
       <c r="Z291" s="57"/>
     </row>
     <row r="292" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="393" t="s">
+      <c r="A292" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B292" s="394"/>
-      <c r="C292" s="394"/>
-      <c r="D292" s="394"/>
-      <c r="E292" s="394"/>
-      <c r="F292" s="394"/>
-      <c r="G292" s="394"/>
-      <c r="H292" s="394"/>
-      <c r="I292" s="394"/>
-      <c r="J292" s="394"/>
-      <c r="K292" s="394"/>
-      <c r="L292" s="395"/>
+      <c r="B292" s="402"/>
+      <c r="C292" s="402"/>
+      <c r="D292" s="402"/>
+      <c r="E292" s="402"/>
+      <c r="F292" s="402"/>
+      <c r="G292" s="402"/>
+      <c r="H292" s="402"/>
+      <c r="I292" s="402"/>
+      <c r="J292" s="402"/>
+      <c r="K292" s="402"/>
+      <c r="L292" s="403"/>
       <c r="M292" s="24"/>
       <c r="N292" s="28"/>
-      <c r="O292" s="388" t="s">
+      <c r="O292" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P292" s="389"/>
-      <c r="Q292" s="389"/>
-      <c r="R292" s="390"/>
+      <c r="P292" s="391"/>
+      <c r="Q292" s="391"/>
+      <c r="R292" s="392"/>
       <c r="S292" s="29"/>
-      <c r="T292" s="388" t="s">
+      <c r="T292" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U292" s="389"/>
-      <c r="V292" s="389"/>
-      <c r="W292" s="389"/>
-      <c r="X292" s="389"/>
-      <c r="Y292" s="390"/>
+      <c r="U292" s="391"/>
+      <c r="V292" s="391"/>
+      <c r="W292" s="391"/>
+      <c r="X292" s="391"/>
+      <c r="Y292" s="392"/>
       <c r="Z292" s="30"/>
       <c r="AA292" s="24"/>
     </row>
     <row r="293" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="272"/>
       <c r="B293" s="270"/>
-      <c r="C293" s="399" t="s">
+      <c r="C293" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D293" s="399"/>
-      <c r="E293" s="399"/>
-      <c r="F293" s="399"/>
+      <c r="D293" s="393"/>
+      <c r="E293" s="393"/>
+      <c r="F293" s="393"/>
       <c r="G293" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H293" s="402">
+      <c r="H293" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I293" s="402"/>
+      <c r="I293" s="400"/>
       <c r="J293" s="270"/>
       <c r="K293" s="274"/>
       <c r="L293" s="275"/>
@@ -23163,10 +23169,10 @@
     </row>
     <row r="298" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="272"/>
-      <c r="B298" s="400" t="s">
+      <c r="B298" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C298" s="401"/>
+      <c r="C298" s="395"/>
       <c r="D298" s="270"/>
       <c r="E298" s="270"/>
       <c r="F298" s="287" t="s">
@@ -23284,10 +23290,10 @@
         <v>22000</v>
       </c>
       <c r="H300" s="285"/>
-      <c r="I300" s="391" t="s">
+      <c r="I300" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J300" s="392"/>
+      <c r="J300" s="389"/>
       <c r="K300" s="294">
         <f>K298+K299</f>
         <v>2241.3793103448274</v>
@@ -23339,10 +23345,10 @@
         <v>0</v>
       </c>
       <c r="H301" s="285"/>
-      <c r="I301" s="391" t="s">
+      <c r="I301" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J301" s="392"/>
+      <c r="J301" s="389"/>
       <c r="K301" s="288">
         <f>G301</f>
         <v>0</v>
@@ -23589,58 +23595,58 @@
       <c r="Z306" s="57"/>
     </row>
     <row r="307" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="393" t="s">
+      <c r="A307" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B307" s="394"/>
-      <c r="C307" s="394"/>
-      <c r="D307" s="394"/>
-      <c r="E307" s="394"/>
-      <c r="F307" s="394"/>
-      <c r="G307" s="394"/>
-      <c r="H307" s="394"/>
-      <c r="I307" s="394"/>
-      <c r="J307" s="394"/>
-      <c r="K307" s="394"/>
-      <c r="L307" s="395"/>
+      <c r="B307" s="402"/>
+      <c r="C307" s="402"/>
+      <c r="D307" s="402"/>
+      <c r="E307" s="402"/>
+      <c r="F307" s="402"/>
+      <c r="G307" s="402"/>
+      <c r="H307" s="402"/>
+      <c r="I307" s="402"/>
+      <c r="J307" s="402"/>
+      <c r="K307" s="402"/>
+      <c r="L307" s="403"/>
       <c r="M307" s="24"/>
       <c r="N307" s="28"/>
-      <c r="O307" s="388" t="s">
+      <c r="O307" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P307" s="389"/>
-      <c r="Q307" s="389"/>
-      <c r="R307" s="390"/>
+      <c r="P307" s="391"/>
+      <c r="Q307" s="391"/>
+      <c r="R307" s="392"/>
       <c r="S307" s="29"/>
-      <c r="T307" s="388" t="s">
+      <c r="T307" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U307" s="389"/>
-      <c r="V307" s="389"/>
-      <c r="W307" s="389"/>
-      <c r="X307" s="389"/>
-      <c r="Y307" s="390"/>
+      <c r="U307" s="391"/>
+      <c r="V307" s="391"/>
+      <c r="W307" s="391"/>
+      <c r="X307" s="391"/>
+      <c r="Y307" s="392"/>
       <c r="Z307" s="30"/>
       <c r="AA307" s="24"/>
     </row>
     <row r="308" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="272"/>
       <c r="B308" s="270"/>
-      <c r="C308" s="399" t="s">
+      <c r="C308" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="399"/>
-      <c r="E308" s="399"/>
-      <c r="F308" s="399"/>
+      <c r="D308" s="393"/>
+      <c r="E308" s="393"/>
+      <c r="F308" s="393"/>
       <c r="G308" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H308" s="402">
+      <c r="H308" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I308" s="402"/>
+      <c r="I308" s="400"/>
       <c r="J308" s="270"/>
       <c r="K308" s="274"/>
       <c r="L308" s="275"/>
@@ -23878,10 +23884,10 @@
     </row>
     <row r="313" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="272"/>
-      <c r="B313" s="400" t="s">
+      <c r="B313" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C313" s="401"/>
+      <c r="C313" s="395"/>
       <c r="D313" s="270"/>
       <c r="E313" s="270"/>
       <c r="F313" s="287" t="s">
@@ -24002,10 +24008,10 @@
         <v>16760</v>
       </c>
       <c r="H315" s="285"/>
-      <c r="I315" s="391" t="s">
+      <c r="I315" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J315" s="392"/>
+      <c r="J315" s="389"/>
       <c r="K315" s="294">
         <f>K313+K314</f>
         <v>45258.620689655174</v>
@@ -24057,10 +24063,10 @@
         <v>2000</v>
       </c>
       <c r="H316" s="285"/>
-      <c r="I316" s="391" t="s">
+      <c r="I316" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J316" s="392"/>
+      <c r="J316" s="389"/>
       <c r="K316" s="288">
         <f>G316</f>
         <v>2000</v>
@@ -24296,58 +24302,58 @@
       <c r="Z321" s="57"/>
     </row>
     <row r="322" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="393" t="s">
+      <c r="A322" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B322" s="394"/>
-      <c r="C322" s="394"/>
-      <c r="D322" s="394"/>
-      <c r="E322" s="394"/>
-      <c r="F322" s="394"/>
-      <c r="G322" s="394"/>
-      <c r="H322" s="394"/>
-      <c r="I322" s="394"/>
-      <c r="J322" s="394"/>
-      <c r="K322" s="394"/>
-      <c r="L322" s="395"/>
+      <c r="B322" s="402"/>
+      <c r="C322" s="402"/>
+      <c r="D322" s="402"/>
+      <c r="E322" s="402"/>
+      <c r="F322" s="402"/>
+      <c r="G322" s="402"/>
+      <c r="H322" s="402"/>
+      <c r="I322" s="402"/>
+      <c r="J322" s="402"/>
+      <c r="K322" s="402"/>
+      <c r="L322" s="403"/>
       <c r="M322" s="24"/>
       <c r="N322" s="28"/>
-      <c r="O322" s="388" t="s">
+      <c r="O322" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P322" s="389"/>
-      <c r="Q322" s="389"/>
-      <c r="R322" s="390"/>
+      <c r="P322" s="391"/>
+      <c r="Q322" s="391"/>
+      <c r="R322" s="392"/>
       <c r="S322" s="29"/>
-      <c r="T322" s="388" t="s">
+      <c r="T322" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U322" s="389"/>
-      <c r="V322" s="389"/>
-      <c r="W322" s="389"/>
-      <c r="X322" s="389"/>
-      <c r="Y322" s="390"/>
+      <c r="U322" s="391"/>
+      <c r="V322" s="391"/>
+      <c r="W322" s="391"/>
+      <c r="X322" s="391"/>
+      <c r="Y322" s="392"/>
       <c r="Z322" s="30"/>
       <c r="AA322" s="24"/>
     </row>
     <row r="323" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="272"/>
       <c r="B323" s="270"/>
-      <c r="C323" s="399" t="s">
+      <c r="C323" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D323" s="399"/>
-      <c r="E323" s="399"/>
-      <c r="F323" s="399"/>
+      <c r="D323" s="393"/>
+      <c r="E323" s="393"/>
+      <c r="F323" s="393"/>
       <c r="G323" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H323" s="402">
+      <c r="H323" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I323" s="402"/>
+      <c r="I323" s="400"/>
       <c r="J323" s="270"/>
       <c r="K323" s="274"/>
       <c r="L323" s="275"/>
@@ -24586,10 +24592,10 @@
     </row>
     <row r="328" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="272"/>
-      <c r="B328" s="400" t="s">
+      <c r="B328" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C328" s="401"/>
+      <c r="C328" s="395"/>
       <c r="D328" s="270"/>
       <c r="E328" s="270"/>
       <c r="F328" s="287" t="s">
@@ -24716,10 +24722,10 @@
         <v>15000</v>
       </c>
       <c r="H330" s="285"/>
-      <c r="I330" s="391" t="s">
+      <c r="I330" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J330" s="392"/>
+      <c r="J330" s="389"/>
       <c r="K330" s="294">
         <f>K328+K329</f>
         <v>28280.172413793105</v>
@@ -24771,10 +24777,10 @@
         <v>3000</v>
       </c>
       <c r="H331" s="285"/>
-      <c r="I331" s="391" t="s">
+      <c r="I331" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J331" s="392"/>
+      <c r="J331" s="389"/>
       <c r="K331" s="288">
         <f>G331</f>
         <v>3000</v>
@@ -25010,57 +25016,57 @@
       <c r="Z336" s="57"/>
     </row>
     <row r="337" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="393" t="s">
+      <c r="A337" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B337" s="394"/>
-      <c r="C337" s="394"/>
-      <c r="D337" s="394"/>
-      <c r="E337" s="394"/>
-      <c r="F337" s="394"/>
-      <c r="G337" s="394"/>
-      <c r="H337" s="394"/>
-      <c r="I337" s="394"/>
-      <c r="J337" s="394"/>
-      <c r="K337" s="394"/>
-      <c r="L337" s="395"/>
+      <c r="B337" s="402"/>
+      <c r="C337" s="402"/>
+      <c r="D337" s="402"/>
+      <c r="E337" s="402"/>
+      <c r="F337" s="402"/>
+      <c r="G337" s="402"/>
+      <c r="H337" s="402"/>
+      <c r="I337" s="402"/>
+      <c r="J337" s="402"/>
+      <c r="K337" s="402"/>
+      <c r="L337" s="403"/>
       <c r="M337" s="24"/>
       <c r="N337" s="28"/>
-      <c r="O337" s="388" t="s">
+      <c r="O337" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P337" s="389"/>
-      <c r="Q337" s="389"/>
-      <c r="R337" s="390"/>
+      <c r="P337" s="391"/>
+      <c r="Q337" s="391"/>
+      <c r="R337" s="392"/>
       <c r="S337" s="29"/>
-      <c r="T337" s="388" t="s">
+      <c r="T337" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U337" s="389"/>
-      <c r="V337" s="389"/>
-      <c r="W337" s="389"/>
-      <c r="X337" s="389"/>
-      <c r="Y337" s="390"/>
+      <c r="U337" s="391"/>
+      <c r="V337" s="391"/>
+      <c r="W337" s="391"/>
+      <c r="X337" s="391"/>
+      <c r="Y337" s="392"/>
       <c r="Z337" s="30"/>
     </row>
     <row r="338" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="272"/>
       <c r="B338" s="270"/>
-      <c r="C338" s="399" t="s">
+      <c r="C338" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D338" s="399"/>
-      <c r="E338" s="399"/>
-      <c r="F338" s="399"/>
+      <c r="D338" s="393"/>
+      <c r="E338" s="393"/>
+      <c r="F338" s="393"/>
       <c r="G338" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H338" s="402">
+      <c r="H338" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I338" s="402"/>
+      <c r="I338" s="400"/>
       <c r="J338" s="270"/>
       <c r="K338" s="274"/>
       <c r="L338" s="275"/>
@@ -25300,10 +25306,10 @@
     </row>
     <row r="343" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="272"/>
-      <c r="B343" s="400" t="s">
+      <c r="B343" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C343" s="401"/>
+      <c r="C343" s="395"/>
       <c r="D343" s="270"/>
       <c r="E343" s="270"/>
       <c r="F343" s="287" t="s">
@@ -25430,10 +25436,10 @@
         <v>3000</v>
       </c>
       <c r="H345" s="285"/>
-      <c r="I345" s="391" t="s">
+      <c r="I345" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J345" s="392"/>
+      <c r="J345" s="389"/>
       <c r="K345" s="294">
         <f>K343+K344</f>
         <v>40280.172413793101</v>
@@ -25488,10 +25494,10 @@
         <v>1500</v>
       </c>
       <c r="H346" s="285"/>
-      <c r="I346" s="391" t="s">
+      <c r="I346" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J346" s="392"/>
+      <c r="J346" s="389"/>
       <c r="K346" s="288">
         <f>G346</f>
         <v>1500</v>
@@ -25741,57 +25747,57 @@
       <c r="Z351" s="57"/>
     </row>
     <row r="352" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="393" t="s">
+      <c r="A352" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B352" s="394"/>
-      <c r="C352" s="394"/>
-      <c r="D352" s="394"/>
-      <c r="E352" s="394"/>
-      <c r="F352" s="394"/>
-      <c r="G352" s="394"/>
-      <c r="H352" s="394"/>
-      <c r="I352" s="394"/>
-      <c r="J352" s="394"/>
-      <c r="K352" s="394"/>
-      <c r="L352" s="395"/>
+      <c r="B352" s="402"/>
+      <c r="C352" s="402"/>
+      <c r="D352" s="402"/>
+      <c r="E352" s="402"/>
+      <c r="F352" s="402"/>
+      <c r="G352" s="402"/>
+      <c r="H352" s="402"/>
+      <c r="I352" s="402"/>
+      <c r="J352" s="402"/>
+      <c r="K352" s="402"/>
+      <c r="L352" s="403"/>
       <c r="M352" s="24"/>
       <c r="N352" s="28"/>
-      <c r="O352" s="388" t="s">
+      <c r="O352" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P352" s="389"/>
-      <c r="Q352" s="389"/>
-      <c r="R352" s="390"/>
+      <c r="P352" s="391"/>
+      <c r="Q352" s="391"/>
+      <c r="R352" s="392"/>
       <c r="S352" s="29"/>
-      <c r="T352" s="388" t="s">
+      <c r="T352" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U352" s="389"/>
-      <c r="V352" s="389"/>
-      <c r="W352" s="389"/>
-      <c r="X352" s="389"/>
-      <c r="Y352" s="390"/>
+      <c r="U352" s="391"/>
+      <c r="V352" s="391"/>
+      <c r="W352" s="391"/>
+      <c r="X352" s="391"/>
+      <c r="Y352" s="392"/>
       <c r="Z352" s="30"/>
     </row>
     <row r="353" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="272"/>
       <c r="B353" s="270"/>
-      <c r="C353" s="399" t="s">
+      <c r="C353" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D353" s="399"/>
-      <c r="E353" s="399"/>
-      <c r="F353" s="399"/>
+      <c r="D353" s="393"/>
+      <c r="E353" s="393"/>
+      <c r="F353" s="393"/>
       <c r="G353" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H353" s="402">
+      <c r="H353" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I353" s="402"/>
+      <c r="I353" s="400"/>
       <c r="J353" s="270"/>
       <c r="K353" s="274"/>
       <c r="L353" s="275"/>
@@ -26025,10 +26031,10 @@
     </row>
     <row r="358" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="272"/>
-      <c r="B358" s="400" t="s">
+      <c r="B358" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C358" s="401"/>
+      <c r="C358" s="395"/>
       <c r="D358" s="270"/>
       <c r="E358" s="270"/>
       <c r="F358" s="287" t="s">
@@ -26155,10 +26161,10 @@
         <v>0</v>
       </c>
       <c r="H360" s="285"/>
-      <c r="I360" s="391" t="s">
+      <c r="I360" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J360" s="392"/>
+      <c r="J360" s="389"/>
       <c r="K360" s="294">
         <f>K358+K359</f>
         <v>27698.275862068964</v>
@@ -26213,10 +26219,10 @@
         <v>0</v>
       </c>
       <c r="H361" s="285"/>
-      <c r="I361" s="391" t="s">
+      <c r="I361" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J361" s="392"/>
+      <c r="J361" s="389"/>
       <c r="K361" s="288">
         <f>G361</f>
         <v>0</v>
@@ -26462,57 +26468,57 @@
       <c r="Z366" s="57"/>
     </row>
     <row r="367" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="393" t="s">
+      <c r="A367" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B367" s="394"/>
-      <c r="C367" s="394"/>
-      <c r="D367" s="394"/>
-      <c r="E367" s="394"/>
-      <c r="F367" s="394"/>
-      <c r="G367" s="394"/>
-      <c r="H367" s="394"/>
-      <c r="I367" s="394"/>
-      <c r="J367" s="394"/>
-      <c r="K367" s="394"/>
-      <c r="L367" s="395"/>
+      <c r="B367" s="402"/>
+      <c r="C367" s="402"/>
+      <c r="D367" s="402"/>
+      <c r="E367" s="402"/>
+      <c r="F367" s="402"/>
+      <c r="G367" s="402"/>
+      <c r="H367" s="402"/>
+      <c r="I367" s="402"/>
+      <c r="J367" s="402"/>
+      <c r="K367" s="402"/>
+      <c r="L367" s="403"/>
       <c r="M367" s="24"/>
       <c r="N367" s="28"/>
-      <c r="O367" s="388" t="s">
+      <c r="O367" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P367" s="389"/>
-      <c r="Q367" s="389"/>
-      <c r="R367" s="390"/>
+      <c r="P367" s="391"/>
+      <c r="Q367" s="391"/>
+      <c r="R367" s="392"/>
       <c r="S367" s="29"/>
-      <c r="T367" s="388" t="s">
+      <c r="T367" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U367" s="389"/>
-      <c r="V367" s="389"/>
-      <c r="W367" s="389"/>
-      <c r="X367" s="389"/>
-      <c r="Y367" s="390"/>
+      <c r="U367" s="391"/>
+      <c r="V367" s="391"/>
+      <c r="W367" s="391"/>
+      <c r="X367" s="391"/>
+      <c r="Y367" s="392"/>
       <c r="Z367" s="30"/>
     </row>
     <row r="368" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="272"/>
       <c r="B368" s="270"/>
-      <c r="C368" s="399" t="s">
+      <c r="C368" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D368" s="399"/>
-      <c r="E368" s="399"/>
-      <c r="F368" s="399"/>
+      <c r="D368" s="393"/>
+      <c r="E368" s="393"/>
+      <c r="F368" s="393"/>
       <c r="G368" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H368" s="402">
+      <c r="H368" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I368" s="402"/>
+      <c r="I368" s="400"/>
       <c r="J368" s="270"/>
       <c r="K368" s="274"/>
       <c r="L368" s="275"/>
@@ -26745,10 +26751,10 @@
     </row>
     <row r="373" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="272"/>
-      <c r="B373" s="400" t="s">
+      <c r="B373" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C373" s="401"/>
+      <c r="C373" s="395"/>
       <c r="D373" s="270"/>
       <c r="E373" s="270"/>
       <c r="F373" s="287" t="s">
@@ -26873,10 +26879,10 @@
         <v>2000</v>
       </c>
       <c r="H375" s="285"/>
-      <c r="I375" s="391" t="s">
+      <c r="I375" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J375" s="392"/>
+      <c r="J375" s="389"/>
       <c r="K375" s="294">
         <f>K373+K374</f>
         <v>25862.068965517243</v>
@@ -26930,10 +26936,10 @@
         <v>2000</v>
       </c>
       <c r="H376" s="285"/>
-      <c r="I376" s="391" t="s">
+      <c r="I376" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J376" s="392"/>
+      <c r="J376" s="389"/>
       <c r="K376" s="288">
         <f>G376</f>
         <v>2000</v>
@@ -27176,58 +27182,58 @@
       <c r="Z381" s="57"/>
     </row>
     <row r="382" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="393" t="s">
+      <c r="A382" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B382" s="394"/>
-      <c r="C382" s="394"/>
-      <c r="D382" s="394"/>
-      <c r="E382" s="394"/>
-      <c r="F382" s="394"/>
-      <c r="G382" s="394"/>
-      <c r="H382" s="394"/>
-      <c r="I382" s="394"/>
-      <c r="J382" s="394"/>
-      <c r="K382" s="394"/>
-      <c r="L382" s="395"/>
+      <c r="B382" s="402"/>
+      <c r="C382" s="402"/>
+      <c r="D382" s="402"/>
+      <c r="E382" s="402"/>
+      <c r="F382" s="402"/>
+      <c r="G382" s="402"/>
+      <c r="H382" s="402"/>
+      <c r="I382" s="402"/>
+      <c r="J382" s="402"/>
+      <c r="K382" s="402"/>
+      <c r="L382" s="403"/>
       <c r="M382" s="24"/>
       <c r="N382" s="28"/>
-      <c r="O382" s="388" t="s">
+      <c r="O382" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P382" s="389"/>
-      <c r="Q382" s="389"/>
-      <c r="R382" s="390"/>
+      <c r="P382" s="391"/>
+      <c r="Q382" s="391"/>
+      <c r="R382" s="392"/>
       <c r="S382" s="29"/>
-      <c r="T382" s="388" t="s">
+      <c r="T382" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U382" s="389"/>
-      <c r="V382" s="389"/>
-      <c r="W382" s="389"/>
-      <c r="X382" s="389"/>
-      <c r="Y382" s="390"/>
+      <c r="U382" s="391"/>
+      <c r="V382" s="391"/>
+      <c r="W382" s="391"/>
+      <c r="X382" s="391"/>
+      <c r="Y382" s="392"/>
       <c r="Z382" s="30"/>
       <c r="AA382" s="24"/>
     </row>
     <row r="383" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="272"/>
       <c r="B383" s="270"/>
-      <c r="C383" s="399" t="s">
+      <c r="C383" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D383" s="399"/>
-      <c r="E383" s="399"/>
-      <c r="F383" s="399"/>
+      <c r="D383" s="393"/>
+      <c r="E383" s="393"/>
+      <c r="F383" s="393"/>
       <c r="G383" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H383" s="402">
+      <c r="H383" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I383" s="402"/>
+      <c r="I383" s="400"/>
       <c r="J383" s="270"/>
       <c r="K383" s="274"/>
       <c r="L383" s="275"/>
@@ -27463,10 +27469,10 @@
     </row>
     <row r="388" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="272"/>
-      <c r="B388" s="400" t="s">
+      <c r="B388" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C388" s="401"/>
+      <c r="C388" s="395"/>
       <c r="D388" s="270"/>
       <c r="E388" s="270"/>
       <c r="F388" s="287" t="s">
@@ -27587,10 +27593,10 @@
         <v>18000</v>
       </c>
       <c r="H390" s="285"/>
-      <c r="I390" s="391" t="s">
+      <c r="I390" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J390" s="392"/>
+      <c r="J390" s="389"/>
       <c r="K390" s="294">
         <f>K388+K389</f>
         <v>25431.03448275862</v>
@@ -27642,10 +27648,10 @@
         <v>2000</v>
       </c>
       <c r="H391" s="285"/>
-      <c r="I391" s="391" t="s">
+      <c r="I391" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J391" s="392"/>
+      <c r="J391" s="389"/>
       <c r="K391" s="288">
         <f>G391</f>
         <v>2000</v>
@@ -27881,57 +27887,57 @@
       <c r="Z396" s="57"/>
     </row>
     <row r="397" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="426" t="s">
+      <c r="A397" s="404" t="s">
         <v>38</v>
       </c>
-      <c r="B397" s="427"/>
-      <c r="C397" s="427"/>
-      <c r="D397" s="427"/>
-      <c r="E397" s="427"/>
-      <c r="F397" s="427"/>
-      <c r="G397" s="427"/>
-      <c r="H397" s="427"/>
-      <c r="I397" s="427"/>
-      <c r="J397" s="427"/>
-      <c r="K397" s="427"/>
-      <c r="L397" s="428"/>
+      <c r="B397" s="405"/>
+      <c r="C397" s="405"/>
+      <c r="D397" s="405"/>
+      <c r="E397" s="405"/>
+      <c r="F397" s="405"/>
+      <c r="G397" s="405"/>
+      <c r="H397" s="405"/>
+      <c r="I397" s="405"/>
+      <c r="J397" s="405"/>
+      <c r="K397" s="405"/>
+      <c r="L397" s="406"/>
       <c r="M397" s="24"/>
       <c r="N397" s="28"/>
-      <c r="O397" s="388" t="s">
+      <c r="O397" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P397" s="389"/>
-      <c r="Q397" s="389"/>
-      <c r="R397" s="390"/>
+      <c r="P397" s="391"/>
+      <c r="Q397" s="391"/>
+      <c r="R397" s="392"/>
       <c r="S397" s="29"/>
-      <c r="T397" s="388" t="s">
+      <c r="T397" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U397" s="389"/>
-      <c r="V397" s="389"/>
-      <c r="W397" s="389"/>
-      <c r="X397" s="389"/>
-      <c r="Y397" s="390"/>
+      <c r="U397" s="391"/>
+      <c r="V397" s="391"/>
+      <c r="W397" s="391"/>
+      <c r="X397" s="391"/>
+      <c r="Y397" s="392"/>
       <c r="Z397" s="27"/>
     </row>
     <row r="398" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="272"/>
       <c r="B398" s="270"/>
-      <c r="C398" s="399" t="s">
+      <c r="C398" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D398" s="399"/>
-      <c r="E398" s="399"/>
-      <c r="F398" s="399"/>
+      <c r="D398" s="393"/>
+      <c r="E398" s="393"/>
+      <c r="F398" s="393"/>
       <c r="G398" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H398" s="402">
+      <c r="H398" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I398" s="402"/>
+      <c r="I398" s="400"/>
       <c r="J398" s="270"/>
       <c r="K398" s="274"/>
       <c r="L398" s="275"/>
@@ -28076,16 +28082,16 @@
       <c r="C401" s="283"/>
       <c r="D401" s="270"/>
       <c r="E401" s="270"/>
-      <c r="F401" s="406" t="s">
+      <c r="F401" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G401" s="406"/>
+      <c r="G401" s="399"/>
       <c r="H401" s="270"/>
-      <c r="I401" s="406" t="s">
+      <c r="I401" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J401" s="406"/>
-      <c r="K401" s="406"/>
+      <c r="J401" s="399"/>
+      <c r="K401" s="399"/>
       <c r="L401" s="284"/>
       <c r="N401" s="35"/>
       <c r="O401" s="36" t="s">
@@ -28161,10 +28167,10 @@
     </row>
     <row r="403" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="272"/>
-      <c r="B403" s="400" t="s">
+      <c r="B403" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C403" s="401"/>
+      <c r="C403" s="395"/>
       <c r="D403" s="270"/>
       <c r="E403" s="270"/>
       <c r="F403" s="287" t="s">
@@ -28291,10 +28297,10 @@
         <v>0</v>
       </c>
       <c r="H405" s="285"/>
-      <c r="I405" s="391" t="s">
+      <c r="I405" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J405" s="392"/>
+      <c r="J405" s="389"/>
       <c r="K405" s="294">
         <f>K403+K404</f>
         <v>25646.551724137931</v>
@@ -28349,10 +28355,10 @@
         <v>0</v>
       </c>
       <c r="H406" s="285"/>
-      <c r="I406" s="391" t="s">
+      <c r="I406" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J406" s="392"/>
+      <c r="J406" s="389"/>
       <c r="K406" s="288">
         <f>G406</f>
         <v>0</v>
@@ -28606,58 +28612,58 @@
     </row>
     <row r="412" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="413" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="393" t="s">
+      <c r="A413" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B413" s="394"/>
-      <c r="C413" s="394"/>
-      <c r="D413" s="394"/>
-      <c r="E413" s="394"/>
-      <c r="F413" s="394"/>
-      <c r="G413" s="394"/>
-      <c r="H413" s="394"/>
-      <c r="I413" s="394"/>
-      <c r="J413" s="394"/>
-      <c r="K413" s="394"/>
-      <c r="L413" s="395"/>
+      <c r="B413" s="402"/>
+      <c r="C413" s="402"/>
+      <c r="D413" s="402"/>
+      <c r="E413" s="402"/>
+      <c r="F413" s="402"/>
+      <c r="G413" s="402"/>
+      <c r="H413" s="402"/>
+      <c r="I413" s="402"/>
+      <c r="J413" s="402"/>
+      <c r="K413" s="402"/>
+      <c r="L413" s="403"/>
       <c r="M413" s="24"/>
       <c r="N413" s="28"/>
-      <c r="O413" s="388" t="s">
+      <c r="O413" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P413" s="389"/>
-      <c r="Q413" s="389"/>
-      <c r="R413" s="390"/>
+      <c r="P413" s="391"/>
+      <c r="Q413" s="391"/>
+      <c r="R413" s="392"/>
       <c r="S413" s="29"/>
-      <c r="T413" s="388" t="s">
+      <c r="T413" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U413" s="389"/>
-      <c r="V413" s="389"/>
-      <c r="W413" s="389"/>
-      <c r="X413" s="389"/>
-      <c r="Y413" s="390"/>
+      <c r="U413" s="391"/>
+      <c r="V413" s="391"/>
+      <c r="W413" s="391"/>
+      <c r="X413" s="391"/>
+      <c r="Y413" s="392"/>
       <c r="Z413" s="30"/>
       <c r="AA413" s="24"/>
     </row>
     <row r="414" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="272"/>
       <c r="B414" s="270"/>
-      <c r="C414" s="399" t="s">
+      <c r="C414" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D414" s="399"/>
-      <c r="E414" s="399"/>
-      <c r="F414" s="399"/>
+      <c r="D414" s="393"/>
+      <c r="E414" s="393"/>
+      <c r="F414" s="393"/>
       <c r="G414" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H414" s="402">
+      <c r="H414" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I414" s="402"/>
+      <c r="I414" s="400"/>
       <c r="J414" s="270"/>
       <c r="K414" s="274"/>
       <c r="L414" s="275"/>
@@ -28900,10 +28906,10 @@
     </row>
     <row r="419" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="272"/>
-      <c r="B419" s="400" t="s">
+      <c r="B419" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C419" s="401"/>
+      <c r="C419" s="395"/>
       <c r="D419" s="270"/>
       <c r="E419" s="270"/>
       <c r="F419" s="287" t="s">
@@ -29030,10 +29036,10 @@
         <v>22000</v>
       </c>
       <c r="H421" s="285"/>
-      <c r="I421" s="391" t="s">
+      <c r="I421" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J421" s="392"/>
+      <c r="J421" s="389"/>
       <c r="K421" s="294">
         <f>K419+K420</f>
         <v>30491.379310344826</v>
@@ -29088,10 +29094,10 @@
         <v>2000</v>
       </c>
       <c r="H422" s="285"/>
-      <c r="I422" s="391" t="s">
+      <c r="I422" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J422" s="392"/>
+      <c r="J422" s="389"/>
       <c r="K422" s="288">
         <f>G422</f>
         <v>2000</v>
@@ -29342,57 +29348,57 @@
       <c r="Z427" s="57"/>
     </row>
     <row r="428" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="393" t="s">
+      <c r="A428" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B428" s="394"/>
-      <c r="C428" s="394"/>
-      <c r="D428" s="394"/>
-      <c r="E428" s="394"/>
-      <c r="F428" s="394"/>
-      <c r="G428" s="394"/>
-      <c r="H428" s="394"/>
-      <c r="I428" s="394"/>
-      <c r="J428" s="394"/>
-      <c r="K428" s="394"/>
-      <c r="L428" s="395"/>
+      <c r="B428" s="402"/>
+      <c r="C428" s="402"/>
+      <c r="D428" s="402"/>
+      <c r="E428" s="402"/>
+      <c r="F428" s="402"/>
+      <c r="G428" s="402"/>
+      <c r="H428" s="402"/>
+      <c r="I428" s="402"/>
+      <c r="J428" s="402"/>
+      <c r="K428" s="402"/>
+      <c r="L428" s="403"/>
       <c r="M428" s="24"/>
       <c r="N428" s="28"/>
-      <c r="O428" s="388" t="s">
+      <c r="O428" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P428" s="389"/>
-      <c r="Q428" s="389"/>
-      <c r="R428" s="390"/>
+      <c r="P428" s="391"/>
+      <c r="Q428" s="391"/>
+      <c r="R428" s="392"/>
       <c r="S428" s="29"/>
-      <c r="T428" s="388" t="s">
+      <c r="T428" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U428" s="389"/>
-      <c r="V428" s="389"/>
-      <c r="W428" s="389"/>
-      <c r="X428" s="389"/>
-      <c r="Y428" s="390"/>
+      <c r="U428" s="391"/>
+      <c r="V428" s="391"/>
+      <c r="W428" s="391"/>
+      <c r="X428" s="391"/>
+      <c r="Y428" s="392"/>
       <c r="Z428" s="30"/>
     </row>
     <row r="429" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="272"/>
       <c r="B429" s="270"/>
-      <c r="C429" s="399" t="s">
+      <c r="C429" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D429" s="399"/>
-      <c r="E429" s="399"/>
-      <c r="F429" s="399"/>
+      <c r="D429" s="393"/>
+      <c r="E429" s="393"/>
+      <c r="F429" s="393"/>
       <c r="G429" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H429" s="402">
+      <c r="H429" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I429" s="402"/>
+      <c r="I429" s="400"/>
       <c r="J429" s="270"/>
       <c r="K429" s="274"/>
       <c r="L429" s="275"/>
@@ -29631,10 +29637,10 @@
     </row>
     <row r="434" spans="1:29" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="272"/>
-      <c r="B434" s="400" t="s">
+      <c r="B434" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C434" s="401"/>
+      <c r="C434" s="395"/>
       <c r="D434" s="270"/>
       <c r="E434" s="270"/>
       <c r="F434" s="287" t="s">
@@ -29755,10 +29761,10 @@
         <v>44500</v>
       </c>
       <c r="H436" s="285"/>
-      <c r="I436" s="391" t="s">
+      <c r="I436" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J436" s="392"/>
+      <c r="J436" s="389"/>
       <c r="K436" s="294">
         <f>K434+K435</f>
         <v>23793.103448275866</v>
@@ -29810,10 +29816,10 @@
         <v>10000</v>
       </c>
       <c r="H437" s="285"/>
-      <c r="I437" s="391" t="s">
+      <c r="I437" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J437" s="392"/>
+      <c r="J437" s="389"/>
       <c r="K437" s="288">
         <f>G437</f>
         <v>10000</v>
@@ -30050,58 +30056,58 @@
       <c r="Z442" s="57"/>
     </row>
     <row r="443" spans="1:29" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="393" t="s">
+      <c r="A443" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B443" s="394"/>
-      <c r="C443" s="394"/>
-      <c r="D443" s="394"/>
-      <c r="E443" s="394"/>
-      <c r="F443" s="394"/>
-      <c r="G443" s="394"/>
-      <c r="H443" s="394"/>
-      <c r="I443" s="394"/>
-      <c r="J443" s="394"/>
-      <c r="K443" s="394"/>
-      <c r="L443" s="395"/>
+      <c r="B443" s="402"/>
+      <c r="C443" s="402"/>
+      <c r="D443" s="402"/>
+      <c r="E443" s="402"/>
+      <c r="F443" s="402"/>
+      <c r="G443" s="402"/>
+      <c r="H443" s="402"/>
+      <c r="I443" s="402"/>
+      <c r="J443" s="402"/>
+      <c r="K443" s="402"/>
+      <c r="L443" s="403"/>
       <c r="M443" s="24"/>
       <c r="N443" s="28"/>
-      <c r="O443" s="388" t="s">
+      <c r="O443" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P443" s="389"/>
-      <c r="Q443" s="389"/>
-      <c r="R443" s="390"/>
+      <c r="P443" s="391"/>
+      <c r="Q443" s="391"/>
+      <c r="R443" s="392"/>
       <c r="S443" s="29"/>
-      <c r="T443" s="388" t="s">
+      <c r="T443" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U443" s="389"/>
-      <c r="V443" s="389"/>
-      <c r="W443" s="389"/>
-      <c r="X443" s="389"/>
-      <c r="Y443" s="390"/>
+      <c r="U443" s="391"/>
+      <c r="V443" s="391"/>
+      <c r="W443" s="391"/>
+      <c r="X443" s="391"/>
+      <c r="Y443" s="392"/>
       <c r="Z443" s="30"/>
       <c r="AA443" s="24"/>
     </row>
     <row r="444" spans="1:29" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="272"/>
       <c r="B444" s="270"/>
-      <c r="C444" s="399" t="s">
+      <c r="C444" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D444" s="399"/>
-      <c r="E444" s="399"/>
-      <c r="F444" s="399"/>
+      <c r="D444" s="393"/>
+      <c r="E444" s="393"/>
+      <c r="F444" s="393"/>
       <c r="G444" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H444" s="402">
+      <c r="H444" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I444" s="402"/>
+      <c r="I444" s="400"/>
       <c r="J444" s="270"/>
       <c r="K444" s="274"/>
       <c r="L444" s="275"/>
@@ -30334,10 +30340,10 @@
     </row>
     <row r="449" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="272"/>
-      <c r="B449" s="400" t="s">
+      <c r="B449" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C449" s="401"/>
+      <c r="C449" s="395"/>
       <c r="D449" s="270"/>
       <c r="E449" s="270"/>
       <c r="F449" s="287" t="s">
@@ -30462,10 +30468,10 @@
         <v>0</v>
       </c>
       <c r="H451" s="285"/>
-      <c r="I451" s="391" t="s">
+      <c r="I451" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J451" s="392"/>
+      <c r="J451" s="389"/>
       <c r="K451" s="294">
         <f>K449+K450</f>
         <v>36894.396551724138</v>
@@ -30519,10 +30525,10 @@
         <v>0</v>
       </c>
       <c r="H452" s="285"/>
-      <c r="I452" s="391" t="s">
+      <c r="I452" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J452" s="392"/>
+      <c r="J452" s="389"/>
       <c r="K452" s="288">
         <f>G452</f>
         <v>0</v>
@@ -30769,57 +30775,57 @@
       <c r="Z457" s="57"/>
     </row>
     <row r="458" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="393" t="s">
+      <c r="A458" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B458" s="394"/>
-      <c r="C458" s="394"/>
-      <c r="D458" s="394"/>
-      <c r="E458" s="394"/>
-      <c r="F458" s="394"/>
-      <c r="G458" s="394"/>
-      <c r="H458" s="394"/>
-      <c r="I458" s="394"/>
-      <c r="J458" s="394"/>
-      <c r="K458" s="394"/>
-      <c r="L458" s="395"/>
+      <c r="B458" s="402"/>
+      <c r="C458" s="402"/>
+      <c r="D458" s="402"/>
+      <c r="E458" s="402"/>
+      <c r="F458" s="402"/>
+      <c r="G458" s="402"/>
+      <c r="H458" s="402"/>
+      <c r="I458" s="402"/>
+      <c r="J458" s="402"/>
+      <c r="K458" s="402"/>
+      <c r="L458" s="403"/>
       <c r="M458" s="24"/>
       <c r="N458" s="28"/>
-      <c r="O458" s="388" t="s">
+      <c r="O458" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P458" s="389"/>
-      <c r="Q458" s="389"/>
-      <c r="R458" s="390"/>
+      <c r="P458" s="391"/>
+      <c r="Q458" s="391"/>
+      <c r="R458" s="392"/>
       <c r="S458" s="29"/>
-      <c r="T458" s="388" t="s">
+      <c r="T458" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U458" s="389"/>
-      <c r="V458" s="389"/>
-      <c r="W458" s="389"/>
-      <c r="X458" s="389"/>
-      <c r="Y458" s="390"/>
+      <c r="U458" s="391"/>
+      <c r="V458" s="391"/>
+      <c r="W458" s="391"/>
+      <c r="X458" s="391"/>
+      <c r="Y458" s="392"/>
       <c r="Z458" s="30"/>
     </row>
     <row r="459" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="272"/>
       <c r="B459" s="270"/>
-      <c r="C459" s="399" t="s">
+      <c r="C459" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D459" s="399"/>
-      <c r="E459" s="399"/>
-      <c r="F459" s="399"/>
+      <c r="D459" s="393"/>
+      <c r="E459" s="393"/>
+      <c r="F459" s="393"/>
       <c r="G459" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H459" s="402">
+      <c r="H459" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I459" s="402"/>
+      <c r="I459" s="400"/>
       <c r="J459" s="270"/>
       <c r="K459" s="274"/>
       <c r="L459" s="275"/>
@@ -31047,10 +31053,10 @@
     </row>
     <row r="464" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="272"/>
-      <c r="B464" s="400" t="s">
+      <c r="B464" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C464" s="401"/>
+      <c r="C464" s="395"/>
       <c r="D464" s="270"/>
       <c r="E464" s="270"/>
       <c r="F464" s="287" t="s">
@@ -31175,10 +31181,10 @@
         <v>0</v>
       </c>
       <c r="H466" s="285"/>
-      <c r="I466" s="391" t="s">
+      <c r="I466" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J466" s="392"/>
+      <c r="J466" s="389"/>
       <c r="K466" s="294">
         <f>K464+K465</f>
         <v>33810.344827586203</v>
@@ -31232,10 +31238,10 @@
         <v>0</v>
       </c>
       <c r="H467" s="285"/>
-      <c r="I467" s="391" t="s">
+      <c r="I467" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J467" s="392"/>
+      <c r="J467" s="389"/>
       <c r="K467" s="288">
         <f>G467</f>
         <v>0</v>
@@ -31480,58 +31486,58 @@
       <c r="Z472" s="57"/>
     </row>
     <row r="473" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="393" t="s">
+      <c r="A473" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B473" s="394"/>
-      <c r="C473" s="394"/>
-      <c r="D473" s="394"/>
-      <c r="E473" s="394"/>
-      <c r="F473" s="394"/>
-      <c r="G473" s="394"/>
-      <c r="H473" s="394"/>
-      <c r="I473" s="394"/>
-      <c r="J473" s="394"/>
-      <c r="K473" s="394"/>
-      <c r="L473" s="395"/>
+      <c r="B473" s="402"/>
+      <c r="C473" s="402"/>
+      <c r="D473" s="402"/>
+      <c r="E473" s="402"/>
+      <c r="F473" s="402"/>
+      <c r="G473" s="402"/>
+      <c r="H473" s="402"/>
+      <c r="I473" s="402"/>
+      <c r="J473" s="402"/>
+      <c r="K473" s="402"/>
+      <c r="L473" s="403"/>
       <c r="M473" s="24"/>
       <c r="N473" s="28"/>
-      <c r="O473" s="388" t="s">
+      <c r="O473" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P473" s="389"/>
-      <c r="Q473" s="389"/>
-      <c r="R473" s="390"/>
+      <c r="P473" s="391"/>
+      <c r="Q473" s="391"/>
+      <c r="R473" s="392"/>
       <c r="S473" s="29"/>
-      <c r="T473" s="388" t="s">
+      <c r="T473" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U473" s="389"/>
-      <c r="V473" s="389"/>
-      <c r="W473" s="389"/>
-      <c r="X473" s="389"/>
-      <c r="Y473" s="390"/>
+      <c r="U473" s="391"/>
+      <c r="V473" s="391"/>
+      <c r="W473" s="391"/>
+      <c r="X473" s="391"/>
+      <c r="Y473" s="392"/>
       <c r="Z473" s="30"/>
       <c r="AA473" s="24"/>
     </row>
     <row r="474" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="272"/>
       <c r="B474" s="270"/>
-      <c r="C474" s="399" t="s">
+      <c r="C474" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D474" s="399"/>
-      <c r="E474" s="399"/>
-      <c r="F474" s="399"/>
+      <c r="D474" s="393"/>
+      <c r="E474" s="393"/>
+      <c r="F474" s="393"/>
       <c r="G474" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H474" s="402">
+      <c r="H474" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I474" s="402"/>
+      <c r="I474" s="400"/>
       <c r="J474" s="270"/>
       <c r="K474" s="274"/>
       <c r="L474" s="275"/>
@@ -31754,10 +31760,10 @@
     </row>
     <row r="479" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="272"/>
-      <c r="B479" s="400" t="s">
+      <c r="B479" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C479" s="401"/>
+      <c r="C479" s="395"/>
       <c r="D479" s="270"/>
       <c r="E479" s="270"/>
       <c r="F479" s="287" t="s">
@@ -31878,10 +31884,10 @@
         <v/>
       </c>
       <c r="H481" s="285"/>
-      <c r="I481" s="391" t="s">
+      <c r="I481" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J481" s="392"/>
+      <c r="J481" s="389"/>
       <c r="K481" s="294">
         <f>K479+K480</f>
         <v>33517.241379310348</v>
@@ -31933,10 +31939,10 @@
         <v>0</v>
       </c>
       <c r="H482" s="285"/>
-      <c r="I482" s="391" t="s">
+      <c r="I482" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J482" s="392"/>
+      <c r="J482" s="389"/>
       <c r="K482" s="288">
         <f>G482</f>
         <v>0</v>
@@ -32177,57 +32183,57 @@
       <c r="Z487" s="57"/>
     </row>
     <row r="488" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="393" t="s">
+      <c r="A488" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B488" s="394"/>
-      <c r="C488" s="394"/>
-      <c r="D488" s="394"/>
-      <c r="E488" s="394"/>
-      <c r="F488" s="394"/>
-      <c r="G488" s="394"/>
-      <c r="H488" s="394"/>
-      <c r="I488" s="394"/>
-      <c r="J488" s="394"/>
-      <c r="K488" s="394"/>
-      <c r="L488" s="395"/>
+      <c r="B488" s="402"/>
+      <c r="C488" s="402"/>
+      <c r="D488" s="402"/>
+      <c r="E488" s="402"/>
+      <c r="F488" s="402"/>
+      <c r="G488" s="402"/>
+      <c r="H488" s="402"/>
+      <c r="I488" s="402"/>
+      <c r="J488" s="402"/>
+      <c r="K488" s="402"/>
+      <c r="L488" s="403"/>
       <c r="M488" s="24"/>
       <c r="N488" s="28"/>
-      <c r="O488" s="388" t="s">
+      <c r="O488" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P488" s="389"/>
-      <c r="Q488" s="389"/>
-      <c r="R488" s="390"/>
+      <c r="P488" s="391"/>
+      <c r="Q488" s="391"/>
+      <c r="R488" s="392"/>
       <c r="S488" s="29"/>
-      <c r="T488" s="388" t="s">
+      <c r="T488" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U488" s="389"/>
-      <c r="V488" s="389"/>
-      <c r="W488" s="389"/>
-      <c r="X488" s="389"/>
-      <c r="Y488" s="390"/>
+      <c r="U488" s="391"/>
+      <c r="V488" s="391"/>
+      <c r="W488" s="391"/>
+      <c r="X488" s="391"/>
+      <c r="Y488" s="392"/>
       <c r="Z488" s="30"/>
     </row>
     <row r="489" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="272"/>
       <c r="B489" s="270"/>
-      <c r="C489" s="399" t="s">
+      <c r="C489" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D489" s="399"/>
-      <c r="E489" s="399"/>
-      <c r="F489" s="399"/>
+      <c r="D489" s="393"/>
+      <c r="E489" s="393"/>
+      <c r="F489" s="393"/>
       <c r="G489" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H489" s="402">
+      <c r="H489" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I489" s="402"/>
+      <c r="I489" s="400"/>
       <c r="J489" s="270"/>
       <c r="K489" s="274"/>
       <c r="L489" s="275"/>
@@ -32457,10 +32463,10 @@
     </row>
     <row r="494" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="272"/>
-      <c r="B494" s="400" t="s">
+      <c r="B494" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C494" s="401"/>
+      <c r="C494" s="395"/>
       <c r="D494" s="270"/>
       <c r="E494" s="270"/>
       <c r="F494" s="287" t="s">
@@ -32585,10 +32591,10 @@
         <v>0</v>
       </c>
       <c r="H496" s="285"/>
-      <c r="I496" s="391" t="s">
+      <c r="I496" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J496" s="392"/>
+      <c r="J496" s="389"/>
       <c r="K496" s="294">
         <f>K494+K495</f>
         <v>36116.379310344826</v>
@@ -32642,10 +32648,10 @@
         <v>0</v>
       </c>
       <c r="H497" s="285"/>
-      <c r="I497" s="391" t="s">
+      <c r="I497" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J497" s="392"/>
+      <c r="J497" s="389"/>
       <c r="K497" s="288">
         <f>G497</f>
         <v>0</v>
@@ -32885,58 +32891,58 @@
       <c r="Z502" s="57"/>
     </row>
     <row r="503" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="393" t="s">
+      <c r="A503" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B503" s="394"/>
-      <c r="C503" s="394"/>
-      <c r="D503" s="394"/>
-      <c r="E503" s="394"/>
-      <c r="F503" s="394"/>
-      <c r="G503" s="394"/>
-      <c r="H503" s="394"/>
-      <c r="I503" s="394"/>
-      <c r="J503" s="394"/>
-      <c r="K503" s="394"/>
-      <c r="L503" s="395"/>
+      <c r="B503" s="402"/>
+      <c r="C503" s="402"/>
+      <c r="D503" s="402"/>
+      <c r="E503" s="402"/>
+      <c r="F503" s="402"/>
+      <c r="G503" s="402"/>
+      <c r="H503" s="402"/>
+      <c r="I503" s="402"/>
+      <c r="J503" s="402"/>
+      <c r="K503" s="402"/>
+      <c r="L503" s="403"/>
       <c r="M503" s="24"/>
       <c r="N503" s="28"/>
-      <c r="O503" s="388" t="s">
+      <c r="O503" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P503" s="389"/>
-      <c r="Q503" s="389"/>
-      <c r="R503" s="390"/>
+      <c r="P503" s="391"/>
+      <c r="Q503" s="391"/>
+      <c r="R503" s="392"/>
       <c r="S503" s="29"/>
-      <c r="T503" s="388" t="s">
+      <c r="T503" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U503" s="389"/>
-      <c r="V503" s="389"/>
-      <c r="W503" s="389"/>
-      <c r="X503" s="389"/>
-      <c r="Y503" s="390"/>
+      <c r="U503" s="391"/>
+      <c r="V503" s="391"/>
+      <c r="W503" s="391"/>
+      <c r="X503" s="391"/>
+      <c r="Y503" s="392"/>
       <c r="Z503" s="30"/>
       <c r="AA503" s="24"/>
     </row>
     <row r="504" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="272"/>
       <c r="B504" s="270"/>
-      <c r="C504" s="399" t="s">
+      <c r="C504" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D504" s="399"/>
-      <c r="E504" s="399"/>
-      <c r="F504" s="399"/>
+      <c r="D504" s="393"/>
+      <c r="E504" s="393"/>
+      <c r="F504" s="393"/>
       <c r="G504" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H504" s="402">
+      <c r="H504" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I504" s="402"/>
+      <c r="I504" s="400"/>
       <c r="J504" s="270"/>
       <c r="K504" s="274"/>
       <c r="L504" s="275"/>
@@ -33166,10 +33172,10 @@
     </row>
     <row r="509" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="272"/>
-      <c r="B509" s="400" t="s">
+      <c r="B509" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C509" s="401"/>
+      <c r="C509" s="395"/>
       <c r="D509" s="270"/>
       <c r="E509" s="270"/>
       <c r="F509" s="287" t="s">
@@ -33288,10 +33294,10 @@
         <v>55000</v>
       </c>
       <c r="H511" s="285"/>
-      <c r="I511" s="391" t="s">
+      <c r="I511" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J511" s="392"/>
+      <c r="J511" s="389"/>
       <c r="K511" s="294">
         <f>K509+K510</f>
         <v>36853.448275862072</v>
@@ -33342,10 +33348,10 @@
         <v>5000</v>
       </c>
       <c r="H512" s="285"/>
-      <c r="I512" s="391" t="s">
+      <c r="I512" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J512" s="392"/>
+      <c r="J512" s="389"/>
       <c r="K512" s="288">
         <f>G512</f>
         <v>5000</v>
@@ -33576,58 +33582,58 @@
       <c r="Z517" s="57"/>
     </row>
     <row r="518" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="393" t="s">
+      <c r="A518" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B518" s="394"/>
-      <c r="C518" s="394"/>
-      <c r="D518" s="394"/>
-      <c r="E518" s="394"/>
-      <c r="F518" s="394"/>
-      <c r="G518" s="394"/>
-      <c r="H518" s="394"/>
-      <c r="I518" s="394"/>
-      <c r="J518" s="394"/>
-      <c r="K518" s="394"/>
-      <c r="L518" s="395"/>
+      <c r="B518" s="402"/>
+      <c r="C518" s="402"/>
+      <c r="D518" s="402"/>
+      <c r="E518" s="402"/>
+      <c r="F518" s="402"/>
+      <c r="G518" s="402"/>
+      <c r="H518" s="402"/>
+      <c r="I518" s="402"/>
+      <c r="J518" s="402"/>
+      <c r="K518" s="402"/>
+      <c r="L518" s="403"/>
       <c r="M518" s="24"/>
       <c r="N518" s="28"/>
-      <c r="O518" s="388" t="s">
+      <c r="O518" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P518" s="389"/>
-      <c r="Q518" s="389"/>
-      <c r="R518" s="390"/>
+      <c r="P518" s="391"/>
+      <c r="Q518" s="391"/>
+      <c r="R518" s="392"/>
       <c r="S518" s="29"/>
-      <c r="T518" s="388" t="s">
+      <c r="T518" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U518" s="389"/>
-      <c r="V518" s="389"/>
-      <c r="W518" s="389"/>
-      <c r="X518" s="389"/>
-      <c r="Y518" s="390"/>
+      <c r="U518" s="391"/>
+      <c r="V518" s="391"/>
+      <c r="W518" s="391"/>
+      <c r="X518" s="391"/>
+      <c r="Y518" s="392"/>
       <c r="Z518" s="30"/>
       <c r="AA518" s="24"/>
     </row>
     <row r="519" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="272"/>
       <c r="B519" s="270"/>
-      <c r="C519" s="399" t="s">
+      <c r="C519" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D519" s="399"/>
-      <c r="E519" s="399"/>
-      <c r="F519" s="399"/>
+      <c r="D519" s="393"/>
+      <c r="E519" s="393"/>
+      <c r="F519" s="393"/>
       <c r="G519" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H519" s="402">
+      <c r="H519" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I519" s="402"/>
+      <c r="I519" s="400"/>
       <c r="J519" s="270"/>
       <c r="K519" s="274"/>
       <c r="L519" s="275"/>
@@ -33859,10 +33865,10 @@
     </row>
     <row r="524" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="272"/>
-      <c r="B524" s="400" t="s">
+      <c r="B524" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C524" s="401"/>
+      <c r="C524" s="395"/>
       <c r="D524" s="270"/>
       <c r="E524" s="270"/>
       <c r="F524" s="287" t="s">
@@ -33985,10 +33991,10 @@
         <v>0</v>
       </c>
       <c r="H526" s="285"/>
-      <c r="I526" s="391" t="s">
+      <c r="I526" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J526" s="392"/>
+      <c r="J526" s="389"/>
       <c r="K526" s="294">
         <f>K524+K525</f>
         <v>37500</v>
@@ -34042,10 +34048,10 @@
         <v>0</v>
       </c>
       <c r="H527" s="285"/>
-      <c r="I527" s="391" t="s">
+      <c r="I527" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J527" s="392"/>
+      <c r="J527" s="389"/>
       <c r="K527" s="288">
         <f>G527</f>
         <v>0</v>
@@ -34291,57 +34297,57 @@
       <c r="Z532" s="57"/>
     </row>
     <row r="533" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="393" t="s">
+      <c r="A533" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B533" s="394"/>
-      <c r="C533" s="394"/>
-      <c r="D533" s="394"/>
-      <c r="E533" s="394"/>
-      <c r="F533" s="394"/>
-      <c r="G533" s="394"/>
-      <c r="H533" s="394"/>
-      <c r="I533" s="394"/>
-      <c r="J533" s="394"/>
-      <c r="K533" s="394"/>
-      <c r="L533" s="395"/>
+      <c r="B533" s="402"/>
+      <c r="C533" s="402"/>
+      <c r="D533" s="402"/>
+      <c r="E533" s="402"/>
+      <c r="F533" s="402"/>
+      <c r="G533" s="402"/>
+      <c r="H533" s="402"/>
+      <c r="I533" s="402"/>
+      <c r="J533" s="402"/>
+      <c r="K533" s="402"/>
+      <c r="L533" s="403"/>
       <c r="M533" s="24"/>
       <c r="N533" s="28"/>
-      <c r="O533" s="388" t="s">
+      <c r="O533" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P533" s="389"/>
-      <c r="Q533" s="389"/>
-      <c r="R533" s="390"/>
+      <c r="P533" s="391"/>
+      <c r="Q533" s="391"/>
+      <c r="R533" s="392"/>
       <c r="S533" s="29"/>
-      <c r="T533" s="388" t="s">
+      <c r="T533" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U533" s="389"/>
-      <c r="V533" s="389"/>
-      <c r="W533" s="389"/>
-      <c r="X533" s="389"/>
-      <c r="Y533" s="390"/>
+      <c r="U533" s="391"/>
+      <c r="V533" s="391"/>
+      <c r="W533" s="391"/>
+      <c r="X533" s="391"/>
+      <c r="Y533" s="392"/>
       <c r="Z533" s="30"/>
     </row>
     <row r="534" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="272"/>
       <c r="B534" s="270"/>
-      <c r="C534" s="399" t="s">
+      <c r="C534" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D534" s="399"/>
-      <c r="E534" s="399"/>
-      <c r="F534" s="399"/>
+      <c r="D534" s="393"/>
+      <c r="E534" s="393"/>
+      <c r="F534" s="393"/>
       <c r="G534" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H534" s="402">
+      <c r="H534" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I534" s="402"/>
+      <c r="I534" s="400"/>
       <c r="J534" s="270"/>
       <c r="K534" s="274"/>
       <c r="L534" s="275"/>
@@ -34567,10 +34573,10 @@
     </row>
     <row r="539" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="272"/>
-      <c r="B539" s="400" t="s">
+      <c r="B539" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C539" s="401"/>
+      <c r="C539" s="395"/>
       <c r="D539" s="270"/>
       <c r="E539" s="270"/>
       <c r="F539" s="287" t="s">
@@ -34695,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="H541" s="285"/>
-      <c r="I541" s="391" t="s">
+      <c r="I541" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J541" s="392"/>
+      <c r="J541" s="389"/>
       <c r="K541" s="294">
         <f>K539+K540</f>
         <v>34713.362068965514</v>
@@ -34752,10 +34758,10 @@
         <v>0</v>
       </c>
       <c r="H542" s="285"/>
-      <c r="I542" s="391" t="s">
+      <c r="I542" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J542" s="392"/>
+      <c r="J542" s="389"/>
       <c r="K542" s="288">
         <f>G542</f>
         <v>0</v>
@@ -35001,58 +35007,58 @@
       <c r="Z547" s="57"/>
     </row>
     <row r="548" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="393" t="s">
+      <c r="A548" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B548" s="394"/>
-      <c r="C548" s="394"/>
-      <c r="D548" s="394"/>
-      <c r="E548" s="394"/>
-      <c r="F548" s="394"/>
-      <c r="G548" s="394"/>
-      <c r="H548" s="394"/>
-      <c r="I548" s="394"/>
-      <c r="J548" s="394"/>
-      <c r="K548" s="394"/>
-      <c r="L548" s="395"/>
+      <c r="B548" s="402"/>
+      <c r="C548" s="402"/>
+      <c r="D548" s="402"/>
+      <c r="E548" s="402"/>
+      <c r="F548" s="402"/>
+      <c r="G548" s="402"/>
+      <c r="H548" s="402"/>
+      <c r="I548" s="402"/>
+      <c r="J548" s="402"/>
+      <c r="K548" s="402"/>
+      <c r="L548" s="403"/>
       <c r="M548" s="24"/>
       <c r="N548" s="28"/>
-      <c r="O548" s="388" t="s">
+      <c r="O548" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P548" s="389"/>
-      <c r="Q548" s="389"/>
-      <c r="R548" s="390"/>
+      <c r="P548" s="391"/>
+      <c r="Q548" s="391"/>
+      <c r="R548" s="392"/>
       <c r="S548" s="29"/>
-      <c r="T548" s="388" t="s">
+      <c r="T548" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U548" s="389"/>
-      <c r="V548" s="389"/>
-      <c r="W548" s="389"/>
-      <c r="X548" s="389"/>
-      <c r="Y548" s="390"/>
+      <c r="U548" s="391"/>
+      <c r="V548" s="391"/>
+      <c r="W548" s="391"/>
+      <c r="X548" s="391"/>
+      <c r="Y548" s="392"/>
       <c r="Z548" s="30"/>
       <c r="AA548" s="24"/>
     </row>
     <row r="549" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="272"/>
       <c r="B549" s="270"/>
-      <c r="C549" s="399" t="s">
+      <c r="C549" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D549" s="399"/>
-      <c r="E549" s="399"/>
-      <c r="F549" s="399"/>
+      <c r="D549" s="393"/>
+      <c r="E549" s="393"/>
+      <c r="F549" s="393"/>
       <c r="G549" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H549" s="402">
+      <c r="H549" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I549" s="402"/>
+      <c r="I549" s="400"/>
       <c r="J549" s="270"/>
       <c r="K549" s="274"/>
       <c r="L549" s="275"/>
@@ -35286,10 +35292,10 @@
     </row>
     <row r="554" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="272"/>
-      <c r="B554" s="400" t="s">
+      <c r="B554" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C554" s="401"/>
+      <c r="C554" s="395"/>
       <c r="D554" s="270"/>
       <c r="E554" s="270"/>
       <c r="F554" s="287" t="s">
@@ -35414,10 +35420,10 @@
         <v>27000</v>
       </c>
       <c r="H556" s="285"/>
-      <c r="I556" s="391" t="s">
+      <c r="I556" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J556" s="392"/>
+      <c r="J556" s="389"/>
       <c r="K556" s="294">
         <f>K554+K555</f>
         <v>29849.137931034482</v>
@@ -35471,10 +35477,10 @@
         <v>2000</v>
       </c>
       <c r="H557" s="285"/>
-      <c r="I557" s="391" t="s">
+      <c r="I557" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J557" s="392"/>
+      <c r="J557" s="389"/>
       <c r="K557" s="288">
         <f>G557</f>
         <v>2000</v>
@@ -35720,58 +35726,58 @@
       <c r="Z562" s="57"/>
     </row>
     <row r="563" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="393" t="s">
+      <c r="A563" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B563" s="394"/>
-      <c r="C563" s="394"/>
-      <c r="D563" s="394"/>
-      <c r="E563" s="394"/>
-      <c r="F563" s="394"/>
-      <c r="G563" s="394"/>
-      <c r="H563" s="394"/>
-      <c r="I563" s="394"/>
-      <c r="J563" s="394"/>
-      <c r="K563" s="394"/>
-      <c r="L563" s="395"/>
+      <c r="B563" s="402"/>
+      <c r="C563" s="402"/>
+      <c r="D563" s="402"/>
+      <c r="E563" s="402"/>
+      <c r="F563" s="402"/>
+      <c r="G563" s="402"/>
+      <c r="H563" s="402"/>
+      <c r="I563" s="402"/>
+      <c r="J563" s="402"/>
+      <c r="K563" s="402"/>
+      <c r="L563" s="403"/>
       <c r="M563" s="24"/>
       <c r="N563" s="28"/>
-      <c r="O563" s="388" t="s">
+      <c r="O563" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P563" s="389"/>
-      <c r="Q563" s="389"/>
-      <c r="R563" s="390"/>
+      <c r="P563" s="391"/>
+      <c r="Q563" s="391"/>
+      <c r="R563" s="392"/>
       <c r="S563" s="29"/>
-      <c r="T563" s="388" t="s">
+      <c r="T563" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U563" s="389"/>
-      <c r="V563" s="389"/>
-      <c r="W563" s="389"/>
-      <c r="X563" s="389"/>
-      <c r="Y563" s="390"/>
+      <c r="U563" s="391"/>
+      <c r="V563" s="391"/>
+      <c r="W563" s="391"/>
+      <c r="X563" s="391"/>
+      <c r="Y563" s="392"/>
       <c r="Z563" s="30"/>
       <c r="AA563" s="24"/>
     </row>
     <row r="564" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="272"/>
       <c r="B564" s="270"/>
-      <c r="C564" s="399" t="s">
+      <c r="C564" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D564" s="399"/>
-      <c r="E564" s="399"/>
-      <c r="F564" s="399"/>
+      <c r="D564" s="393"/>
+      <c r="E564" s="393"/>
+      <c r="F564" s="393"/>
       <c r="G564" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H564" s="402">
+      <c r="H564" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I564" s="402"/>
+      <c r="I564" s="400"/>
       <c r="J564" s="270"/>
       <c r="K564" s="274"/>
       <c r="L564" s="275"/>
@@ -35993,10 +35999,10 @@
     </row>
     <row r="569" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="272"/>
-      <c r="B569" s="400" t="s">
+      <c r="B569" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C569" s="401"/>
+      <c r="C569" s="395"/>
       <c r="D569" s="270"/>
       <c r="E569" s="270"/>
       <c r="F569" s="287" t="s">
@@ -36117,10 +36123,10 @@
         <v/>
       </c>
       <c r="H571" s="285"/>
-      <c r="I571" s="391" t="s">
+      <c r="I571" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J571" s="392"/>
+      <c r="J571" s="389"/>
       <c r="K571" s="294">
         <f>K569+K570</f>
         <v>39084.051724137928</v>
@@ -36172,10 +36178,10 @@
         <v>0</v>
       </c>
       <c r="H572" s="285"/>
-      <c r="I572" s="391" t="s">
+      <c r="I572" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J572" s="392"/>
+      <c r="J572" s="389"/>
       <c r="K572" s="288">
         <f>G572</f>
         <v>0</v>
@@ -36421,58 +36427,58 @@
       <c r="Z577" s="57"/>
     </row>
     <row r="578" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="393" t="s">
+      <c r="A578" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B578" s="394"/>
-      <c r="C578" s="394"/>
-      <c r="D578" s="394"/>
-      <c r="E578" s="394"/>
-      <c r="F578" s="394"/>
-      <c r="G578" s="394"/>
-      <c r="H578" s="394"/>
-      <c r="I578" s="394"/>
-      <c r="J578" s="394"/>
-      <c r="K578" s="394"/>
-      <c r="L578" s="395"/>
+      <c r="B578" s="402"/>
+      <c r="C578" s="402"/>
+      <c r="D578" s="402"/>
+      <c r="E578" s="402"/>
+      <c r="F578" s="402"/>
+      <c r="G578" s="402"/>
+      <c r="H578" s="402"/>
+      <c r="I578" s="402"/>
+      <c r="J578" s="402"/>
+      <c r="K578" s="402"/>
+      <c r="L578" s="403"/>
       <c r="M578" s="24"/>
       <c r="N578" s="28"/>
-      <c r="O578" s="388" t="s">
+      <c r="O578" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P578" s="389"/>
-      <c r="Q578" s="389"/>
-      <c r="R578" s="390"/>
+      <c r="P578" s="391"/>
+      <c r="Q578" s="391"/>
+      <c r="R578" s="392"/>
       <c r="S578" s="29"/>
-      <c r="T578" s="388" t="s">
+      <c r="T578" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U578" s="389"/>
-      <c r="V578" s="389"/>
-      <c r="W578" s="389"/>
-      <c r="X578" s="389"/>
-      <c r="Y578" s="390"/>
+      <c r="U578" s="391"/>
+      <c r="V578" s="391"/>
+      <c r="W578" s="391"/>
+      <c r="X578" s="391"/>
+      <c r="Y578" s="392"/>
       <c r="Z578" s="30"/>
       <c r="AA578" s="24"/>
     </row>
     <row r="579" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="272"/>
       <c r="B579" s="270"/>
-      <c r="C579" s="399" t="s">
+      <c r="C579" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D579" s="399"/>
-      <c r="E579" s="399"/>
-      <c r="F579" s="399"/>
+      <c r="D579" s="393"/>
+      <c r="E579" s="393"/>
+      <c r="F579" s="393"/>
       <c r="G579" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H579" s="402">
+      <c r="H579" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I579" s="402"/>
+      <c r="I579" s="400"/>
       <c r="J579" s="270"/>
       <c r="K579" s="274"/>
       <c r="L579" s="275"/>
@@ -36706,10 +36712,10 @@
     </row>
     <row r="584" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="272"/>
-      <c r="B584" s="400" t="s">
+      <c r="B584" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C584" s="401"/>
+      <c r="C584" s="395"/>
       <c r="D584" s="270"/>
       <c r="E584" s="270"/>
       <c r="F584" s="287" t="s">
@@ -36830,10 +36836,10 @@
         <v>0</v>
       </c>
       <c r="H586" s="285"/>
-      <c r="I586" s="391" t="s">
+      <c r="I586" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J586" s="392"/>
+      <c r="J586" s="389"/>
       <c r="K586" s="294">
         <f>K584+K585</f>
         <v>51745.689655172413</v>
@@ -36885,10 +36891,10 @@
         <v>0</v>
       </c>
       <c r="H587" s="285"/>
-      <c r="I587" s="391" t="s">
+      <c r="I587" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J587" s="392"/>
+      <c r="J587" s="389"/>
       <c r="K587" s="288">
         <f>G587</f>
         <v>0</v>
@@ -37124,58 +37130,58 @@
       <c r="Z592" s="57"/>
     </row>
     <row r="593" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="410" t="s">
+      <c r="A593" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B593" s="411"/>
-      <c r="C593" s="411"/>
-      <c r="D593" s="411"/>
-      <c r="E593" s="411"/>
-      <c r="F593" s="411"/>
-      <c r="G593" s="411"/>
-      <c r="H593" s="411"/>
-      <c r="I593" s="411"/>
-      <c r="J593" s="411"/>
-      <c r="K593" s="411"/>
-      <c r="L593" s="412"/>
+      <c r="B593" s="409"/>
+      <c r="C593" s="409"/>
+      <c r="D593" s="409"/>
+      <c r="E593" s="409"/>
+      <c r="F593" s="409"/>
+      <c r="G593" s="409"/>
+      <c r="H593" s="409"/>
+      <c r="I593" s="409"/>
+      <c r="J593" s="409"/>
+      <c r="K593" s="409"/>
+      <c r="L593" s="410"/>
       <c r="M593" s="24"/>
       <c r="N593" s="28"/>
-      <c r="O593" s="388" t="s">
+      <c r="O593" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P593" s="389"/>
-      <c r="Q593" s="389"/>
-      <c r="R593" s="390"/>
+      <c r="P593" s="391"/>
+      <c r="Q593" s="391"/>
+      <c r="R593" s="392"/>
       <c r="S593" s="29"/>
-      <c r="T593" s="388" t="s">
+      <c r="T593" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U593" s="389"/>
-      <c r="V593" s="389"/>
-      <c r="W593" s="389"/>
-      <c r="X593" s="389"/>
-      <c r="Y593" s="390"/>
+      <c r="U593" s="391"/>
+      <c r="V593" s="391"/>
+      <c r="W593" s="391"/>
+      <c r="X593" s="391"/>
+      <c r="Y593" s="392"/>
       <c r="Z593" s="30"/>
       <c r="AA593" s="24"/>
     </row>
     <row r="594" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="272"/>
       <c r="B594" s="270"/>
-      <c r="C594" s="399" t="s">
+      <c r="C594" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D594" s="399"/>
-      <c r="E594" s="399"/>
-      <c r="F594" s="399"/>
+      <c r="D594" s="393"/>
+      <c r="E594" s="393"/>
+      <c r="F594" s="393"/>
       <c r="G594" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H594" s="402">
+      <c r="H594" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I594" s="402"/>
+      <c r="I594" s="400"/>
       <c r="J594" s="270"/>
       <c r="K594" s="274"/>
       <c r="L594" s="275"/>
@@ -37326,16 +37332,16 @@
       <c r="C597" s="309"/>
       <c r="D597" s="270"/>
       <c r="E597" s="270"/>
-      <c r="F597" s="406" t="s">
+      <c r="F597" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G597" s="406"/>
+      <c r="G597" s="399"/>
       <c r="H597" s="270"/>
-      <c r="I597" s="406" t="s">
+      <c r="I597" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J597" s="406"/>
-      <c r="K597" s="406"/>
+      <c r="J597" s="399"/>
+      <c r="K597" s="399"/>
       <c r="L597" s="284"/>
       <c r="N597" s="35"/>
       <c r="O597" s="36" t="s">
@@ -37410,10 +37416,10 @@
     </row>
     <row r="599" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="272"/>
-      <c r="B599" s="400" t="s">
+      <c r="B599" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C599" s="401"/>
+      <c r="C599" s="395"/>
       <c r="D599" s="270"/>
       <c r="E599" s="270"/>
       <c r="F599" s="287" t="s">
@@ -37538,10 +37544,10 @@
         <v>4000</v>
       </c>
       <c r="H601" s="285"/>
-      <c r="I601" s="391" t="s">
+      <c r="I601" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J601" s="392"/>
+      <c r="J601" s="389"/>
       <c r="K601" s="294">
         <f>K599+K600</f>
         <v>50862.068965517239</v>
@@ -37595,10 +37601,10 @@
         <v>2000</v>
       </c>
       <c r="H602" s="285"/>
-      <c r="I602" s="391" t="s">
+      <c r="I602" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J602" s="392"/>
+      <c r="J602" s="389"/>
       <c r="K602" s="288">
         <f>G602</f>
         <v>2000</v>
@@ -37873,58 +37879,58 @@
       <c r="Z608" s="267"/>
     </row>
     <row r="609" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="393" t="s">
+      <c r="A609" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B609" s="394"/>
-      <c r="C609" s="394"/>
-      <c r="D609" s="394"/>
-      <c r="E609" s="394"/>
-      <c r="F609" s="394"/>
-      <c r="G609" s="394"/>
-      <c r="H609" s="394"/>
-      <c r="I609" s="394"/>
-      <c r="J609" s="394"/>
-      <c r="K609" s="394"/>
-      <c r="L609" s="395"/>
+      <c r="B609" s="402"/>
+      <c r="C609" s="402"/>
+      <c r="D609" s="402"/>
+      <c r="E609" s="402"/>
+      <c r="F609" s="402"/>
+      <c r="G609" s="402"/>
+      <c r="H609" s="402"/>
+      <c r="I609" s="402"/>
+      <c r="J609" s="402"/>
+      <c r="K609" s="402"/>
+      <c r="L609" s="403"/>
       <c r="M609" s="24"/>
       <c r="N609" s="28"/>
-      <c r="O609" s="388" t="s">
+      <c r="O609" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P609" s="389"/>
-      <c r="Q609" s="389"/>
-      <c r="R609" s="390"/>
+      <c r="P609" s="391"/>
+      <c r="Q609" s="391"/>
+      <c r="R609" s="392"/>
       <c r="S609" s="29"/>
-      <c r="T609" s="388" t="s">
+      <c r="T609" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U609" s="389"/>
-      <c r="V609" s="389"/>
-      <c r="W609" s="389"/>
-      <c r="X609" s="389"/>
-      <c r="Y609" s="390"/>
+      <c r="U609" s="391"/>
+      <c r="V609" s="391"/>
+      <c r="W609" s="391"/>
+      <c r="X609" s="391"/>
+      <c r="Y609" s="392"/>
       <c r="Z609" s="30"/>
       <c r="AA609" s="24"/>
     </row>
     <row r="610" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="272"/>
       <c r="B610" s="270"/>
-      <c r="C610" s="399" t="s">
+      <c r="C610" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D610" s="399"/>
-      <c r="E610" s="399"/>
-      <c r="F610" s="399"/>
+      <c r="D610" s="393"/>
+      <c r="E610" s="393"/>
+      <c r="F610" s="393"/>
       <c r="G610" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H610" s="402">
+      <c r="H610" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I610" s="402"/>
+      <c r="I610" s="400"/>
       <c r="J610" s="270"/>
       <c r="K610" s="274"/>
       <c r="L610" s="275"/>
@@ -38150,10 +38156,10 @@
     </row>
     <row r="615" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="272"/>
-      <c r="B615" s="400" t="s">
+      <c r="B615" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C615" s="401"/>
+      <c r="C615" s="395"/>
       <c r="D615" s="270"/>
       <c r="E615" s="270"/>
       <c r="F615" s="287" t="s">
@@ -38280,10 +38286,10 @@
         <v>0</v>
       </c>
       <c r="H617" s="285"/>
-      <c r="I617" s="391" t="s">
+      <c r="I617" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J617" s="392"/>
+      <c r="J617" s="389"/>
       <c r="K617" s="294">
         <f>K615+K616</f>
         <v>34758.620689655174</v>
@@ -38337,10 +38343,10 @@
         <v>0</v>
       </c>
       <c r="H618" s="285"/>
-      <c r="I618" s="391" t="s">
+      <c r="I618" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J618" s="392"/>
+      <c r="J618" s="389"/>
       <c r="K618" s="288">
         <f>G618</f>
         <v>0</v>
@@ -38586,58 +38592,58 @@
       <c r="Z623" s="57"/>
     </row>
     <row r="624" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="393" t="s">
+      <c r="A624" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B624" s="394"/>
-      <c r="C624" s="394"/>
-      <c r="D624" s="394"/>
-      <c r="E624" s="394"/>
-      <c r="F624" s="394"/>
-      <c r="G624" s="394"/>
-      <c r="H624" s="394"/>
-      <c r="I624" s="394"/>
-      <c r="J624" s="394"/>
-      <c r="K624" s="394"/>
-      <c r="L624" s="395"/>
+      <c r="B624" s="402"/>
+      <c r="C624" s="402"/>
+      <c r="D624" s="402"/>
+      <c r="E624" s="402"/>
+      <c r="F624" s="402"/>
+      <c r="G624" s="402"/>
+      <c r="H624" s="402"/>
+      <c r="I624" s="402"/>
+      <c r="J624" s="402"/>
+      <c r="K624" s="402"/>
+      <c r="L624" s="403"/>
       <c r="M624" s="24"/>
       <c r="N624" s="28"/>
-      <c r="O624" s="388" t="s">
+      <c r="O624" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P624" s="389"/>
-      <c r="Q624" s="389"/>
-      <c r="R624" s="390"/>
+      <c r="P624" s="391"/>
+      <c r="Q624" s="391"/>
+      <c r="R624" s="392"/>
       <c r="S624" s="29"/>
-      <c r="T624" s="388" t="s">
+      <c r="T624" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U624" s="389"/>
-      <c r="V624" s="389"/>
-      <c r="W624" s="389"/>
-      <c r="X624" s="389"/>
-      <c r="Y624" s="390"/>
+      <c r="U624" s="391"/>
+      <c r="V624" s="391"/>
+      <c r="W624" s="391"/>
+      <c r="X624" s="391"/>
+      <c r="Y624" s="392"/>
       <c r="Z624" s="30"/>
       <c r="AA624" s="24"/>
     </row>
     <row r="625" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="272"/>
       <c r="B625" s="270"/>
-      <c r="C625" s="399" t="s">
+      <c r="C625" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D625" s="399"/>
-      <c r="E625" s="399"/>
-      <c r="F625" s="399"/>
+      <c r="D625" s="393"/>
+      <c r="E625" s="393"/>
+      <c r="F625" s="393"/>
       <c r="G625" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H625" s="402">
+      <c r="H625" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I625" s="402"/>
+      <c r="I625" s="400"/>
       <c r="J625" s="270"/>
       <c r="K625" s="274"/>
       <c r="L625" s="275"/>
@@ -38869,10 +38875,10 @@
     </row>
     <row r="630" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="272"/>
-      <c r="B630" s="400" t="s">
+      <c r="B630" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C630" s="401"/>
+      <c r="C630" s="395"/>
       <c r="D630" s="270"/>
       <c r="E630" s="270"/>
       <c r="F630" s="287" t="s">
@@ -38997,10 +39003,10 @@
         <v>500</v>
       </c>
       <c r="H632" s="285"/>
-      <c r="I632" s="391" t="s">
+      <c r="I632" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J632" s="392"/>
+      <c r="J632" s="389"/>
       <c r="K632" s="294">
         <f>K630+K631</f>
         <v>39051.724137931044</v>
@@ -39054,10 +39060,10 @@
         <v>500</v>
       </c>
       <c r="H633" s="285"/>
-      <c r="I633" s="391" t="s">
+      <c r="I633" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J633" s="392"/>
+      <c r="J633" s="389"/>
       <c r="K633" s="288">
         <f>G633</f>
         <v>500</v>
@@ -39302,57 +39308,57 @@
       <c r="Z638" s="57"/>
     </row>
     <row r="639" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="410" t="s">
+      <c r="A639" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B639" s="411"/>
-      <c r="C639" s="411"/>
-      <c r="D639" s="411"/>
-      <c r="E639" s="411"/>
-      <c r="F639" s="411"/>
-      <c r="G639" s="411"/>
-      <c r="H639" s="411"/>
-      <c r="I639" s="411"/>
-      <c r="J639" s="411"/>
-      <c r="K639" s="411"/>
-      <c r="L639" s="412"/>
+      <c r="B639" s="409"/>
+      <c r="C639" s="409"/>
+      <c r="D639" s="409"/>
+      <c r="E639" s="409"/>
+      <c r="F639" s="409"/>
+      <c r="G639" s="409"/>
+      <c r="H639" s="409"/>
+      <c r="I639" s="409"/>
+      <c r="J639" s="409"/>
+      <c r="K639" s="409"/>
+      <c r="L639" s="410"/>
       <c r="M639" s="24"/>
       <c r="N639" s="28"/>
-      <c r="O639" s="388" t="s">
+      <c r="O639" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P639" s="389"/>
-      <c r="Q639" s="389"/>
-      <c r="R639" s="390"/>
+      <c r="P639" s="391"/>
+      <c r="Q639" s="391"/>
+      <c r="R639" s="392"/>
       <c r="S639" s="29"/>
-      <c r="T639" s="388" t="s">
+      <c r="T639" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U639" s="389"/>
-      <c r="V639" s="389"/>
-      <c r="W639" s="389"/>
-      <c r="X639" s="389"/>
-      <c r="Y639" s="390"/>
+      <c r="U639" s="391"/>
+      <c r="V639" s="391"/>
+      <c r="W639" s="391"/>
+      <c r="X639" s="391"/>
+      <c r="Y639" s="392"/>
       <c r="Z639" s="27"/>
     </row>
     <row r="640" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="272"/>
       <c r="B640" s="270"/>
-      <c r="C640" s="399" t="s">
+      <c r="C640" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D640" s="399"/>
-      <c r="E640" s="399"/>
-      <c r="F640" s="399"/>
+      <c r="D640" s="393"/>
+      <c r="E640" s="393"/>
+      <c r="F640" s="393"/>
       <c r="G640" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H640" s="402">
+      <c r="H640" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I640" s="402"/>
+      <c r="I640" s="400"/>
       <c r="J640" s="270"/>
       <c r="K640" s="274"/>
       <c r="L640" s="275"/>
@@ -39500,16 +39506,16 @@
       </c>
       <c r="D643" s="270"/>
       <c r="E643" s="270"/>
-      <c r="F643" s="406" t="s">
+      <c r="F643" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G643" s="406"/>
+      <c r="G643" s="399"/>
       <c r="H643" s="270"/>
-      <c r="I643" s="406" t="s">
+      <c r="I643" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J643" s="406"/>
-      <c r="K643" s="406"/>
+      <c r="J643" s="399"/>
+      <c r="K643" s="399"/>
       <c r="L643" s="284"/>
       <c r="N643" s="35"/>
       <c r="O643" s="36" t="s">
@@ -39584,10 +39590,10 @@
     </row>
     <row r="645" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="272"/>
-      <c r="B645" s="400" t="s">
+      <c r="B645" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C645" s="401"/>
+      <c r="C645" s="395"/>
       <c r="D645" s="270"/>
       <c r="E645" s="270"/>
       <c r="F645" s="287" t="s">
@@ -39712,10 +39718,10 @@
         <v>0</v>
       </c>
       <c r="H647" s="285"/>
-      <c r="I647" s="391" t="s">
+      <c r="I647" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J647" s="392"/>
+      <c r="J647" s="389"/>
       <c r="K647" s="294">
         <f>K645+K646</f>
         <v>54698.275862068964</v>
@@ -39769,10 +39775,10 @@
         <v>0</v>
       </c>
       <c r="H648" s="285"/>
-      <c r="I648" s="391" t="s">
+      <c r="I648" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J648" s="392"/>
+      <c r="J648" s="389"/>
       <c r="K648" s="288">
         <f>G648</f>
         <v>0</v>
@@ -40023,57 +40029,57 @@
       <c r="Z654" s="27"/>
     </row>
     <row r="655" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="410" t="s">
+      <c r="A655" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B655" s="411"/>
-      <c r="C655" s="411"/>
-      <c r="D655" s="411"/>
-      <c r="E655" s="411"/>
-      <c r="F655" s="411"/>
-      <c r="G655" s="411"/>
-      <c r="H655" s="411"/>
-      <c r="I655" s="411"/>
-      <c r="J655" s="411"/>
-      <c r="K655" s="411"/>
-      <c r="L655" s="412"/>
+      <c r="B655" s="409"/>
+      <c r="C655" s="409"/>
+      <c r="D655" s="409"/>
+      <c r="E655" s="409"/>
+      <c r="F655" s="409"/>
+      <c r="G655" s="409"/>
+      <c r="H655" s="409"/>
+      <c r="I655" s="409"/>
+      <c r="J655" s="409"/>
+      <c r="K655" s="409"/>
+      <c r="L655" s="410"/>
       <c r="M655" s="24"/>
       <c r="N655" s="28"/>
-      <c r="O655" s="388" t="s">
+      <c r="O655" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P655" s="389"/>
-      <c r="Q655" s="389"/>
-      <c r="R655" s="390"/>
+      <c r="P655" s="391"/>
+      <c r="Q655" s="391"/>
+      <c r="R655" s="392"/>
       <c r="S655" s="29"/>
-      <c r="T655" s="388" t="s">
+      <c r="T655" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U655" s="389"/>
-      <c r="V655" s="389"/>
-      <c r="W655" s="389"/>
-      <c r="X655" s="389"/>
-      <c r="Y655" s="390"/>
+      <c r="U655" s="391"/>
+      <c r="V655" s="391"/>
+      <c r="W655" s="391"/>
+      <c r="X655" s="391"/>
+      <c r="Y655" s="392"/>
       <c r="Z655" s="30"/>
     </row>
     <row r="656" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="272"/>
       <c r="B656" s="270"/>
-      <c r="C656" s="399" t="s">
+      <c r="C656" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D656" s="399"/>
-      <c r="E656" s="399"/>
-      <c r="F656" s="399"/>
+      <c r="D656" s="393"/>
+      <c r="E656" s="393"/>
+      <c r="F656" s="393"/>
       <c r="G656" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H656" s="402">
+      <c r="H656" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I656" s="402"/>
+      <c r="I656" s="400"/>
       <c r="J656" s="270"/>
       <c r="K656" s="274"/>
       <c r="L656" s="275"/>
@@ -40226,16 +40232,16 @@
       <c r="C659" s="303"/>
       <c r="D659" s="270"/>
       <c r="E659" s="270"/>
-      <c r="F659" s="406" t="s">
+      <c r="F659" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G659" s="406"/>
+      <c r="G659" s="399"/>
       <c r="H659" s="270"/>
-      <c r="I659" s="406" t="s">
+      <c r="I659" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J659" s="406"/>
-      <c r="K659" s="406"/>
+      <c r="J659" s="399"/>
+      <c r="K659" s="399"/>
       <c r="L659" s="284"/>
       <c r="N659" s="35"/>
       <c r="O659" s="36" t="s">
@@ -40303,10 +40309,10 @@
     </row>
     <row r="661" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="272"/>
-      <c r="B661" s="400" t="s">
+      <c r="B661" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C661" s="401"/>
+      <c r="C661" s="395"/>
       <c r="D661" s="270"/>
       <c r="E661" s="270"/>
       <c r="F661" s="287" t="s">
@@ -40427,10 +40433,10 @@
         <v>16500</v>
       </c>
       <c r="H663" s="285"/>
-      <c r="I663" s="391" t="s">
+      <c r="I663" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J663" s="392"/>
+      <c r="J663" s="389"/>
       <c r="K663" s="294">
         <f>K661+K662</f>
         <v>60129.31034482758</v>
@@ -40485,10 +40491,10 @@
         <v>10000</v>
       </c>
       <c r="H664" s="285"/>
-      <c r="I664" s="391" t="s">
+      <c r="I664" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J664" s="392"/>
+      <c r="J664" s="389"/>
       <c r="K664" s="288">
         <f>G664</f>
         <v>10000</v>
@@ -40763,57 +40769,57 @@
       <c r="Z670" s="267"/>
     </row>
     <row r="671" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="410" t="s">
+      <c r="A671" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B671" s="411"/>
-      <c r="C671" s="411"/>
-      <c r="D671" s="411"/>
-      <c r="E671" s="411"/>
-      <c r="F671" s="411"/>
-      <c r="G671" s="411"/>
-      <c r="H671" s="411"/>
-      <c r="I671" s="411"/>
-      <c r="J671" s="411"/>
-      <c r="K671" s="411"/>
-      <c r="L671" s="412"/>
+      <c r="B671" s="409"/>
+      <c r="C671" s="409"/>
+      <c r="D671" s="409"/>
+      <c r="E671" s="409"/>
+      <c r="F671" s="409"/>
+      <c r="G671" s="409"/>
+      <c r="H671" s="409"/>
+      <c r="I671" s="409"/>
+      <c r="J671" s="409"/>
+      <c r="K671" s="409"/>
+      <c r="L671" s="410"/>
       <c r="M671" s="24"/>
       <c r="N671" s="28"/>
-      <c r="O671" s="388" t="s">
+      <c r="O671" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P671" s="389"/>
-      <c r="Q671" s="389"/>
-      <c r="R671" s="390"/>
+      <c r="P671" s="391"/>
+      <c r="Q671" s="391"/>
+      <c r="R671" s="392"/>
       <c r="S671" s="29"/>
-      <c r="T671" s="388" t="s">
+      <c r="T671" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U671" s="389"/>
-      <c r="V671" s="389"/>
-      <c r="W671" s="389"/>
-      <c r="X671" s="389"/>
-      <c r="Y671" s="390"/>
+      <c r="U671" s="391"/>
+      <c r="V671" s="391"/>
+      <c r="W671" s="391"/>
+      <c r="X671" s="391"/>
+      <c r="Y671" s="392"/>
       <c r="Z671" s="30"/>
     </row>
     <row r="672" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="272"/>
       <c r="B672" s="270"/>
-      <c r="C672" s="399" t="s">
+      <c r="C672" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D672" s="399"/>
-      <c r="E672" s="399"/>
-      <c r="F672" s="399"/>
+      <c r="D672" s="393"/>
+      <c r="E672" s="393"/>
+      <c r="F672" s="393"/>
       <c r="G672" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H672" s="402">
+      <c r="H672" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I672" s="402"/>
+      <c r="I672" s="400"/>
       <c r="J672" s="270"/>
       <c r="K672" s="274"/>
       <c r="L672" s="275"/>
@@ -40939,16 +40945,16 @@
       <c r="C675" s="269"/>
       <c r="D675" s="270"/>
       <c r="E675" s="270"/>
-      <c r="F675" s="406" t="s">
+      <c r="F675" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G675" s="406"/>
+      <c r="G675" s="399"/>
       <c r="H675" s="270"/>
-      <c r="I675" s="406" t="s">
+      <c r="I675" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J675" s="406"/>
-      <c r="K675" s="406"/>
+      <c r="J675" s="399"/>
+      <c r="K675" s="399"/>
       <c r="L675" s="284"/>
       <c r="N675" s="35"/>
       <c r="O675" s="36" t="s">
@@ -41003,10 +41009,10 @@
     </row>
     <row r="677" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="272"/>
-      <c r="B677" s="400" t="s">
+      <c r="B677" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C677" s="401"/>
+      <c r="C677" s="395"/>
       <c r="D677" s="270"/>
       <c r="E677" s="270"/>
       <c r="F677" s="287" t="s">
@@ -41113,10 +41119,10 @@
         <v>0</v>
       </c>
       <c r="H679" s="285"/>
-      <c r="I679" s="391" t="s">
+      <c r="I679" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J679" s="392"/>
+      <c r="J679" s="389"/>
       <c r="K679" s="294">
         <f>K677+K678</f>
         <v>28163.793103448275</v>
@@ -41161,10 +41167,10 @@
         <v>0</v>
       </c>
       <c r="H680" s="285"/>
-      <c r="I680" s="391" t="s">
+      <c r="I680" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J680" s="392"/>
+      <c r="J680" s="389"/>
       <c r="K680" s="288">
         <f>G680</f>
         <v>0</v>
@@ -41412,58 +41418,58 @@
       <c r="Z686" s="267"/>
     </row>
     <row r="687" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="393" t="s">
+      <c r="A687" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B687" s="394"/>
-      <c r="C687" s="394"/>
-      <c r="D687" s="394"/>
-      <c r="E687" s="394"/>
-      <c r="F687" s="394"/>
-      <c r="G687" s="394"/>
-      <c r="H687" s="394"/>
-      <c r="I687" s="394"/>
-      <c r="J687" s="394"/>
-      <c r="K687" s="394"/>
-      <c r="L687" s="395"/>
+      <c r="B687" s="402"/>
+      <c r="C687" s="402"/>
+      <c r="D687" s="402"/>
+      <c r="E687" s="402"/>
+      <c r="F687" s="402"/>
+      <c r="G687" s="402"/>
+      <c r="H687" s="402"/>
+      <c r="I687" s="402"/>
+      <c r="J687" s="402"/>
+      <c r="K687" s="402"/>
+      <c r="L687" s="403"/>
       <c r="M687" s="24"/>
       <c r="N687" s="28"/>
-      <c r="O687" s="388" t="s">
+      <c r="O687" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P687" s="389"/>
-      <c r="Q687" s="389"/>
-      <c r="R687" s="390"/>
+      <c r="P687" s="391"/>
+      <c r="Q687" s="391"/>
+      <c r="R687" s="392"/>
       <c r="S687" s="29"/>
-      <c r="T687" s="388" t="s">
+      <c r="T687" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U687" s="389"/>
-      <c r="V687" s="389"/>
-      <c r="W687" s="389"/>
-      <c r="X687" s="389"/>
-      <c r="Y687" s="390"/>
+      <c r="U687" s="391"/>
+      <c r="V687" s="391"/>
+      <c r="W687" s="391"/>
+      <c r="X687" s="391"/>
+      <c r="Y687" s="392"/>
       <c r="Z687" s="30"/>
       <c r="AA687" s="24"/>
     </row>
     <row r="688" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="272"/>
       <c r="B688" s="270"/>
-      <c r="C688" s="399" t="s">
+      <c r="C688" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D688" s="399"/>
-      <c r="E688" s="399"/>
-      <c r="F688" s="399"/>
+      <c r="D688" s="393"/>
+      <c r="E688" s="393"/>
+      <c r="F688" s="393"/>
       <c r="G688" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H688" s="402">
+      <c r="H688" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I688" s="402"/>
+      <c r="I688" s="400"/>
       <c r="J688" s="270"/>
       <c r="K688" s="274"/>
       <c r="L688" s="275"/>
@@ -41608,11 +41614,11 @@
       <c r="B691" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="C691" s="408">
+      <c r="C691" s="424">
         <v>45208</v>
       </c>
-      <c r="D691" s="408"/>
-      <c r="E691" s="409"/>
+      <c r="D691" s="424"/>
+      <c r="E691" s="425"/>
       <c r="F691" s="396" t="s">
         <v>41</v>
       </c>
@@ -41699,10 +41705,10 @@
     </row>
     <row r="693" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="272"/>
-      <c r="B693" s="400" t="s">
+      <c r="B693" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C693" s="401"/>
+      <c r="C693" s="395"/>
       <c r="D693" s="270"/>
       <c r="E693" s="270"/>
       <c r="F693" s="287" t="s">
@@ -41827,10 +41833,10 @@
         <v>0</v>
       </c>
       <c r="H695" s="285"/>
-      <c r="I695" s="391" t="s">
+      <c r="I695" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J695" s="392"/>
+      <c r="J695" s="389"/>
       <c r="K695" s="294">
         <f>K693+K694</f>
         <v>170000</v>
@@ -41884,10 +41890,10 @@
         <v>0</v>
       </c>
       <c r="H696" s="285"/>
-      <c r="I696" s="391" t="s">
+      <c r="I696" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J696" s="392"/>
+      <c r="J696" s="389"/>
       <c r="K696" s="288">
         <f>G696</f>
         <v>0</v>
@@ -42127,57 +42133,57 @@
       <c r="Z701" s="27"/>
     </row>
     <row r="702" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="393" t="s">
+      <c r="A702" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B702" s="394"/>
-      <c r="C702" s="394"/>
-      <c r="D702" s="394"/>
-      <c r="E702" s="394"/>
-      <c r="F702" s="394"/>
-      <c r="G702" s="394"/>
-      <c r="H702" s="394"/>
-      <c r="I702" s="394"/>
-      <c r="J702" s="394"/>
-      <c r="K702" s="394"/>
-      <c r="L702" s="395"/>
+      <c r="B702" s="402"/>
+      <c r="C702" s="402"/>
+      <c r="D702" s="402"/>
+      <c r="E702" s="402"/>
+      <c r="F702" s="402"/>
+      <c r="G702" s="402"/>
+      <c r="H702" s="402"/>
+      <c r="I702" s="402"/>
+      <c r="J702" s="402"/>
+      <c r="K702" s="402"/>
+      <c r="L702" s="403"/>
       <c r="M702" s="24"/>
       <c r="N702" s="28"/>
-      <c r="O702" s="388" t="s">
+      <c r="O702" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P702" s="389"/>
-      <c r="Q702" s="389"/>
-      <c r="R702" s="390"/>
+      <c r="P702" s="391"/>
+      <c r="Q702" s="391"/>
+      <c r="R702" s="392"/>
       <c r="S702" s="29"/>
-      <c r="T702" s="388" t="s">
+      <c r="T702" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U702" s="389"/>
-      <c r="V702" s="389"/>
-      <c r="W702" s="389"/>
-      <c r="X702" s="389"/>
-      <c r="Y702" s="390"/>
+      <c r="U702" s="391"/>
+      <c r="V702" s="391"/>
+      <c r="W702" s="391"/>
+      <c r="X702" s="391"/>
+      <c r="Y702" s="392"/>
       <c r="Z702" s="27"/>
     </row>
     <row r="703" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="272"/>
       <c r="B703" s="270"/>
-      <c r="C703" s="399" t="s">
+      <c r="C703" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D703" s="399"/>
-      <c r="E703" s="399"/>
-      <c r="F703" s="399"/>
+      <c r="D703" s="393"/>
+      <c r="E703" s="393"/>
+      <c r="F703" s="393"/>
       <c r="G703" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H703" s="402">
+      <c r="H703" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I703" s="402"/>
+      <c r="I703" s="400"/>
       <c r="J703" s="270"/>
       <c r="K703" s="274"/>
       <c r="L703" s="275"/>
@@ -42405,10 +42411,10 @@
     </row>
     <row r="708" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="272"/>
-      <c r="B708" s="400" t="s">
+      <c r="B708" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C708" s="401"/>
+      <c r="C708" s="395"/>
       <c r="D708" s="270"/>
       <c r="E708" s="270"/>
       <c r="F708" s="287" t="s">
@@ -42533,10 +42539,10 @@
         <v>0</v>
       </c>
       <c r="H710" s="285"/>
-      <c r="I710" s="391" t="s">
+      <c r="I710" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J710" s="392"/>
+      <c r="J710" s="389"/>
       <c r="K710" s="294">
         <f>K708+K709</f>
         <v>57931.034482758623</v>
@@ -42591,10 +42597,10 @@
         <v>0</v>
       </c>
       <c r="H711" s="285"/>
-      <c r="I711" s="391" t="s">
+      <c r="I711" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J711" s="392"/>
+      <c r="J711" s="389"/>
       <c r="K711" s="288">
         <f>G711</f>
         <v>0</v>
@@ -42733,11 +42739,13 @@
       <c r="C714" s="268"/>
       <c r="D714" s="268"/>
       <c r="E714" s="268"/>
-      <c r="F714" s="268"/>
-      <c r="G714" s="268"/>
-      <c r="H714" s="268"/>
-      <c r="I714" s="268"/>
-      <c r="J714" s="268"/>
+      <c r="F714" s="448" t="s">
+        <v>235</v>
+      </c>
+      <c r="G714" s="448"/>
+      <c r="H714" s="448"/>
+      <c r="I714" s="448"/>
+      <c r="J714" s="448"/>
       <c r="K714" s="268"/>
       <c r="L714" s="284"/>
       <c r="N714" s="35"/>
@@ -42839,58 +42847,58 @@
       <c r="Z716" s="27"/>
     </row>
     <row r="717" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="413" t="s">
+      <c r="A717" s="412" t="s">
         <v>38</v>
       </c>
-      <c r="B717" s="414"/>
-      <c r="C717" s="414"/>
-      <c r="D717" s="414"/>
-      <c r="E717" s="414"/>
-      <c r="F717" s="414"/>
-      <c r="G717" s="414"/>
-      <c r="H717" s="414"/>
-      <c r="I717" s="414"/>
-      <c r="J717" s="414"/>
-      <c r="K717" s="414"/>
-      <c r="L717" s="415"/>
+      <c r="B717" s="413"/>
+      <c r="C717" s="413"/>
+      <c r="D717" s="413"/>
+      <c r="E717" s="413"/>
+      <c r="F717" s="413"/>
+      <c r="G717" s="413"/>
+      <c r="H717" s="413"/>
+      <c r="I717" s="413"/>
+      <c r="J717" s="413"/>
+      <c r="K717" s="413"/>
+      <c r="L717" s="414"/>
       <c r="M717" s="24"/>
       <c r="N717" s="28"/>
-      <c r="O717" s="388" t="s">
+      <c r="O717" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P717" s="389"/>
-      <c r="Q717" s="389"/>
-      <c r="R717" s="390"/>
+      <c r="P717" s="391"/>
+      <c r="Q717" s="391"/>
+      <c r="R717" s="392"/>
       <c r="S717" s="29"/>
-      <c r="T717" s="388" t="s">
+      <c r="T717" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U717" s="389"/>
-      <c r="V717" s="389"/>
-      <c r="W717" s="389"/>
-      <c r="X717" s="389"/>
-      <c r="Y717" s="390"/>
+      <c r="U717" s="391"/>
+      <c r="V717" s="391"/>
+      <c r="W717" s="391"/>
+      <c r="X717" s="391"/>
+      <c r="Y717" s="392"/>
       <c r="Z717" s="30"/>
       <c r="AA717" s="24"/>
     </row>
     <row r="718" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="272"/>
       <c r="B718" s="270"/>
-      <c r="C718" s="399" t="s">
+      <c r="C718" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D718" s="399"/>
-      <c r="E718" s="399"/>
-      <c r="F718" s="399"/>
+      <c r="D718" s="393"/>
+      <c r="E718" s="393"/>
+      <c r="F718" s="393"/>
       <c r="G718" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H718" s="402">
+      <c r="H718" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I718" s="402"/>
+      <c r="I718" s="400"/>
       <c r="J718" s="270"/>
       <c r="K718" s="274"/>
       <c r="L718" s="275"/>
@@ -43036,16 +43044,16 @@
       <c r="C721" s="283"/>
       <c r="D721" s="270"/>
       <c r="E721" s="270"/>
-      <c r="F721" s="406" t="s">
+      <c r="F721" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G721" s="406"/>
+      <c r="G721" s="399"/>
       <c r="H721" s="270"/>
-      <c r="I721" s="406" t="s">
+      <c r="I721" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J721" s="406"/>
-      <c r="K721" s="406"/>
+      <c r="J721" s="399"/>
+      <c r="K721" s="399"/>
       <c r="L721" s="284"/>
       <c r="N721" s="35"/>
       <c r="O721" s="36" t="s">
@@ -43118,10 +43126,10 @@
     </row>
     <row r="723" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="272"/>
-      <c r="B723" s="400" t="s">
+      <c r="B723" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C723" s="401"/>
+      <c r="C723" s="395"/>
       <c r="D723" s="270"/>
       <c r="E723" s="270"/>
       <c r="F723" s="287" t="s">
@@ -43245,10 +43253,10 @@
         <v>75000</v>
       </c>
       <c r="H725" s="285"/>
-      <c r="I725" s="391" t="s">
+      <c r="I725" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J725" s="392"/>
+      <c r="J725" s="389"/>
       <c r="K725" s="294">
         <f>K723+K724</f>
         <v>70000</v>
@@ -43302,10 +43310,10 @@
         <v>0</v>
       </c>
       <c r="H726" s="285"/>
-      <c r="I726" s="391" t="s">
+      <c r="I726" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J726" s="392"/>
+      <c r="J726" s="389"/>
       <c r="K726" s="288">
         <f>G726</f>
         <v>0</v>
@@ -43581,58 +43589,58 @@
       <c r="Z732" s="27"/>
     </row>
     <row r="733" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A733" s="410" t="s">
+      <c r="A733" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B733" s="411"/>
-      <c r="C733" s="411"/>
-      <c r="D733" s="411"/>
-      <c r="E733" s="411"/>
-      <c r="F733" s="411"/>
-      <c r="G733" s="411"/>
-      <c r="H733" s="411"/>
-      <c r="I733" s="411"/>
-      <c r="J733" s="411"/>
-      <c r="K733" s="411"/>
-      <c r="L733" s="412"/>
+      <c r="B733" s="409"/>
+      <c r="C733" s="409"/>
+      <c r="D733" s="409"/>
+      <c r="E733" s="409"/>
+      <c r="F733" s="409"/>
+      <c r="G733" s="409"/>
+      <c r="H733" s="409"/>
+      <c r="I733" s="409"/>
+      <c r="J733" s="409"/>
+      <c r="K733" s="409"/>
+      <c r="L733" s="410"/>
       <c r="M733" s="24"/>
       <c r="N733" s="28"/>
-      <c r="O733" s="388" t="s">
+      <c r="O733" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P733" s="389"/>
-      <c r="Q733" s="389"/>
-      <c r="R733" s="390"/>
+      <c r="P733" s="391"/>
+      <c r="Q733" s="391"/>
+      <c r="R733" s="392"/>
       <c r="S733" s="29"/>
-      <c r="T733" s="388" t="s">
+      <c r="T733" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U733" s="389"/>
-      <c r="V733" s="389"/>
-      <c r="W733" s="389"/>
-      <c r="X733" s="389"/>
-      <c r="Y733" s="390"/>
+      <c r="U733" s="391"/>
+      <c r="V733" s="391"/>
+      <c r="W733" s="391"/>
+      <c r="X733" s="391"/>
+      <c r="Y733" s="392"/>
       <c r="Z733" s="30"/>
       <c r="AA733" s="24"/>
     </row>
     <row r="734" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="272"/>
       <c r="B734" s="270"/>
-      <c r="C734" s="399" t="s">
+      <c r="C734" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D734" s="399"/>
-      <c r="E734" s="399"/>
-      <c r="F734" s="399"/>
+      <c r="D734" s="393"/>
+      <c r="E734" s="393"/>
+      <c r="F734" s="393"/>
       <c r="G734" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H734" s="402">
+      <c r="H734" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I734" s="402"/>
+      <c r="I734" s="400"/>
       <c r="J734" s="270"/>
       <c r="K734" s="274"/>
       <c r="L734" s="275"/>
@@ -43773,16 +43781,16 @@
       <c r="C737" s="283"/>
       <c r="D737" s="270"/>
       <c r="E737" s="270"/>
-      <c r="F737" s="406" t="s">
+      <c r="F737" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G737" s="406"/>
+      <c r="G737" s="399"/>
       <c r="H737" s="270"/>
-      <c r="I737" s="406" t="s">
+      <c r="I737" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J737" s="406"/>
-      <c r="K737" s="406"/>
+      <c r="J737" s="399"/>
+      <c r="K737" s="399"/>
       <c r="L737" s="284"/>
       <c r="N737" s="35"/>
       <c r="O737" s="36" t="s">
@@ -43859,10 +43867,10 @@
     </row>
     <row r="739" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="272"/>
-      <c r="B739" s="400" t="s">
+      <c r="B739" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C739" s="401"/>
+      <c r="C739" s="395"/>
       <c r="D739" s="270"/>
       <c r="E739" s="270"/>
       <c r="F739" s="287" t="s">
@@ -43989,10 +43997,10 @@
         <v>0</v>
       </c>
       <c r="H741" s="285"/>
-      <c r="I741" s="391" t="s">
+      <c r="I741" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J741" s="392"/>
+      <c r="J741" s="389"/>
       <c r="K741" s="294">
         <f>K739+K740</f>
         <v>66400.862068965507</v>
@@ -44047,10 +44055,10 @@
         <v>0</v>
       </c>
       <c r="H742" s="285"/>
-      <c r="I742" s="391" t="s">
+      <c r="I742" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J742" s="392"/>
+      <c r="J742" s="389"/>
       <c r="K742" s="288">
         <f>G742</f>
         <v>0</v>
@@ -44330,58 +44338,58 @@
       <c r="Z748" s="27"/>
     </row>
     <row r="749" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="393" t="s">
+      <c r="A749" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B749" s="394"/>
-      <c r="C749" s="394"/>
-      <c r="D749" s="394"/>
-      <c r="E749" s="394"/>
-      <c r="F749" s="394"/>
-      <c r="G749" s="394"/>
-      <c r="H749" s="394"/>
-      <c r="I749" s="394"/>
-      <c r="J749" s="394"/>
-      <c r="K749" s="394"/>
-      <c r="L749" s="395"/>
+      <c r="B749" s="402"/>
+      <c r="C749" s="402"/>
+      <c r="D749" s="402"/>
+      <c r="E749" s="402"/>
+      <c r="F749" s="402"/>
+      <c r="G749" s="402"/>
+      <c r="H749" s="402"/>
+      <c r="I749" s="402"/>
+      <c r="J749" s="402"/>
+      <c r="K749" s="402"/>
+      <c r="L749" s="403"/>
       <c r="M749" s="24"/>
       <c r="N749" s="28"/>
-      <c r="O749" s="388" t="s">
+      <c r="O749" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P749" s="389"/>
-      <c r="Q749" s="389"/>
-      <c r="R749" s="390"/>
+      <c r="P749" s="391"/>
+      <c r="Q749" s="391"/>
+      <c r="R749" s="392"/>
       <c r="S749" s="29"/>
-      <c r="T749" s="388" t="s">
+      <c r="T749" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U749" s="389"/>
-      <c r="V749" s="389"/>
-      <c r="W749" s="389"/>
-      <c r="X749" s="389"/>
-      <c r="Y749" s="390"/>
+      <c r="U749" s="391"/>
+      <c r="V749" s="391"/>
+      <c r="W749" s="391"/>
+      <c r="X749" s="391"/>
+      <c r="Y749" s="392"/>
       <c r="Z749" s="30"/>
       <c r="AA749" s="24"/>
     </row>
     <row r="750" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="272"/>
       <c r="B750" s="270"/>
-      <c r="C750" s="399" t="s">
+      <c r="C750" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D750" s="399"/>
-      <c r="E750" s="399"/>
-      <c r="F750" s="399"/>
+      <c r="D750" s="393"/>
+      <c r="E750" s="393"/>
+      <c r="F750" s="393"/>
       <c r="G750" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H750" s="402">
+      <c r="H750" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I750" s="402"/>
+      <c r="I750" s="400"/>
       <c r="J750" s="270"/>
       <c r="K750" s="274"/>
       <c r="L750" s="275"/>
@@ -44604,10 +44612,10 @@
     </row>
     <row r="755" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="272"/>
-      <c r="B755" s="400" t="s">
+      <c r="B755" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C755" s="401"/>
+      <c r="C755" s="395"/>
       <c r="D755" s="270"/>
       <c r="E755" s="270"/>
       <c r="F755" s="287" t="s">
@@ -44722,10 +44730,10 @@
         <v>11500</v>
       </c>
       <c r="H757" s="285"/>
-      <c r="I757" s="391" t="s">
+      <c r="I757" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J757" s="392"/>
+      <c r="J757" s="389"/>
       <c r="K757" s="294">
         <f>K755+K756</f>
         <v>45800</v>
@@ -44777,10 +44785,10 @@
         <v>11500</v>
       </c>
       <c r="H758" s="285"/>
-      <c r="I758" s="391" t="s">
+      <c r="I758" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J758" s="392"/>
+      <c r="J758" s="389"/>
       <c r="K758" s="288">
         <f>G758</f>
         <v>11500</v>
@@ -45019,58 +45027,58 @@
       <c r="Z763" s="57"/>
     </row>
     <row r="764" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="419" t="s">
+      <c r="A764" s="421" t="s">
         <v>38</v>
       </c>
-      <c r="B764" s="420"/>
-      <c r="C764" s="420"/>
-      <c r="D764" s="420"/>
-      <c r="E764" s="420"/>
-      <c r="F764" s="420"/>
-      <c r="G764" s="420"/>
-      <c r="H764" s="420"/>
-      <c r="I764" s="420"/>
-      <c r="J764" s="420"/>
-      <c r="K764" s="420"/>
-      <c r="L764" s="421"/>
+      <c r="B764" s="422"/>
+      <c r="C764" s="422"/>
+      <c r="D764" s="422"/>
+      <c r="E764" s="422"/>
+      <c r="F764" s="422"/>
+      <c r="G764" s="422"/>
+      <c r="H764" s="422"/>
+      <c r="I764" s="422"/>
+      <c r="J764" s="422"/>
+      <c r="K764" s="422"/>
+      <c r="L764" s="423"/>
       <c r="M764" s="24"/>
       <c r="N764" s="28"/>
-      <c r="O764" s="388" t="s">
+      <c r="O764" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P764" s="389"/>
-      <c r="Q764" s="389"/>
-      <c r="R764" s="390"/>
+      <c r="P764" s="391"/>
+      <c r="Q764" s="391"/>
+      <c r="R764" s="392"/>
       <c r="S764" s="29"/>
-      <c r="T764" s="388" t="s">
+      <c r="T764" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U764" s="389"/>
-      <c r="V764" s="389"/>
-      <c r="W764" s="389"/>
-      <c r="X764" s="389"/>
-      <c r="Y764" s="390"/>
+      <c r="U764" s="391"/>
+      <c r="V764" s="391"/>
+      <c r="W764" s="391"/>
+      <c r="X764" s="391"/>
+      <c r="Y764" s="392"/>
       <c r="Z764" s="30"/>
       <c r="AA764" s="24"/>
     </row>
     <row r="765" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="272"/>
       <c r="B765" s="270"/>
-      <c r="C765" s="399" t="s">
+      <c r="C765" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D765" s="399"/>
-      <c r="E765" s="399"/>
-      <c r="F765" s="399"/>
+      <c r="D765" s="393"/>
+      <c r="E765" s="393"/>
+      <c r="F765" s="393"/>
       <c r="G765" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H765" s="402">
+      <c r="H765" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I765" s="402"/>
+      <c r="I765" s="400"/>
       <c r="J765" s="270"/>
       <c r="K765" s="274"/>
       <c r="L765" s="275"/>
@@ -45214,16 +45222,16 @@
       <c r="C768" s="283"/>
       <c r="D768" s="270"/>
       <c r="E768" s="270"/>
-      <c r="F768" s="406" t="s">
+      <c r="F768" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G768" s="406"/>
+      <c r="G768" s="399"/>
       <c r="H768" s="270"/>
-      <c r="I768" s="406" t="s">
+      <c r="I768" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J768" s="406"/>
-      <c r="K768" s="406"/>
+      <c r="J768" s="399"/>
+      <c r="K768" s="399"/>
       <c r="L768" s="284"/>
       <c r="N768" s="35"/>
       <c r="O768" s="36" t="s">
@@ -45294,10 +45302,10 @@
     </row>
     <row r="770" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="272"/>
-      <c r="B770" s="400" t="s">
+      <c r="B770" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C770" s="401"/>
+      <c r="C770" s="395"/>
       <c r="D770" s="270"/>
       <c r="E770" s="270"/>
       <c r="F770" s="287" t="s">
@@ -45418,10 +45426,10 @@
         <v/>
       </c>
       <c r="H772" s="285"/>
-      <c r="I772" s="391" t="s">
+      <c r="I772" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J772" s="392"/>
+      <c r="J772" s="389"/>
       <c r="K772" s="294">
         <f>K770+K771</f>
         <v>41655.172413793109</v>
@@ -45473,10 +45481,10 @@
         <v>0</v>
       </c>
       <c r="H773" s="285"/>
-      <c r="I773" s="391" t="s">
+      <c r="I773" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J773" s="392"/>
+      <c r="J773" s="389"/>
       <c r="K773" s="288">
         <f>G773</f>
         <v>0</v>
@@ -45714,58 +45722,58 @@
       <c r="Z778" s="43"/>
     </row>
     <row r="779" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="393" t="s">
+      <c r="A779" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="B779" s="394"/>
-      <c r="C779" s="394"/>
-      <c r="D779" s="394"/>
-      <c r="E779" s="394"/>
-      <c r="F779" s="394"/>
-      <c r="G779" s="394"/>
-      <c r="H779" s="394"/>
-      <c r="I779" s="394"/>
-      <c r="J779" s="394"/>
-      <c r="K779" s="394"/>
-      <c r="L779" s="395"/>
+      <c r="B779" s="402"/>
+      <c r="C779" s="402"/>
+      <c r="D779" s="402"/>
+      <c r="E779" s="402"/>
+      <c r="F779" s="402"/>
+      <c r="G779" s="402"/>
+      <c r="H779" s="402"/>
+      <c r="I779" s="402"/>
+      <c r="J779" s="402"/>
+      <c r="K779" s="402"/>
+      <c r="L779" s="403"/>
       <c r="M779" s="24"/>
       <c r="N779" s="28"/>
-      <c r="O779" s="388" t="s">
+      <c r="O779" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P779" s="389"/>
-      <c r="Q779" s="389"/>
-      <c r="R779" s="390"/>
+      <c r="P779" s="391"/>
+      <c r="Q779" s="391"/>
+      <c r="R779" s="392"/>
       <c r="S779" s="29"/>
-      <c r="T779" s="388" t="s">
+      <c r="T779" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U779" s="389"/>
-      <c r="V779" s="389"/>
-      <c r="W779" s="389"/>
-      <c r="X779" s="389"/>
-      <c r="Y779" s="390"/>
+      <c r="U779" s="391"/>
+      <c r="V779" s="391"/>
+      <c r="W779" s="391"/>
+      <c r="X779" s="391"/>
+      <c r="Y779" s="392"/>
       <c r="Z779" s="30"/>
       <c r="AA779" s="24"/>
     </row>
     <row r="780" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="272"/>
       <c r="B780" s="270"/>
-      <c r="C780" s="399" t="s">
+      <c r="C780" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D780" s="399"/>
-      <c r="E780" s="399"/>
-      <c r="F780" s="399"/>
+      <c r="D780" s="393"/>
+      <c r="E780" s="393"/>
+      <c r="F780" s="393"/>
       <c r="G780" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H780" s="402">
+      <c r="H780" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I780" s="402"/>
+      <c r="I780" s="400"/>
       <c r="J780" s="270"/>
       <c r="K780" s="274"/>
       <c r="L780" s="275"/>
@@ -46000,10 +46008,10 @@
     </row>
     <row r="785" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="272"/>
-      <c r="B785" s="400" t="s">
+      <c r="B785" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C785" s="401"/>
+      <c r="C785" s="395"/>
       <c r="D785" s="270"/>
       <c r="E785" s="270"/>
       <c r="F785" s="287" t="s">
@@ -46126,10 +46134,10 @@
         <v>0</v>
       </c>
       <c r="H787" s="285"/>
-      <c r="I787" s="391" t="s">
+      <c r="I787" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J787" s="392"/>
+      <c r="J787" s="389"/>
       <c r="K787" s="294">
         <f>K785+K786</f>
         <v>60000.000000000007</v>
@@ -46183,10 +46191,10 @@
         <v>0</v>
       </c>
       <c r="H788" s="285"/>
-      <c r="I788" s="391" t="s">
+      <c r="I788" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J788" s="392"/>
+      <c r="J788" s="389"/>
       <c r="K788" s="288">
         <f>G788</f>
         <v>0</v>
@@ -46490,58 +46498,58 @@
       <c r="Z795" s="27"/>
     </row>
     <row r="796" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="422" t="s">
+      <c r="A796" s="415" t="s">
         <v>38</v>
       </c>
-      <c r="B796" s="423"/>
-      <c r="C796" s="423"/>
-      <c r="D796" s="423"/>
-      <c r="E796" s="423"/>
-      <c r="F796" s="423"/>
-      <c r="G796" s="423"/>
-      <c r="H796" s="423"/>
-      <c r="I796" s="423"/>
-      <c r="J796" s="423"/>
-      <c r="K796" s="423"/>
-      <c r="L796" s="424"/>
+      <c r="B796" s="416"/>
+      <c r="C796" s="416"/>
+      <c r="D796" s="416"/>
+      <c r="E796" s="416"/>
+      <c r="F796" s="416"/>
+      <c r="G796" s="416"/>
+      <c r="H796" s="416"/>
+      <c r="I796" s="416"/>
+      <c r="J796" s="416"/>
+      <c r="K796" s="416"/>
+      <c r="L796" s="417"/>
       <c r="M796" s="24"/>
       <c r="N796" s="28"/>
-      <c r="O796" s="388" t="s">
+      <c r="O796" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P796" s="389"/>
-      <c r="Q796" s="389"/>
-      <c r="R796" s="390"/>
+      <c r="P796" s="391"/>
+      <c r="Q796" s="391"/>
+      <c r="R796" s="392"/>
       <c r="S796" s="29"/>
-      <c r="T796" s="388" t="s">
+      <c r="T796" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U796" s="389"/>
-      <c r="V796" s="389"/>
-      <c r="W796" s="389"/>
-      <c r="X796" s="389"/>
-      <c r="Y796" s="390"/>
+      <c r="U796" s="391"/>
+      <c r="V796" s="391"/>
+      <c r="W796" s="391"/>
+      <c r="X796" s="391"/>
+      <c r="Y796" s="392"/>
       <c r="Z796" s="30"/>
       <c r="AA796" s="24"/>
     </row>
     <row r="797" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="272"/>
       <c r="B797" s="270"/>
-      <c r="C797" s="399" t="s">
+      <c r="C797" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D797" s="399"/>
-      <c r="E797" s="399"/>
-      <c r="F797" s="399"/>
+      <c r="D797" s="393"/>
+      <c r="E797" s="393"/>
+      <c r="F797" s="393"/>
       <c r="G797" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H797" s="402">
+      <c r="H797" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I797" s="402"/>
+      <c r="I797" s="400"/>
       <c r="J797" s="270"/>
       <c r="K797" s="274"/>
       <c r="L797" s="275"/>
@@ -46685,16 +46693,16 @@
       <c r="C800" s="283"/>
       <c r="D800" s="270"/>
       <c r="E800" s="270"/>
-      <c r="F800" s="406" t="s">
+      <c r="F800" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G800" s="406"/>
+      <c r="G800" s="399"/>
       <c r="H800" s="270"/>
-      <c r="I800" s="406" t="s">
+      <c r="I800" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J800" s="406"/>
-      <c r="K800" s="406"/>
+      <c r="J800" s="399"/>
+      <c r="K800" s="399"/>
       <c r="L800" s="284"/>
       <c r="N800" s="35"/>
       <c r="O800" s="36" t="s">
@@ -46771,10 +46779,10 @@
     </row>
     <row r="802" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="272"/>
-      <c r="B802" s="400" t="s">
+      <c r="B802" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C802" s="401"/>
+      <c r="C802" s="395"/>
       <c r="D802" s="270"/>
       <c r="E802" s="270"/>
       <c r="F802" s="287" t="s">
@@ -46899,10 +46907,10 @@
         <v>0</v>
       </c>
       <c r="H804" s="285"/>
-      <c r="I804" s="391" t="s">
+      <c r="I804" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J804" s="392"/>
+      <c r="J804" s="389"/>
       <c r="K804" s="294">
         <f>K802+K803</f>
         <v>64137.931034482768</v>
@@ -46957,10 +46965,10 @@
         <v>0</v>
       </c>
       <c r="H805" s="285"/>
-      <c r="I805" s="391" t="s">
+      <c r="I805" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J805" s="392"/>
+      <c r="J805" s="389"/>
       <c r="K805" s="288">
         <f>G805</f>
         <v>0</v>
@@ -47240,58 +47248,58 @@
       <c r="Z811" s="27"/>
     </row>
     <row r="812" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A812" s="413" t="s">
+      <c r="A812" s="412" t="s">
         <v>38</v>
       </c>
-      <c r="B812" s="414"/>
-      <c r="C812" s="414"/>
-      <c r="D812" s="414"/>
-      <c r="E812" s="414"/>
-      <c r="F812" s="414"/>
-      <c r="G812" s="414"/>
-      <c r="H812" s="414"/>
-      <c r="I812" s="414"/>
-      <c r="J812" s="414"/>
-      <c r="K812" s="414"/>
-      <c r="L812" s="415"/>
+      <c r="B812" s="413"/>
+      <c r="C812" s="413"/>
+      <c r="D812" s="413"/>
+      <c r="E812" s="413"/>
+      <c r="F812" s="413"/>
+      <c r="G812" s="413"/>
+      <c r="H812" s="413"/>
+      <c r="I812" s="413"/>
+      <c r="J812" s="413"/>
+      <c r="K812" s="413"/>
+      <c r="L812" s="414"/>
       <c r="M812" s="24"/>
       <c r="N812" s="28"/>
-      <c r="O812" s="388" t="s">
+      <c r="O812" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P812" s="389"/>
-      <c r="Q812" s="389"/>
-      <c r="R812" s="390"/>
+      <c r="P812" s="391"/>
+      <c r="Q812" s="391"/>
+      <c r="R812" s="392"/>
       <c r="S812" s="29"/>
-      <c r="T812" s="388" t="s">
+      <c r="T812" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U812" s="389"/>
-      <c r="V812" s="389"/>
-      <c r="W812" s="389"/>
-      <c r="X812" s="389"/>
-      <c r="Y812" s="390"/>
+      <c r="U812" s="391"/>
+      <c r="V812" s="391"/>
+      <c r="W812" s="391"/>
+      <c r="X812" s="391"/>
+      <c r="Y812" s="392"/>
       <c r="Z812" s="30"/>
       <c r="AA812" s="24"/>
     </row>
     <row r="813" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="272"/>
       <c r="B813" s="270"/>
-      <c r="C813" s="399" t="s">
+      <c r="C813" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D813" s="399"/>
-      <c r="E813" s="399"/>
-      <c r="F813" s="399"/>
+      <c r="D813" s="393"/>
+      <c r="E813" s="393"/>
+      <c r="F813" s="393"/>
       <c r="G813" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H813" s="402">
+      <c r="H813" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I813" s="402"/>
+      <c r="I813" s="400"/>
       <c r="J813" s="270"/>
       <c r="K813" s="274"/>
       <c r="L813" s="275"/>
@@ -47438,16 +47446,16 @@
       <c r="C816" s="283"/>
       <c r="D816" s="270"/>
       <c r="E816" s="270"/>
-      <c r="F816" s="406" t="s">
+      <c r="F816" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G816" s="406"/>
+      <c r="G816" s="399"/>
       <c r="H816" s="270"/>
-      <c r="I816" s="406" t="s">
+      <c r="I816" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J816" s="406"/>
-      <c r="K816" s="406"/>
+      <c r="J816" s="399"/>
+      <c r="K816" s="399"/>
       <c r="L816" s="284"/>
       <c r="N816" s="35"/>
       <c r="O816" s="36" t="s">
@@ -47531,10 +47539,10 @@
     </row>
     <row r="818" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="272"/>
-      <c r="B818" s="400" t="s">
+      <c r="B818" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C818" s="401"/>
+      <c r="C818" s="395"/>
       <c r="D818" s="270"/>
       <c r="E818" s="270"/>
       <c r="F818" s="287" t="s">
@@ -47665,10 +47673,10 @@
         <v>0</v>
       </c>
       <c r="H820" s="285"/>
-      <c r="I820" s="391" t="s">
+      <c r="I820" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J820" s="392"/>
+      <c r="J820" s="389"/>
       <c r="K820" s="294">
         <f>K818+K819</f>
         <v>0</v>
@@ -47722,10 +47730,10 @@
         <v>0</v>
       </c>
       <c r="H821" s="285"/>
-      <c r="I821" s="391" t="s">
+      <c r="I821" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J821" s="392"/>
+      <c r="J821" s="389"/>
       <c r="K821" s="288">
         <f>G821</f>
         <v>0</v>
@@ -47997,58 +48005,58 @@
       <c r="Z827" s="27"/>
     </row>
     <row r="828" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A828" s="416" t="s">
+      <c r="A828" s="418" t="s">
         <v>38</v>
       </c>
-      <c r="B828" s="417"/>
-      <c r="C828" s="417"/>
-      <c r="D828" s="417"/>
-      <c r="E828" s="417"/>
-      <c r="F828" s="417"/>
-      <c r="G828" s="417"/>
-      <c r="H828" s="417"/>
-      <c r="I828" s="417"/>
-      <c r="J828" s="417"/>
-      <c r="K828" s="417"/>
-      <c r="L828" s="418"/>
+      <c r="B828" s="419"/>
+      <c r="C828" s="419"/>
+      <c r="D828" s="419"/>
+      <c r="E828" s="419"/>
+      <c r="F828" s="419"/>
+      <c r="G828" s="419"/>
+      <c r="H828" s="419"/>
+      <c r="I828" s="419"/>
+      <c r="J828" s="419"/>
+      <c r="K828" s="419"/>
+      <c r="L828" s="420"/>
       <c r="M828" s="24"/>
       <c r="N828" s="28"/>
-      <c r="O828" s="388" t="s">
+      <c r="O828" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="P828" s="389"/>
-      <c r="Q828" s="389"/>
-      <c r="R828" s="390"/>
+      <c r="P828" s="391"/>
+      <c r="Q828" s="391"/>
+      <c r="R828" s="392"/>
       <c r="S828" s="29"/>
-      <c r="T828" s="388" t="s">
+      <c r="T828" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="U828" s="389"/>
-      <c r="V828" s="389"/>
-      <c r="W828" s="389"/>
-      <c r="X828" s="389"/>
-      <c r="Y828" s="390"/>
+      <c r="U828" s="391"/>
+      <c r="V828" s="391"/>
+      <c r="W828" s="391"/>
+      <c r="X828" s="391"/>
+      <c r="Y828" s="392"/>
       <c r="Z828" s="30"/>
       <c r="AA828" s="24"/>
     </row>
     <row r="829" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="272"/>
       <c r="B829" s="270"/>
-      <c r="C829" s="399" t="s">
+      <c r="C829" s="393" t="s">
         <v>206</v>
       </c>
-      <c r="D829" s="399"/>
-      <c r="E829" s="399"/>
-      <c r="F829" s="399"/>
+      <c r="D829" s="393"/>
+      <c r="E829" s="393"/>
+      <c r="F829" s="393"/>
       <c r="G829" s="273" t="str">
         <f>$J$1</f>
         <v>February</v>
       </c>
-      <c r="H829" s="402">
+      <c r="H829" s="400">
         <f>$K$1</f>
         <v>2024</v>
       </c>
-      <c r="I829" s="402"/>
+      <c r="I829" s="400"/>
       <c r="J829" s="270"/>
       <c r="K829" s="274"/>
       <c r="L829" s="275"/>
@@ -48187,16 +48195,16 @@
       <c r="C832" s="308"/>
       <c r="D832" s="270"/>
       <c r="E832" s="270"/>
-      <c r="F832" s="406" t="s">
+      <c r="F832" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="G832" s="406"/>
+      <c r="G832" s="399"/>
       <c r="H832" s="270"/>
-      <c r="I832" s="406" t="s">
+      <c r="I832" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J832" s="406"/>
-      <c r="K832" s="406"/>
+      <c r="J832" s="399"/>
+      <c r="K832" s="399"/>
       <c r="L832" s="284"/>
       <c r="N832" s="35"/>
       <c r="O832" s="36" t="s">
@@ -48273,10 +48281,10 @@
     </row>
     <row r="834" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="272"/>
-      <c r="B834" s="400" t="s">
+      <c r="B834" s="394" t="s">
         <v>40</v>
       </c>
-      <c r="C834" s="401"/>
+      <c r="C834" s="395"/>
       <c r="D834" s="270"/>
       <c r="E834" s="270"/>
       <c r="F834" s="287" t="s">
@@ -48395,10 +48403,10 @@
         <v>0</v>
       </c>
       <c r="H836" s="285"/>
-      <c r="I836" s="391" t="s">
+      <c r="I836" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="J836" s="392"/>
+      <c r="J836" s="389"/>
       <c r="K836" s="294">
         <f>K834+K835</f>
         <v>0</v>
@@ -48453,10 +48461,10 @@
         <v>0</v>
       </c>
       <c r="H837" s="285"/>
-      <c r="I837" s="391" t="s">
+      <c r="I837" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="J837" s="392"/>
+      <c r="J837" s="389"/>
       <c r="K837" s="288">
         <f>G837</f>
         <v>0</v>
@@ -48833,7 +48841,602 @@
     <row r="861" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="862" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="618">
+  <mergeCells count="619">
+    <mergeCell ref="F714:J714"/>
+    <mergeCell ref="O262:R262"/>
+    <mergeCell ref="O172:R172"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="A262:L262"/>
+    <mergeCell ref="I266:K266"/>
+    <mergeCell ref="I346:J346"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I311:K311"/>
+    <mergeCell ref="T247:Y247"/>
+    <mergeCell ref="I241:J241"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="I316:J316"/>
+    <mergeCell ref="I196:J196"/>
+    <mergeCell ref="I195:J195"/>
+    <mergeCell ref="O307:R307"/>
+    <mergeCell ref="I301:J301"/>
+    <mergeCell ref="A337:L337"/>
+    <mergeCell ref="A322:L322"/>
+    <mergeCell ref="O277:R277"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="T828:Y828"/>
+    <mergeCell ref="T812:Y812"/>
+    <mergeCell ref="I206:K206"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="I356:K356"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T322:Y322"/>
+    <mergeCell ref="T307:Y307"/>
+    <mergeCell ref="T277:Y277"/>
+    <mergeCell ref="T352:Y352"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="C248:F248"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="H353:I353"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="I251:K251"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="I227:J227"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="T796:Y796"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I634:J634"/>
+    <mergeCell ref="A533:L533"/>
+    <mergeCell ref="I543:J543"/>
+    <mergeCell ref="C429:F429"/>
+    <mergeCell ref="C504:F504"/>
+    <mergeCell ref="H504:I504"/>
+    <mergeCell ref="F507:G507"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="B509:C509"/>
+    <mergeCell ref="I507:K507"/>
+    <mergeCell ref="T413:Y413"/>
+    <mergeCell ref="C353:F353"/>
+    <mergeCell ref="I362:J362"/>
+    <mergeCell ref="H519:I519"/>
+    <mergeCell ref="A473:L473"/>
+    <mergeCell ref="O503:R503"/>
+    <mergeCell ref="H429:I429"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="O796:R796"/>
+    <mergeCell ref="I406:J406"/>
+    <mergeCell ref="A687:L687"/>
+    <mergeCell ref="O764:R764"/>
+    <mergeCell ref="C564:F564"/>
+    <mergeCell ref="O593:R593"/>
+    <mergeCell ref="I573:J573"/>
+    <mergeCell ref="I603:J603"/>
+    <mergeCell ref="I800:K800"/>
+    <mergeCell ref="C594:F594"/>
+    <mergeCell ref="B739:C739"/>
+    <mergeCell ref="I774:J774"/>
+    <mergeCell ref="H656:I656"/>
+    <mergeCell ref="I757:J757"/>
+    <mergeCell ref="F706:G706"/>
+    <mergeCell ref="I438:J438"/>
+    <mergeCell ref="H459:I459"/>
+    <mergeCell ref="O563:R563"/>
+    <mergeCell ref="O548:R548"/>
+    <mergeCell ref="O443:R443"/>
+    <mergeCell ref="C549:F549"/>
+    <mergeCell ref="H549:I549"/>
+    <mergeCell ref="O488:R488"/>
+    <mergeCell ref="O533:R533"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="O655:R655"/>
+    <mergeCell ref="C672:F672"/>
+    <mergeCell ref="I511:J511"/>
+    <mergeCell ref="I512:J512"/>
+    <mergeCell ref="I436:J436"/>
+    <mergeCell ref="A382:L382"/>
+    <mergeCell ref="O578:R578"/>
+    <mergeCell ref="I586:J586"/>
+    <mergeCell ref="I582:K582"/>
+    <mergeCell ref="H489:I489"/>
+    <mergeCell ref="F492:G492"/>
+    <mergeCell ref="I492:K492"/>
+    <mergeCell ref="I421:J421"/>
+    <mergeCell ref="I422:J422"/>
+    <mergeCell ref="I557:J557"/>
+    <mergeCell ref="O518:R518"/>
+    <mergeCell ref="A428:L428"/>
+    <mergeCell ref="C338:F338"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="O624:R624"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="I146:K146"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="C188:F188"/>
+    <mergeCell ref="O202:R202"/>
+    <mergeCell ref="O187:R187"/>
+    <mergeCell ref="O157:R157"/>
+    <mergeCell ref="A232:L232"/>
+    <mergeCell ref="I242:J242"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="I236:K236"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="A172:L172"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="C414:F414"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="B419:C419"/>
+    <mergeCell ref="I377:J377"/>
+    <mergeCell ref="O413:R413"/>
+    <mergeCell ref="I386:K386"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="I375:J375"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="A413:L413"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="O217:R217"/>
+    <mergeCell ref="A202:L202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="O382:R382"/>
+    <mergeCell ref="O367:R367"/>
+    <mergeCell ref="O322:R322"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I191:K191"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C640:F640"/>
+    <mergeCell ref="H640:I640"/>
+    <mergeCell ref="I628:K628"/>
+    <mergeCell ref="A779:L779"/>
+    <mergeCell ref="O702:R702"/>
+    <mergeCell ref="B661:C661"/>
+    <mergeCell ref="I710:J710"/>
+    <mergeCell ref="A702:L702"/>
+    <mergeCell ref="T702:Y702"/>
+    <mergeCell ref="B651:K652"/>
+    <mergeCell ref="T749:Y749"/>
+    <mergeCell ref="F768:G768"/>
+    <mergeCell ref="T764:Y764"/>
+    <mergeCell ref="T779:Y779"/>
+    <mergeCell ref="O779:R779"/>
+    <mergeCell ref="I773:J773"/>
+    <mergeCell ref="O733:R733"/>
+    <mergeCell ref="B770:C770"/>
+    <mergeCell ref="B693:C693"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="I665:J665"/>
+    <mergeCell ref="C691:E691"/>
+    <mergeCell ref="I695:J695"/>
+    <mergeCell ref="I696:J696"/>
+    <mergeCell ref="T624:Y624"/>
+    <mergeCell ref="I741:J741"/>
+    <mergeCell ref="I759:J759"/>
+    <mergeCell ref="I768:K768"/>
+    <mergeCell ref="O717:R717"/>
+    <mergeCell ref="T717:Y717"/>
+    <mergeCell ref="T671:Y671"/>
+    <mergeCell ref="T639:Y639"/>
+    <mergeCell ref="O609:R609"/>
+    <mergeCell ref="I648:J648"/>
+    <mergeCell ref="B683:K684"/>
+    <mergeCell ref="H765:I765"/>
+    <mergeCell ref="C765:F765"/>
+    <mergeCell ref="A624:L624"/>
+    <mergeCell ref="A749:L749"/>
+    <mergeCell ref="F691:G691"/>
+    <mergeCell ref="I691:K691"/>
+    <mergeCell ref="H688:I688"/>
+    <mergeCell ref="F628:G628"/>
+    <mergeCell ref="I758:J758"/>
+    <mergeCell ref="I742:J742"/>
+    <mergeCell ref="I647:J647"/>
+    <mergeCell ref="B667:K668"/>
+    <mergeCell ref="I697:J697"/>
+    <mergeCell ref="I837:J837"/>
+    <mergeCell ref="I806:J806"/>
+    <mergeCell ref="I836:J836"/>
+    <mergeCell ref="O639:R639"/>
+    <mergeCell ref="O812:R812"/>
+    <mergeCell ref="O671:R671"/>
+    <mergeCell ref="O749:R749"/>
+    <mergeCell ref="A639:L639"/>
+    <mergeCell ref="I618:J618"/>
+    <mergeCell ref="B785:C785"/>
+    <mergeCell ref="B776:K777"/>
+    <mergeCell ref="I787:J787"/>
+    <mergeCell ref="I789:J789"/>
+    <mergeCell ref="A717:L717"/>
+    <mergeCell ref="B723:C723"/>
+    <mergeCell ref="A828:L828"/>
+    <mergeCell ref="O828:R828"/>
+    <mergeCell ref="F832:G832"/>
+    <mergeCell ref="H813:I813"/>
+    <mergeCell ref="I783:K783"/>
+    <mergeCell ref="F737:G737"/>
+    <mergeCell ref="I788:J788"/>
+    <mergeCell ref="B745:K746"/>
+    <mergeCell ref="A764:L764"/>
+    <mergeCell ref="I838:J838"/>
+    <mergeCell ref="I832:K832"/>
+    <mergeCell ref="H672:I672"/>
+    <mergeCell ref="A671:L671"/>
+    <mergeCell ref="B464:C464"/>
+    <mergeCell ref="C474:F474"/>
+    <mergeCell ref="C489:F489"/>
+    <mergeCell ref="I423:J423"/>
+    <mergeCell ref="A443:L443"/>
+    <mergeCell ref="I681:J681"/>
+    <mergeCell ref="F675:G675"/>
+    <mergeCell ref="I587:J587"/>
+    <mergeCell ref="C625:F625"/>
+    <mergeCell ref="A458:L458"/>
+    <mergeCell ref="C459:F459"/>
+    <mergeCell ref="A518:L518"/>
+    <mergeCell ref="I462:K462"/>
+    <mergeCell ref="C579:F579"/>
+    <mergeCell ref="I497:J497"/>
+    <mergeCell ref="H534:I534"/>
+    <mergeCell ref="I558:J558"/>
+    <mergeCell ref="B554:C554"/>
+    <mergeCell ref="B630:C630"/>
+    <mergeCell ref="I542:J542"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="O247:R247"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="I417:K417"/>
+    <mergeCell ref="H338:I338"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="A307:L307"/>
+    <mergeCell ref="I300:J300"/>
+    <mergeCell ref="I285:J285"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="A292:L292"/>
+    <mergeCell ref="I286:J286"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="H368:I368"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="I221:K221"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="I225:J225"/>
+    <mergeCell ref="A247:L247"/>
+    <mergeCell ref="F326:G326"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="I271:J271"/>
+    <mergeCell ref="I281:K281"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="F522:G522"/>
+    <mergeCell ref="I522:K522"/>
+    <mergeCell ref="I498:J498"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="I466:J466"/>
+    <mergeCell ref="H444:I444"/>
+    <mergeCell ref="F371:G371"/>
+    <mergeCell ref="I371:K371"/>
+    <mergeCell ref="H383:I383"/>
+    <mergeCell ref="F386:G386"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="C308:F308"/>
+    <mergeCell ref="I270:J270"/>
+    <mergeCell ref="I315:J315"/>
+    <mergeCell ref="I302:J302"/>
+    <mergeCell ref="I347:J347"/>
+    <mergeCell ref="I317:J317"/>
+    <mergeCell ref="H398:I398"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="C323:F323"/>
+    <mergeCell ref="H323:I323"/>
+    <mergeCell ref="I296:K296"/>
+    <mergeCell ref="I326:K326"/>
+    <mergeCell ref="I331:J331"/>
+    <mergeCell ref="I332:J332"/>
+    <mergeCell ref="C703:F703"/>
+    <mergeCell ref="H703:I703"/>
+    <mergeCell ref="A578:L578"/>
+    <mergeCell ref="I588:J588"/>
+    <mergeCell ref="F597:G597"/>
+    <mergeCell ref="I597:K597"/>
+    <mergeCell ref="I633:J633"/>
+    <mergeCell ref="I664:J664"/>
+    <mergeCell ref="F401:G401"/>
+    <mergeCell ref="I643:K643"/>
+    <mergeCell ref="B539:C539"/>
+    <mergeCell ref="I541:J541"/>
+    <mergeCell ref="B605:K606"/>
+    <mergeCell ref="C656:F656"/>
+    <mergeCell ref="A655:L655"/>
+    <mergeCell ref="B599:C599"/>
+    <mergeCell ref="H625:I625"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="I226:J226"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C158:F158"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="C143:F143"/>
+    <mergeCell ref="A217:L217"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="I211:J211"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="I116:K116"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="H564:I564"/>
+    <mergeCell ref="C398:F398"/>
+    <mergeCell ref="A812:L812"/>
+    <mergeCell ref="B818:C818"/>
+    <mergeCell ref="I805:J805"/>
+    <mergeCell ref="A796:L796"/>
+    <mergeCell ref="I737:K737"/>
+    <mergeCell ref="H734:I734"/>
+    <mergeCell ref="I706:K706"/>
+    <mergeCell ref="B708:C708"/>
+    <mergeCell ref="F567:G567"/>
+    <mergeCell ref="I804:J804"/>
+    <mergeCell ref="H780:I780"/>
+    <mergeCell ref="H718:I718"/>
+    <mergeCell ref="F721:G721"/>
+    <mergeCell ref="F753:G753"/>
+    <mergeCell ref="I721:K721"/>
+    <mergeCell ref="A593:L593"/>
+    <mergeCell ref="C734:F734"/>
+    <mergeCell ref="I601:J601"/>
+    <mergeCell ref="I602:J602"/>
+    <mergeCell ref="B409:K410"/>
+    <mergeCell ref="I528:J528"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="I632:J632"/>
+    <mergeCell ref="B808:K809"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B677:C677"/>
+    <mergeCell ref="H610:I610"/>
+    <mergeCell ref="I772:J772"/>
+    <mergeCell ref="I743:J743"/>
+    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I176:K176"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="A187:L187"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="A157:L157"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="A97:L97"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="T127:Y127"/>
+    <mergeCell ref="T157:Y157"/>
+    <mergeCell ref="O142:R142"/>
+    <mergeCell ref="T97:Y97"/>
+    <mergeCell ref="T112:Y112"/>
+    <mergeCell ref="T172:Y172"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="T609:Y609"/>
+    <mergeCell ref="I526:J526"/>
+    <mergeCell ref="I361:J361"/>
+    <mergeCell ref="F432:G432"/>
+    <mergeCell ref="I437:J437"/>
+    <mergeCell ref="I537:K537"/>
+    <mergeCell ref="H474:I474"/>
+    <mergeCell ref="I272:J272"/>
+    <mergeCell ref="I482:J482"/>
+    <mergeCell ref="C278:F278"/>
+    <mergeCell ref="I432:K432"/>
+    <mergeCell ref="I390:J390"/>
+    <mergeCell ref="I391:J391"/>
+    <mergeCell ref="I392:J392"/>
+    <mergeCell ref="I468:J468"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F447:G447"/>
+    <mergeCell ref="A352:L352"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="I341:K341"/>
+    <mergeCell ref="I451:J451"/>
+    <mergeCell ref="I452:J452"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="A142:L142"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="F417:G417"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="F356:G356"/>
+    <mergeCell ref="I360:J360"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="I679:J679"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="I567:K567"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="I161:K161"/>
+    <mergeCell ref="F582:G582"/>
+    <mergeCell ref="H579:I579"/>
+    <mergeCell ref="I675:K675"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I330:J330"/>
+    <mergeCell ref="F643:G643"/>
+    <mergeCell ref="I619:J619"/>
+    <mergeCell ref="I617:J617"/>
+    <mergeCell ref="T217:Y217"/>
+    <mergeCell ref="T292:Y292"/>
+    <mergeCell ref="T578:Y578"/>
+    <mergeCell ref="T187:Y187"/>
+    <mergeCell ref="T473:Y473"/>
+    <mergeCell ref="T428:Y428"/>
+    <mergeCell ref="O473:R473"/>
+    <mergeCell ref="T533:Y533"/>
+    <mergeCell ref="T443:Y443"/>
+    <mergeCell ref="T503:Y503"/>
+    <mergeCell ref="O428:R428"/>
+    <mergeCell ref="T488:Y488"/>
+    <mergeCell ref="T458:Y458"/>
+    <mergeCell ref="T202:Y202"/>
+    <mergeCell ref="T337:Y337"/>
+    <mergeCell ref="T518:Y518"/>
+    <mergeCell ref="T232:Y232"/>
+    <mergeCell ref="O458:R458"/>
+    <mergeCell ref="T382:Y382"/>
+    <mergeCell ref="T397:Y397"/>
+    <mergeCell ref="O397:R397"/>
+    <mergeCell ref="T548:Y548"/>
+    <mergeCell ref="T563:Y563"/>
+    <mergeCell ref="T262:Y262"/>
+    <mergeCell ref="A277:L277"/>
+    <mergeCell ref="O292:R292"/>
+    <mergeCell ref="O337:R337"/>
+    <mergeCell ref="T367:Y367"/>
+    <mergeCell ref="O352:R352"/>
+    <mergeCell ref="O232:R232"/>
+    <mergeCell ref="B824:K825"/>
+    <mergeCell ref="B729:K730"/>
+    <mergeCell ref="B840:K841"/>
+    <mergeCell ref="I552:K552"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="A609:L609"/>
+    <mergeCell ref="B834:C834"/>
+    <mergeCell ref="B494:C494"/>
+    <mergeCell ref="C797:F797"/>
+    <mergeCell ref="H797:I797"/>
+    <mergeCell ref="I725:J725"/>
+    <mergeCell ref="C780:F780"/>
+    <mergeCell ref="A563:L563"/>
+    <mergeCell ref="I753:K753"/>
+    <mergeCell ref="C750:F750"/>
+    <mergeCell ref="H750:I750"/>
+    <mergeCell ref="A733:L733"/>
+    <mergeCell ref="I649:J649"/>
+    <mergeCell ref="I822:J822"/>
+    <mergeCell ref="C813:F813"/>
+    <mergeCell ref="B755:C755"/>
+    <mergeCell ref="H829:I829"/>
+    <mergeCell ref="I571:J571"/>
+    <mergeCell ref="I447:K447"/>
+    <mergeCell ref="A503:L503"/>
+    <mergeCell ref="B569:C569"/>
+    <mergeCell ref="I572:J572"/>
+    <mergeCell ref="A548:L548"/>
+    <mergeCell ref="F552:G552"/>
+    <mergeCell ref="I477:K477"/>
+    <mergeCell ref="I820:J820"/>
+    <mergeCell ref="F816:G816"/>
+    <mergeCell ref="C829:F829"/>
+    <mergeCell ref="I821:J821"/>
+    <mergeCell ref="I816:K816"/>
+    <mergeCell ref="I711:J711"/>
+    <mergeCell ref="I513:J513"/>
+    <mergeCell ref="A488:L488"/>
+    <mergeCell ref="I483:J483"/>
+    <mergeCell ref="I712:J712"/>
+    <mergeCell ref="F800:G800"/>
+    <mergeCell ref="F783:G783"/>
+    <mergeCell ref="A367:L367"/>
+    <mergeCell ref="I453:J453"/>
+    <mergeCell ref="C444:F444"/>
+    <mergeCell ref="I481:J481"/>
+    <mergeCell ref="B479:C479"/>
+    <mergeCell ref="I407:J407"/>
+    <mergeCell ref="I376:J376"/>
+    <mergeCell ref="I496:J496"/>
+    <mergeCell ref="I467:J467"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="I405:J405"/>
+    <mergeCell ref="A397:L397"/>
+    <mergeCell ref="I401:K401"/>
+    <mergeCell ref="H414:I414"/>
+    <mergeCell ref="B434:C434"/>
     <mergeCell ref="I527:J527"/>
     <mergeCell ref="T733:Y733"/>
     <mergeCell ref="C519:F519"/>
@@ -48858,600 +49461,6 @@
     <mergeCell ref="I663:J663"/>
     <mergeCell ref="T593:Y593"/>
     <mergeCell ref="F537:G537"/>
-    <mergeCell ref="A367:L367"/>
-    <mergeCell ref="I453:J453"/>
-    <mergeCell ref="C444:F444"/>
-    <mergeCell ref="I481:J481"/>
-    <mergeCell ref="B479:C479"/>
-    <mergeCell ref="I407:J407"/>
-    <mergeCell ref="I376:J376"/>
-    <mergeCell ref="I496:J496"/>
-    <mergeCell ref="I467:J467"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="I405:J405"/>
-    <mergeCell ref="A397:L397"/>
-    <mergeCell ref="I401:K401"/>
-    <mergeCell ref="H414:I414"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="I822:J822"/>
-    <mergeCell ref="C813:F813"/>
-    <mergeCell ref="B755:C755"/>
-    <mergeCell ref="H829:I829"/>
-    <mergeCell ref="I571:J571"/>
-    <mergeCell ref="I447:K447"/>
-    <mergeCell ref="A503:L503"/>
-    <mergeCell ref="B569:C569"/>
-    <mergeCell ref="I572:J572"/>
-    <mergeCell ref="A548:L548"/>
-    <mergeCell ref="F552:G552"/>
-    <mergeCell ref="I477:K477"/>
-    <mergeCell ref="I820:J820"/>
-    <mergeCell ref="F816:G816"/>
-    <mergeCell ref="C829:F829"/>
-    <mergeCell ref="I821:J821"/>
-    <mergeCell ref="I816:K816"/>
-    <mergeCell ref="I711:J711"/>
-    <mergeCell ref="I513:J513"/>
-    <mergeCell ref="A488:L488"/>
-    <mergeCell ref="I483:J483"/>
-    <mergeCell ref="I712:J712"/>
-    <mergeCell ref="F800:G800"/>
-    <mergeCell ref="F783:G783"/>
-    <mergeCell ref="A277:L277"/>
-    <mergeCell ref="O292:R292"/>
-    <mergeCell ref="O337:R337"/>
-    <mergeCell ref="T367:Y367"/>
-    <mergeCell ref="O352:R352"/>
-    <mergeCell ref="O232:R232"/>
-    <mergeCell ref="B824:K825"/>
-    <mergeCell ref="B729:K730"/>
-    <mergeCell ref="B840:K841"/>
-    <mergeCell ref="I552:K552"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="A609:L609"/>
-    <mergeCell ref="B834:C834"/>
-    <mergeCell ref="B494:C494"/>
-    <mergeCell ref="C797:F797"/>
-    <mergeCell ref="H797:I797"/>
-    <mergeCell ref="I725:J725"/>
-    <mergeCell ref="C780:F780"/>
-    <mergeCell ref="A563:L563"/>
-    <mergeCell ref="I753:K753"/>
-    <mergeCell ref="C750:F750"/>
-    <mergeCell ref="H750:I750"/>
-    <mergeCell ref="A733:L733"/>
-    <mergeCell ref="I649:J649"/>
-    <mergeCell ref="T217:Y217"/>
-    <mergeCell ref="T292:Y292"/>
-    <mergeCell ref="T578:Y578"/>
-    <mergeCell ref="T187:Y187"/>
-    <mergeCell ref="T473:Y473"/>
-    <mergeCell ref="T428:Y428"/>
-    <mergeCell ref="O473:R473"/>
-    <mergeCell ref="T533:Y533"/>
-    <mergeCell ref="T443:Y443"/>
-    <mergeCell ref="T503:Y503"/>
-    <mergeCell ref="O428:R428"/>
-    <mergeCell ref="T488:Y488"/>
-    <mergeCell ref="T458:Y458"/>
-    <mergeCell ref="T202:Y202"/>
-    <mergeCell ref="T337:Y337"/>
-    <mergeCell ref="T518:Y518"/>
-    <mergeCell ref="T232:Y232"/>
-    <mergeCell ref="O458:R458"/>
-    <mergeCell ref="T382:Y382"/>
-    <mergeCell ref="T397:Y397"/>
-    <mergeCell ref="O397:R397"/>
-    <mergeCell ref="T548:Y548"/>
-    <mergeCell ref="T563:Y563"/>
-    <mergeCell ref="T262:Y262"/>
-    <mergeCell ref="F356:G356"/>
-    <mergeCell ref="I360:J360"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="I679:J679"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="I567:K567"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I197:J197"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="I161:K161"/>
-    <mergeCell ref="F582:G582"/>
-    <mergeCell ref="H579:I579"/>
-    <mergeCell ref="I675:K675"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I330:J330"/>
-    <mergeCell ref="F643:G643"/>
-    <mergeCell ref="I619:J619"/>
-    <mergeCell ref="I617:J617"/>
-    <mergeCell ref="A352:L352"/>
-    <mergeCell ref="F341:G341"/>
-    <mergeCell ref="I341:K341"/>
-    <mergeCell ref="I451:J451"/>
-    <mergeCell ref="I452:J452"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="A142:L142"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="A112:L112"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="F417:G417"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="T157:Y157"/>
-    <mergeCell ref="O142:R142"/>
-    <mergeCell ref="T97:Y97"/>
-    <mergeCell ref="T112:Y112"/>
-    <mergeCell ref="T172:Y172"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="T609:Y609"/>
-    <mergeCell ref="I526:J526"/>
-    <mergeCell ref="I361:J361"/>
-    <mergeCell ref="F432:G432"/>
-    <mergeCell ref="I437:J437"/>
-    <mergeCell ref="I537:K537"/>
-    <mergeCell ref="H474:I474"/>
-    <mergeCell ref="I272:J272"/>
-    <mergeCell ref="I482:J482"/>
-    <mergeCell ref="C278:F278"/>
-    <mergeCell ref="I432:K432"/>
-    <mergeCell ref="I390:J390"/>
-    <mergeCell ref="I391:J391"/>
-    <mergeCell ref="I392:J392"/>
-    <mergeCell ref="I468:J468"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F447:G447"/>
-    <mergeCell ref="I632:J632"/>
-    <mergeCell ref="B808:K809"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B677:C677"/>
-    <mergeCell ref="H610:I610"/>
-    <mergeCell ref="I772:J772"/>
-    <mergeCell ref="I743:J743"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I176:K176"/>
-    <mergeCell ref="I167:J167"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="A187:L187"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="A157:L157"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="A97:L97"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="T127:Y127"/>
-    <mergeCell ref="H564:I564"/>
-    <mergeCell ref="C398:F398"/>
-    <mergeCell ref="A812:L812"/>
-    <mergeCell ref="B818:C818"/>
-    <mergeCell ref="I805:J805"/>
-    <mergeCell ref="A796:L796"/>
-    <mergeCell ref="I737:K737"/>
-    <mergeCell ref="H734:I734"/>
-    <mergeCell ref="I706:K706"/>
-    <mergeCell ref="B708:C708"/>
-    <mergeCell ref="F567:G567"/>
-    <mergeCell ref="I804:J804"/>
-    <mergeCell ref="H780:I780"/>
-    <mergeCell ref="H718:I718"/>
-    <mergeCell ref="F721:G721"/>
-    <mergeCell ref="F753:G753"/>
-    <mergeCell ref="I721:K721"/>
-    <mergeCell ref="A593:L593"/>
-    <mergeCell ref="C734:F734"/>
-    <mergeCell ref="I601:J601"/>
-    <mergeCell ref="I602:J602"/>
-    <mergeCell ref="B409:K410"/>
-    <mergeCell ref="I528:J528"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="O97:R97"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="I86:K86"/>
-    <mergeCell ref="I101:K101"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="A127:L127"/>
-    <mergeCell ref="I226:J226"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C158:F158"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="C143:F143"/>
-    <mergeCell ref="A217:L217"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="I211:J211"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="I116:K116"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="C323:F323"/>
-    <mergeCell ref="H323:I323"/>
-    <mergeCell ref="I296:K296"/>
-    <mergeCell ref="I326:K326"/>
-    <mergeCell ref="I331:J331"/>
-    <mergeCell ref="I332:J332"/>
-    <mergeCell ref="C703:F703"/>
-    <mergeCell ref="H703:I703"/>
-    <mergeCell ref="A578:L578"/>
-    <mergeCell ref="I588:J588"/>
-    <mergeCell ref="F597:G597"/>
-    <mergeCell ref="I597:K597"/>
-    <mergeCell ref="I633:J633"/>
-    <mergeCell ref="I664:J664"/>
-    <mergeCell ref="F401:G401"/>
-    <mergeCell ref="I643:K643"/>
-    <mergeCell ref="B539:C539"/>
-    <mergeCell ref="I541:J541"/>
-    <mergeCell ref="B605:K606"/>
-    <mergeCell ref="C656:F656"/>
-    <mergeCell ref="A655:L655"/>
-    <mergeCell ref="B599:C599"/>
-    <mergeCell ref="H625:I625"/>
-    <mergeCell ref="A247:L247"/>
-    <mergeCell ref="F326:G326"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="I271:J271"/>
-    <mergeCell ref="I281:K281"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="F522:G522"/>
-    <mergeCell ref="I522:K522"/>
-    <mergeCell ref="I498:J498"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="I466:J466"/>
-    <mergeCell ref="H444:I444"/>
-    <mergeCell ref="F371:G371"/>
-    <mergeCell ref="I371:K371"/>
-    <mergeCell ref="H383:I383"/>
-    <mergeCell ref="F386:G386"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="C308:F308"/>
-    <mergeCell ref="I270:J270"/>
-    <mergeCell ref="I315:J315"/>
-    <mergeCell ref="I302:J302"/>
-    <mergeCell ref="I347:J347"/>
-    <mergeCell ref="I317:J317"/>
-    <mergeCell ref="H398:I398"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="O247:R247"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="I417:K417"/>
-    <mergeCell ref="H338:I338"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="A307:L307"/>
-    <mergeCell ref="I300:J300"/>
-    <mergeCell ref="I285:J285"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="A292:L292"/>
-    <mergeCell ref="I286:J286"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="H368:I368"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="I221:K221"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="I225:J225"/>
-    <mergeCell ref="I838:J838"/>
-    <mergeCell ref="I832:K832"/>
-    <mergeCell ref="H672:I672"/>
-    <mergeCell ref="A671:L671"/>
-    <mergeCell ref="B464:C464"/>
-    <mergeCell ref="C474:F474"/>
-    <mergeCell ref="C489:F489"/>
-    <mergeCell ref="I423:J423"/>
-    <mergeCell ref="A443:L443"/>
-    <mergeCell ref="I681:J681"/>
-    <mergeCell ref="F675:G675"/>
-    <mergeCell ref="I587:J587"/>
-    <mergeCell ref="C625:F625"/>
-    <mergeCell ref="A458:L458"/>
-    <mergeCell ref="C459:F459"/>
-    <mergeCell ref="A518:L518"/>
-    <mergeCell ref="I462:K462"/>
-    <mergeCell ref="C579:F579"/>
-    <mergeCell ref="I497:J497"/>
-    <mergeCell ref="H534:I534"/>
-    <mergeCell ref="I558:J558"/>
-    <mergeCell ref="B554:C554"/>
-    <mergeCell ref="B630:C630"/>
-    <mergeCell ref="I542:J542"/>
-    <mergeCell ref="I837:J837"/>
-    <mergeCell ref="I806:J806"/>
-    <mergeCell ref="I836:J836"/>
-    <mergeCell ref="O639:R639"/>
-    <mergeCell ref="O812:R812"/>
-    <mergeCell ref="O671:R671"/>
-    <mergeCell ref="O749:R749"/>
-    <mergeCell ref="A639:L639"/>
-    <mergeCell ref="I618:J618"/>
-    <mergeCell ref="B785:C785"/>
-    <mergeCell ref="B776:K777"/>
-    <mergeCell ref="I787:J787"/>
-    <mergeCell ref="I789:J789"/>
-    <mergeCell ref="A717:L717"/>
-    <mergeCell ref="B723:C723"/>
-    <mergeCell ref="A828:L828"/>
-    <mergeCell ref="O828:R828"/>
-    <mergeCell ref="F832:G832"/>
-    <mergeCell ref="H813:I813"/>
-    <mergeCell ref="I783:K783"/>
-    <mergeCell ref="F737:G737"/>
-    <mergeCell ref="I788:J788"/>
-    <mergeCell ref="B745:K746"/>
-    <mergeCell ref="A764:L764"/>
-    <mergeCell ref="T624:Y624"/>
-    <mergeCell ref="I741:J741"/>
-    <mergeCell ref="I759:J759"/>
-    <mergeCell ref="I768:K768"/>
-    <mergeCell ref="O717:R717"/>
-    <mergeCell ref="T717:Y717"/>
-    <mergeCell ref="T671:Y671"/>
-    <mergeCell ref="T639:Y639"/>
-    <mergeCell ref="O609:R609"/>
-    <mergeCell ref="I648:J648"/>
-    <mergeCell ref="B683:K684"/>
-    <mergeCell ref="H765:I765"/>
-    <mergeCell ref="C765:F765"/>
-    <mergeCell ref="A624:L624"/>
-    <mergeCell ref="A749:L749"/>
-    <mergeCell ref="F691:G691"/>
-    <mergeCell ref="I691:K691"/>
-    <mergeCell ref="H688:I688"/>
-    <mergeCell ref="F628:G628"/>
-    <mergeCell ref="I758:J758"/>
-    <mergeCell ref="I742:J742"/>
-    <mergeCell ref="I647:J647"/>
-    <mergeCell ref="B667:K668"/>
-    <mergeCell ref="I697:J697"/>
-    <mergeCell ref="C640:F640"/>
-    <mergeCell ref="H640:I640"/>
-    <mergeCell ref="I628:K628"/>
-    <mergeCell ref="A779:L779"/>
-    <mergeCell ref="O702:R702"/>
-    <mergeCell ref="B661:C661"/>
-    <mergeCell ref="I710:J710"/>
-    <mergeCell ref="A702:L702"/>
-    <mergeCell ref="T702:Y702"/>
-    <mergeCell ref="B651:K652"/>
-    <mergeCell ref="T749:Y749"/>
-    <mergeCell ref="F768:G768"/>
-    <mergeCell ref="T764:Y764"/>
-    <mergeCell ref="T779:Y779"/>
-    <mergeCell ref="O779:R779"/>
-    <mergeCell ref="I773:J773"/>
-    <mergeCell ref="O733:R733"/>
-    <mergeCell ref="B770:C770"/>
-    <mergeCell ref="B693:C693"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="I665:J665"/>
-    <mergeCell ref="C691:E691"/>
-    <mergeCell ref="I695:J695"/>
-    <mergeCell ref="I696:J696"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="C414:F414"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="B419:C419"/>
-    <mergeCell ref="I377:J377"/>
-    <mergeCell ref="O413:R413"/>
-    <mergeCell ref="I386:K386"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="I375:J375"/>
-    <mergeCell ref="C383:F383"/>
-    <mergeCell ref="A413:L413"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="O217:R217"/>
-    <mergeCell ref="A202:L202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="O382:R382"/>
-    <mergeCell ref="O367:R367"/>
-    <mergeCell ref="O322:R322"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I191:K191"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="I146:K146"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="C188:F188"/>
-    <mergeCell ref="O202:R202"/>
-    <mergeCell ref="O187:R187"/>
-    <mergeCell ref="O157:R157"/>
-    <mergeCell ref="A232:L232"/>
-    <mergeCell ref="I242:J242"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="I236:K236"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="A172:L172"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="O655:R655"/>
-    <mergeCell ref="C672:F672"/>
-    <mergeCell ref="I511:J511"/>
-    <mergeCell ref="I512:J512"/>
-    <mergeCell ref="I436:J436"/>
-    <mergeCell ref="A382:L382"/>
-    <mergeCell ref="O578:R578"/>
-    <mergeCell ref="I586:J586"/>
-    <mergeCell ref="I582:K582"/>
-    <mergeCell ref="H489:I489"/>
-    <mergeCell ref="F492:G492"/>
-    <mergeCell ref="I492:K492"/>
-    <mergeCell ref="I421:J421"/>
-    <mergeCell ref="I422:J422"/>
-    <mergeCell ref="I557:J557"/>
-    <mergeCell ref="O518:R518"/>
-    <mergeCell ref="A428:L428"/>
-    <mergeCell ref="C338:F338"/>
-    <mergeCell ref="F281:G281"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="O624:R624"/>
-    <mergeCell ref="O796:R796"/>
-    <mergeCell ref="I406:J406"/>
-    <mergeCell ref="A687:L687"/>
-    <mergeCell ref="O764:R764"/>
-    <mergeCell ref="C564:F564"/>
-    <mergeCell ref="O593:R593"/>
-    <mergeCell ref="I573:J573"/>
-    <mergeCell ref="I603:J603"/>
-    <mergeCell ref="I800:K800"/>
-    <mergeCell ref="C594:F594"/>
-    <mergeCell ref="B739:C739"/>
-    <mergeCell ref="I774:J774"/>
-    <mergeCell ref="H656:I656"/>
-    <mergeCell ref="I757:J757"/>
-    <mergeCell ref="F706:G706"/>
-    <mergeCell ref="I438:J438"/>
-    <mergeCell ref="H459:I459"/>
-    <mergeCell ref="O563:R563"/>
-    <mergeCell ref="O548:R548"/>
-    <mergeCell ref="O443:R443"/>
-    <mergeCell ref="C549:F549"/>
-    <mergeCell ref="H549:I549"/>
-    <mergeCell ref="O488:R488"/>
-    <mergeCell ref="O533:R533"/>
-    <mergeCell ref="T796:Y796"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I634:J634"/>
-    <mergeCell ref="A533:L533"/>
-    <mergeCell ref="I543:J543"/>
-    <mergeCell ref="C429:F429"/>
-    <mergeCell ref="C504:F504"/>
-    <mergeCell ref="H504:I504"/>
-    <mergeCell ref="F507:G507"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="B509:C509"/>
-    <mergeCell ref="I507:K507"/>
-    <mergeCell ref="T413:Y413"/>
-    <mergeCell ref="C353:F353"/>
-    <mergeCell ref="I362:J362"/>
-    <mergeCell ref="H519:I519"/>
-    <mergeCell ref="A473:L473"/>
-    <mergeCell ref="O503:R503"/>
-    <mergeCell ref="H429:I429"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T828:Y828"/>
-    <mergeCell ref="T812:Y812"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="I210:J210"/>
-    <mergeCell ref="I356:K356"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T322:Y322"/>
-    <mergeCell ref="T307:Y307"/>
-    <mergeCell ref="T277:Y277"/>
-    <mergeCell ref="T352:Y352"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="C248:F248"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="H353:I353"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="I251:K251"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="I227:J227"/>
-    <mergeCell ref="O262:R262"/>
-    <mergeCell ref="O172:R172"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="A262:L262"/>
-    <mergeCell ref="I266:K266"/>
-    <mergeCell ref="I346:J346"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I311:K311"/>
-    <mergeCell ref="T247:Y247"/>
-    <mergeCell ref="I241:J241"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="C218:F218"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="I316:J316"/>
-    <mergeCell ref="I196:J196"/>
-    <mergeCell ref="I195:J195"/>
-    <mergeCell ref="O307:R307"/>
-    <mergeCell ref="I301:J301"/>
-    <mergeCell ref="A337:L337"/>
-    <mergeCell ref="A322:L322"/>
-    <mergeCell ref="O277:R277"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="I255:J255"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
